--- a/docs/table/table_result_juris_tcu_superior.xlsx
+++ b/docs/table/table_result_juris_tcu_superior.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,13 +28,897 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <color rgb="00000000"/>
+    </font>
+    <font>
+      <color rgb="00F1F1F1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="178">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F7FCF5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00004D1F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0078C679"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F4FBF1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EBF7E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B2E0AC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BBE4B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F4FBF2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0005712F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BDE5B6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E1F3DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2FAF0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCEBC6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F3FAF0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F1FAEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00087432"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0083CB82"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004EB264"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D4EECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F0F9EC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F5FBF3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006ABF71"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0075C477"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DAF0D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F0F9ED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EDF8E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EEF8EA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E5F5E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F6FCF4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E3F4DE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E7F6E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EDF8EA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AFDFA8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EAF7E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0092D28F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0081CA81"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DEF2D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E6F5E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9F0D3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D5EFCF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000441B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0076C578"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EFF9EB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B7E2B1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B5E1AE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00067230"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B8E3B2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DCF2D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CAEAC3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00006B2B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0088CE87"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00369F54"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CEECC8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2FAEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0063BC6E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006DC072"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E9F7E5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E0F3DB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E4F5DF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ECF8E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003BA458"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0042AB5D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0091D28E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ACDEA6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0098D594"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003FA95C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D0EDCA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E8F6E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0048AE60"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C3E7BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009CD797"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DBF1D5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002A924A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005BB86A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0040AA5D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0073C476"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CDECC7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00137D39"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00258D47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D8F0D2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007CC87C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A7DBA0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AEDEA7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E7F6E2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0090D18D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0094D390"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CBEAC4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C0E6B9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009ED798"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B4E1AD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00208843"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0056B567"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CFECC9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CBEBC5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C8E9C1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D7EFD1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E5F5E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D2EDCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D6EFD0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C9EAC2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A8DCA2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C7E9C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D1EDCB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0097D492"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DFF3DA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F5FBF2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C1E6BA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0095D391"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DDF2D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009FD899"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BEE5B8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B6E2AF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009BD696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00268E47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0087CD86"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005DB96B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00228A44"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0066BD6F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00127C39"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A4DA9E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006EC173"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0003702E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00248C46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004BB062"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00117B38"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00005622"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0072C375"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00289049"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0045AD5F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C6E8BF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0050B264"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0062BB6D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005AB769"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008BCF89"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BAE3B3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00006227"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0019833E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0052B365"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D3EECD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A0D99B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0084CC83"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006BC072"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AADDA4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0079C67A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C2E7BB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0068BE70"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0060BA6C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0099D595"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00107A37"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002D954D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004AAF61"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00077331"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0086CC85"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002E964D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BCE4B5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002C944C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EFF9EC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E2F4DD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C4E8BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DBF1D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00006328"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B0DFAA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003FA85B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0038A156"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003DA65A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A5DB9F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001A843F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008ED08B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0080CA80"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001D8640"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A2D99C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008DD08A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008ACE88"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E8F6E4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ABDDA5"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -104,11 +988,187 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="63" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="52" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="151" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="163" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="90" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="64" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="152" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="65" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="116" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="137" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="144" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="66" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="117" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="104" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="132" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="67" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="118" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="89" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="164" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="68" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="119" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="153" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="165" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="69" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="120" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="96" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="142" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="70" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="71" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="121" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="166" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="72" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="122" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="51" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="73" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="123" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="100" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="74" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="48" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="75" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="124" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="154" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="138" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="125" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="76" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="78" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="50" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="126" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="167" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="77" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="127" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="155" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="94" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="168" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="79" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="80" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="53" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="81" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="128" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="156" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="169" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="82" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="129" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="54" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="83" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="130" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="133" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="158" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="55" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="84" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="131" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="149" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="85" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="147" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="170" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="99" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="86" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="171" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="62" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="60" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="56" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="87" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="134" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="157" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="88" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="135" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="113" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="145" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="136" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="91" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="103" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="97" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="92" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="58" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="93" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="172" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="139" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="140" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="141" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="59" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="115" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="95" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="143" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="173" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="102" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="98" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="108" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="114" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="101" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="159" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="174" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="160" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="146" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="161" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="175" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="105" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="106" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="148" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="110" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="107" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="61" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="109" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="162" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="176" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="111" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="112" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="177" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="150" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -621,25 +1681,25 @@
           <t>----</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="2" t="n">
         <v>54.992</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="2" t="n">
         <v>18.47</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="2" t="n">
         <v>21.479</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="2" t="n">
         <v>82.94</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="2" t="n">
         <v>51.823</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="2" t="n">
         <v>12.92</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5" s="2" t="n">
         <v>6.72</v>
       </c>
     </row>
@@ -653,25 +1713,25 @@
           <t>base</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="3" t="n">
         <v>72.946</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="4" t="n">
         <v>61.123</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="5" t="n">
         <v>73.485</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="6" t="n">
         <v>91.08199999999999</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="7" t="n">
         <v>93.92</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="8" t="n">
         <v>15.507</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6" s="9" t="n">
         <v>15.773</v>
       </c>
     </row>
@@ -685,15 +1745,15 @@
           <t>basei</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
+      <c r="F7" s="10" t="inlineStr"/>
+      <c r="G7" s="10" t="inlineStr"/>
+      <c r="H7" s="10" t="inlineStr"/>
+      <c r="I7" s="10" t="inlineStr"/>
+      <c r="J7" s="11" t="n">
         <v>86.398</v>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="K7" s="10" t="inlineStr"/>
+      <c r="L7" s="10" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -705,25 +1765,25 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="12" t="n">
         <v>64.086</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="13" t="n">
         <v>56.669</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="14" t="n">
         <v>64.157</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="15" t="n">
         <v>90.739</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="16" t="n">
         <v>93.666</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="17" t="n">
         <v>15.16</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8" s="8" t="n">
         <v>15.507</v>
       </c>
     </row>
@@ -737,19 +1797,19 @@
           <t>indiri</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
+      <c r="F9" s="10" t="inlineStr"/>
+      <c r="G9" s="10" t="inlineStr"/>
+      <c r="H9" s="10" t="inlineStr"/>
+      <c r="I9" s="18" t="n">
         <v>88.194</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" s="19" t="n">
         <v>92.14700000000001</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" s="20" t="n">
         <v>13.853</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9" s="21" t="n">
         <v>14.573</v>
       </c>
     </row>
@@ -771,23 +1831,23 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="22" t="n">
         <v>55.429</v>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
+      <c r="G10" s="10" t="inlineStr"/>
+      <c r="H10" s="23" t="n">
         <v>56.191</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="24" t="n">
         <v>87.17400000000001</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" s="25" t="n">
         <v>88.545</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" s="26" t="n">
         <v>13.72</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10" s="27" t="n">
         <v>13.733</v>
       </c>
     </row>
@@ -805,23 +1865,23 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="28" t="n">
         <v>56.521</v>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
+      <c r="G11" s="10" t="inlineStr"/>
+      <c r="H11" s="29" t="n">
         <v>56.105</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="30" t="n">
         <v>87.95999999999999</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11" s="31" t="n">
         <v>89.86799999999999</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="32" t="n">
         <v>13.667</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11" s="33" t="n">
         <v>13.947</v>
       </c>
     </row>
@@ -839,19 +1899,19 @@
           <t>----</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="n">
+      <c r="F12" s="10" t="inlineStr"/>
+      <c r="G12" s="10" t="inlineStr"/>
+      <c r="H12" s="10" t="inlineStr"/>
+      <c r="I12" s="34" t="n">
         <v>83.194</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12" s="2" t="n">
         <v>55.882</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" s="35" t="n">
         <v>13.067</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12" s="2" t="n">
         <v>7.16</v>
       </c>
     </row>
@@ -865,23 +1925,23 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="36" t="n">
         <v>60.909</v>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
+      <c r="G13" s="10" t="inlineStr"/>
+      <c r="H13" s="37" t="n">
         <v>60.618</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="38" t="n">
         <v>90.80500000000001</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13" s="39" t="n">
         <v>92.34999999999999</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13" s="40" t="n">
         <v>14.827</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13" s="41" t="n">
         <v>14.92</v>
       </c>
     </row>
@@ -903,23 +1963,23 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="2" t="n">
         <v>54.637</v>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
+      <c r="G14" s="10" t="inlineStr"/>
+      <c r="H14" s="42" t="n">
         <v>55.532</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" s="43" t="n">
         <v>85.607</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14" s="4" t="n">
         <v>87.04600000000001</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14" s="44" t="n">
         <v>13.64</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14" s="33" t="n">
         <v>13.947</v>
       </c>
     </row>
@@ -937,19 +1997,19 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
+      <c r="F15" s="10" t="inlineStr"/>
+      <c r="G15" s="10" t="inlineStr"/>
+      <c r="H15" s="10" t="inlineStr"/>
+      <c r="I15" s="45" t="n">
         <v>86.664</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15" s="46" t="n">
         <v>89.58799999999999</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15" s="47" t="n">
         <v>13.653</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15" s="48" t="n">
         <v>14.107</v>
       </c>
     </row>
@@ -967,19 +2027,19 @@
           <t>----</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
+      <c r="F16" s="10" t="inlineStr"/>
+      <c r="G16" s="10" t="inlineStr"/>
+      <c r="H16" s="10" t="inlineStr"/>
+      <c r="I16" s="49" t="n">
         <v>84.3</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16" s="2" t="n">
         <v>57.871</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16" s="35" t="n">
         <v>13.067</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16" s="2" t="n">
         <v>7.4</v>
       </c>
     </row>
@@ -993,23 +2053,23 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="50" t="n">
         <v>60.401</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
+      <c r="G17" s="10" t="inlineStr"/>
+      <c r="H17" s="51" t="n">
         <v>60.702</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17" s="52" t="n">
         <v>90.517</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17" s="53" t="n">
         <v>93.078</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17" s="40" t="n">
         <v>14.827</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17" s="54" t="n">
         <v>15.013</v>
       </c>
     </row>
@@ -1031,23 +2091,23 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="34" t="n">
         <v>55.409</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
+      <c r="G18" s="10" t="inlineStr"/>
+      <c r="H18" s="29" t="n">
         <v>56.118</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" s="55" t="n">
         <v>86.233</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18" s="56" t="n">
         <v>87.514</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18" s="57" t="n">
         <v>13.68</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18" s="48" t="n">
         <v>14.107</v>
       </c>
     </row>
@@ -1065,17 +2125,17 @@
           <t>----</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
+      <c r="F19" s="10" t="inlineStr"/>
+      <c r="G19" s="10" t="inlineStr"/>
+      <c r="H19" s="10" t="inlineStr"/>
+      <c r="I19" s="42" t="n">
         <v>83.289</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19" s="2" t="n">
         <v>56.886</v>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" s="10" t="inlineStr"/>
+      <c r="L19" s="10" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -1087,19 +2147,19 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
+      <c r="F20" s="10" t="inlineStr"/>
+      <c r="G20" s="10" t="inlineStr"/>
+      <c r="H20" s="10" t="inlineStr"/>
+      <c r="I20" s="58" t="n">
         <v>87.795</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20" s="59" t="n">
         <v>89.364</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20" s="60" t="n">
         <v>13.573</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20" s="33" t="n">
         <v>13.947</v>
       </c>
     </row>
@@ -1117,19 +2177,19 @@
           <t>----</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="n">
+      <c r="F21" s="10" t="inlineStr"/>
+      <c r="G21" s="10" t="inlineStr"/>
+      <c r="H21" s="10" t="inlineStr"/>
+      <c r="I21" s="61" t="n">
         <v>85.047</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21" s="2" t="n">
         <v>57.676</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21" s="62" t="n">
         <v>12.933</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21" s="2" t="n">
         <v>7.267</v>
       </c>
     </row>
@@ -1143,25 +2203,25 @@
           <t>base</t>
         </is>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="16" t="n">
         <v>70.821</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="63" t="n">
         <v>62.676</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22" s="64" t="n">
         <v>70.76000000000001</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22" s="65" t="n">
         <v>91.922</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22" s="66" t="n">
         <v>93.678</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22" s="67" t="n">
         <v>15.6</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22" s="68" t="n">
         <v>15.787</v>
       </c>
     </row>
@@ -1175,25 +2235,25 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" s="69" t="n">
         <v>60.259</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="62" t="n">
         <v>55.107</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23" s="45" t="n">
         <v>60.503</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23" s="52" t="n">
         <v>90.512</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23" s="70" t="n">
         <v>92.212</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23" s="71" t="n">
         <v>14.693</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23" s="41" t="n">
         <v>14.92</v>
       </c>
     </row>
@@ -1207,19 +2267,19 @@
           <t>indiri</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="n">
+      <c r="F24" s="10" t="inlineStr"/>
+      <c r="G24" s="10" t="inlineStr"/>
+      <c r="H24" s="10" t="inlineStr"/>
+      <c r="I24" s="72" t="n">
         <v>84.726</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24" s="73" t="n">
         <v>89.20099999999999</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24" s="2" t="n">
         <v>12.747</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24" s="74" t="n">
         <v>13.413</v>
       </c>
     </row>
@@ -1241,23 +2301,23 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F25" t="n">
+      <c r="F25" s="72" t="n">
         <v>57.645</v>
       </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="n">
+      <c r="G25" s="10" t="inlineStr"/>
+      <c r="H25" s="75" t="n">
         <v>57.958</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25" s="71" t="n">
         <v>89.914</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25" s="76" t="n">
         <v>90.447</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25" s="76" t="n">
         <v>14.813</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25" s="77" t="n">
         <v>14.947</v>
       </c>
     </row>
@@ -1275,25 +2335,25 @@
           <t>----</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" s="78" t="n">
         <v>55.582</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" s="2" t="n">
         <v>20.593</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26" s="2" t="n">
         <v>25.808</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26" s="44" t="n">
         <v>85.78700000000001</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26" s="2" t="n">
         <v>60.491</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26" s="27" t="n">
         <v>13.733</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26" s="2" t="n">
         <v>7.92</v>
       </c>
     </row>
@@ -1307,23 +2367,23 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F27" t="n">
+      <c r="F27" s="44" t="n">
         <v>59.251</v>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="n">
+      <c r="G27" s="10" t="inlineStr"/>
+      <c r="H27" s="57" t="n">
         <v>59.405</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27" s="79" t="n">
         <v>90.759</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27" s="80" t="n">
         <v>93.124</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27" s="81" t="n">
         <v>14.347</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27" s="31" t="n">
         <v>14.68</v>
       </c>
     </row>
@@ -1341,23 +2401,23 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="F28" s="42" t="n">
         <v>55.544</v>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="n">
+      <c r="G28" s="10" t="inlineStr"/>
+      <c r="H28" s="82" t="n">
         <v>55.89</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28" s="73" t="n">
         <v>89.18600000000001</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28" s="83" t="n">
         <v>90.071</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28" s="4" t="n">
         <v>13.96</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28" s="84" t="n">
         <v>14.067</v>
       </c>
     </row>
@@ -1375,25 +2435,25 @@
           <t>----</t>
         </is>
       </c>
-      <c r="F29" t="n">
+      <c r="F29" s="35" t="n">
         <v>55.718</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29" s="2" t="n">
         <v>21.627</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29" s="2" t="n">
         <v>25.911</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29" s="85" t="n">
         <v>85.738</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29" s="2" t="n">
         <v>61.561</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29" s="86" t="n">
         <v>13.533</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L29" s="2" t="n">
         <v>8.119999999999999</v>
       </c>
     </row>
@@ -1407,25 +2467,25 @@
           <t>base</t>
         </is>
       </c>
-      <c r="F30" t="n">
+      <c r="F30" s="87" t="n">
         <v>70.65900000000001</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30" s="88" t="n">
         <v>63.542</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30" s="7" t="n">
         <v>71.251</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30" s="89" t="n">
         <v>93.003</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30" s="5" t="n">
         <v>95.423</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30" s="68" t="n">
         <v>15.787</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L30" s="5" t="n">
         <v>16.08</v>
       </c>
     </row>
@@ -1439,25 +2499,25 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F31" t="n">
+      <c r="F31" s="90" t="n">
         <v>63.46</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31" s="74" t="n">
         <v>57.846</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31" s="91" t="n">
         <v>63.16</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31" s="92" t="n">
         <v>92.19199999999999</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31" s="93" t="n">
         <v>94.73999999999999</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31" s="94" t="n">
         <v>15.147</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31" s="95" t="n">
         <v>15.387</v>
       </c>
     </row>
@@ -1471,19 +2531,19 @@
           <t>indiri</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="n">
+      <c r="F32" s="10" t="inlineStr"/>
+      <c r="G32" s="10" t="inlineStr"/>
+      <c r="H32" s="10" t="inlineStr"/>
+      <c r="I32" s="96" t="n">
         <v>85.187</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32" s="97" t="n">
         <v>89.23399999999999</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32" s="2" t="n">
         <v>12.6</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L32" s="61" t="n">
         <v>13.453</v>
       </c>
     </row>
@@ -1513,25 +2573,25 @@
           <t>base</t>
         </is>
       </c>
-      <c r="F33" t="n">
+      <c r="F33" s="98" t="n">
         <v>65.965</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33" s="99" t="n">
         <v>57.212</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33" s="100" t="n">
         <v>67.396</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33" s="101" t="n">
         <v>88.892</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33" s="102" t="n">
         <v>92.032</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33" s="103" t="n">
         <v>14.773</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L33" s="104" t="n">
         <v>15.173</v>
       </c>
     </row>
@@ -1545,15 +2605,15 @@
           <t>basei</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
+      <c r="F34" s="10" t="inlineStr"/>
+      <c r="G34" s="10" t="inlineStr"/>
+      <c r="H34" s="10" t="inlineStr"/>
+      <c r="I34" s="10" t="inlineStr"/>
+      <c r="J34" s="60" t="n">
         <v>85.512</v>
       </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" s="10" t="inlineStr"/>
+      <c r="L34" s="10" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
@@ -1565,25 +2625,25 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F35" t="n">
+      <c r="F35" s="105" t="n">
         <v>58.648</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35" s="2" t="n">
         <v>52.605</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35" s="106" t="n">
         <v>59.043</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35" s="107" t="n">
         <v>87.41500000000001</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35" s="108" t="n">
         <v>90.64100000000001</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35" s="18" t="n">
         <v>14.253</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L35" s="109" t="n">
         <v>14.653</v>
       </c>
     </row>
@@ -1597,19 +2657,19 @@
           <t>indiri</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="n">
+      <c r="F36" s="10" t="inlineStr"/>
+      <c r="G36" s="10" t="inlineStr"/>
+      <c r="H36" s="10" t="inlineStr"/>
+      <c r="I36" s="110" t="n">
         <v>87.124</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36" s="38" t="n">
         <v>90.815</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36" s="111" t="n">
         <v>13.76</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L36" s="112" t="n">
         <v>14.267</v>
       </c>
     </row>
@@ -1631,17 +2691,17 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="n">
+      <c r="F37" s="10" t="inlineStr"/>
+      <c r="G37" s="10" t="inlineStr"/>
+      <c r="H37" s="10" t="inlineStr"/>
+      <c r="I37" s="2" t="n">
         <v>82.58</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37" s="113" t="n">
         <v>84.47</v>
       </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" s="10" t="inlineStr"/>
+      <c r="L37" s="10" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n"/>
@@ -1657,19 +2717,19 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="n">
+      <c r="F38" s="10" t="inlineStr"/>
+      <c r="G38" s="10" t="inlineStr"/>
+      <c r="H38" s="10" t="inlineStr"/>
+      <c r="I38" s="114" t="n">
         <v>84.372</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38" s="27" t="n">
         <v>86.121</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K38" s="2" t="n">
         <v>12.587</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L38" s="62" t="n">
         <v>12.933</v>
       </c>
     </row>
@@ -1687,17 +2747,17 @@
           <t>----</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="n">
+      <c r="F39" s="10" t="inlineStr"/>
+      <c r="G39" s="10" t="inlineStr"/>
+      <c r="H39" s="10" t="inlineStr"/>
+      <c r="I39" s="115" t="n">
         <v>83.791</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39" s="2" t="n">
         <v>59.393</v>
       </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" s="10" t="inlineStr"/>
+      <c r="L39" s="10" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n"/>
@@ -1709,23 +2769,23 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F40" t="n">
+      <c r="F40" s="116" t="n">
         <v>55.985</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
+      <c r="G40" s="10" t="inlineStr"/>
+      <c r="H40" s="117" t="n">
         <v>56.33</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40" s="58" t="n">
         <v>87.809</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40" s="103" t="n">
         <v>90.28100000000001</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40" s="4" t="n">
         <v>13.96</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L40" s="118" t="n">
         <v>14.4</v>
       </c>
     </row>
@@ -1747,17 +2807,17 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="n">
+      <c r="F41" s="10" t="inlineStr"/>
+      <c r="G41" s="10" t="inlineStr"/>
+      <c r="H41" s="10" t="inlineStr"/>
+      <c r="I41" s="2" t="n">
         <v>82.788</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41" s="29" t="n">
         <v>83.71599999999999</v>
       </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" s="10" t="inlineStr"/>
+      <c r="L41" s="10" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
@@ -1773,17 +2833,17 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="n">
+      <c r="F42" s="10" t="inlineStr"/>
+      <c r="G42" s="10" t="inlineStr"/>
+      <c r="H42" s="10" t="inlineStr"/>
+      <c r="I42" s="2" t="n">
         <v>82.04300000000001</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42" s="119" t="n">
         <v>83.944</v>
       </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" s="10" t="inlineStr"/>
+      <c r="L42" s="10" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
@@ -1799,17 +2859,17 @@
           <t>----</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="n">
+      <c r="F43" s="10" t="inlineStr"/>
+      <c r="G43" s="10" t="inlineStr"/>
+      <c r="H43" s="10" t="inlineStr"/>
+      <c r="I43" s="120" t="n">
         <v>84.755</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43" s="2" t="n">
         <v>61.459</v>
       </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" s="10" t="inlineStr"/>
+      <c r="L43" s="10" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n"/>
@@ -1821,23 +2881,23 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F44" t="n">
+      <c r="F44" s="121" t="n">
         <v>55.255</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
+      <c r="G44" s="10" t="inlineStr"/>
+      <c r="H44" s="122" t="n">
         <v>55.708</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44" s="123" t="n">
         <v>88.22499999999999</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44" s="124" t="n">
         <v>89.741</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K44" s="125" t="n">
         <v>13.827</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L44" s="56" t="n">
         <v>14.08</v>
       </c>
     </row>
@@ -1859,19 +2919,19 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="n">
+      <c r="F45" s="10" t="inlineStr"/>
+      <c r="G45" s="10" t="inlineStr"/>
+      <c r="H45" s="10" t="inlineStr"/>
+      <c r="I45" s="34" t="n">
         <v>83.227</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45" s="126" t="n">
         <v>85.151</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K45" s="2" t="n">
         <v>12.653</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L45" s="78" t="n">
         <v>13.027</v>
       </c>
     </row>
@@ -1889,17 +2949,17 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="n">
+      <c r="F46" s="10" t="inlineStr"/>
+      <c r="G46" s="10" t="inlineStr"/>
+      <c r="H46" s="10" t="inlineStr"/>
+      <c r="I46" s="78" t="n">
         <v>83.375</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46" s="86" t="n">
         <v>85.33199999999999</v>
       </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" s="10" t="inlineStr"/>
+      <c r="L46" s="10" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
@@ -1915,17 +2975,17 @@
           <t>----</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="n">
+      <c r="F47" s="10" t="inlineStr"/>
+      <c r="G47" s="10" t="inlineStr"/>
+      <c r="H47" s="10" t="inlineStr"/>
+      <c r="I47" s="74" t="n">
         <v>84.887</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47" s="2" t="n">
         <v>62.385</v>
       </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" s="10" t="inlineStr"/>
+      <c r="L47" s="10" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
@@ -1937,25 +2997,25 @@
           <t>base</t>
         </is>
       </c>
-      <c r="F48" t="n">
+      <c r="F48" s="127" t="n">
         <v>64.696</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48" s="126" t="n">
         <v>58.284</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48" s="128" t="n">
         <v>65.00700000000001</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48" s="100" t="n">
         <v>91.286</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48" s="70" t="n">
         <v>92.208</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K48" s="79" t="n">
         <v>14.907</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L48" s="17" t="n">
         <v>15.16</v>
       </c>
     </row>
@@ -1969,25 +3029,25 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F49" t="n">
+      <c r="F49" s="78" t="n">
         <v>55.578</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49" s="2" t="n">
         <v>52.282</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49" s="23" t="n">
         <v>56.163</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49" s="129" t="n">
         <v>88.066</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49" s="130" t="n">
         <v>89.982</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K49" s="131" t="n">
         <v>13.8</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L49" s="132" t="n">
         <v>14.013</v>
       </c>
     </row>
@@ -2001,19 +3061,19 @@
           <t>indiri</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="n">
+      <c r="F50" s="10" t="inlineStr"/>
+      <c r="G50" s="10" t="inlineStr"/>
+      <c r="H50" s="10" t="inlineStr"/>
+      <c r="I50" s="32" t="n">
         <v>85.889</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50" s="133" t="n">
         <v>88.386</v>
       </c>
-      <c r="K50" t="n">
+      <c r="K50" s="122" t="n">
         <v>13.04</v>
       </c>
-      <c r="L50" t="n">
+      <c r="L50" s="61" t="n">
         <v>13.453</v>
       </c>
     </row>
@@ -2035,19 +3095,19 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="n">
+      <c r="F51" s="10" t="inlineStr"/>
+      <c r="G51" s="10" t="inlineStr"/>
+      <c r="H51" s="10" t="inlineStr"/>
+      <c r="I51" s="30" t="n">
         <v>87.949</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J51" s="134" t="n">
         <v>87.73999999999999</v>
       </c>
-      <c r="K51" t="n">
+      <c r="K51" s="20" t="n">
         <v>13.853</v>
       </c>
-      <c r="L51" t="n">
+      <c r="L51" s="135" t="n">
         <v>14.04</v>
       </c>
     </row>
@@ -2065,19 +3125,19 @@
           <t>----</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="n">
+      <c r="F52" s="10" t="inlineStr"/>
+      <c r="G52" s="10" t="inlineStr"/>
+      <c r="H52" s="10" t="inlineStr"/>
+      <c r="I52" s="11" t="n">
         <v>86.38200000000001</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52" s="2" t="n">
         <v>61.65</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K52" s="99" t="n">
         <v>13.293</v>
       </c>
-      <c r="L52" t="n">
+      <c r="L52" s="2" t="n">
         <v>7.947</v>
       </c>
     </row>
@@ -2091,19 +3151,19 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="n">
+      <c r="F53" s="10" t="inlineStr"/>
+      <c r="G53" s="10" t="inlineStr"/>
+      <c r="H53" s="10" t="inlineStr"/>
+      <c r="I53" s="134" t="n">
         <v>87.73999999999999</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53" s="76" t="n">
         <v>90.417</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K53" s="75" t="n">
         <v>13.427</v>
       </c>
-      <c r="L53" t="n">
+      <c r="L53" s="136" t="n">
         <v>13.707</v>
       </c>
     </row>
@@ -2121,19 +3181,19 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="n">
+      <c r="F54" s="10" t="inlineStr"/>
+      <c r="G54" s="10" t="inlineStr"/>
+      <c r="H54" s="10" t="inlineStr"/>
+      <c r="I54" s="86" t="n">
         <v>85.369</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J54" s="20" t="n">
         <v>86.634</v>
       </c>
-      <c r="K54" t="n">
+      <c r="K54" s="23" t="n">
         <v>13.12</v>
       </c>
-      <c r="L54" t="n">
+      <c r="L54" s="137" t="n">
         <v>13.32</v>
       </c>
     </row>
@@ -2151,19 +3211,19 @@
           <t>----</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="n">
+      <c r="F55" s="10" t="inlineStr"/>
+      <c r="G55" s="10" t="inlineStr"/>
+      <c r="H55" s="10" t="inlineStr"/>
+      <c r="I55" s="138" t="n">
         <v>86.852</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J55" s="2" t="n">
         <v>63.931</v>
       </c>
-      <c r="K55" t="n">
+      <c r="K55" s="139" t="n">
         <v>13.347</v>
       </c>
-      <c r="L55" t="n">
+      <c r="L55" s="2" t="n">
         <v>8.359999999999999</v>
       </c>
     </row>
@@ -2177,25 +3237,25 @@
           <t>base</t>
         </is>
       </c>
-      <c r="F56" t="n">
+      <c r="F56" s="140" t="n">
         <v>64.191</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56" s="86" t="n">
         <v>58.588</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56" s="141" t="n">
         <v>64.59</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I56" s="142" t="n">
         <v>92.425</v>
       </c>
-      <c r="J56" t="n">
+      <c r="J56" s="68" t="n">
         <v>94.297</v>
       </c>
-      <c r="K56" t="n">
+      <c r="K56" s="104" t="n">
         <v>15.173</v>
       </c>
-      <c r="L56" t="n">
+      <c r="L56" s="143" t="n">
         <v>15.36</v>
       </c>
     </row>
@@ -2209,25 +3269,25 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F57" t="n">
+      <c r="F57" s="144" t="n">
         <v>58.226</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57" s="2" t="n">
         <v>53.379</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57" s="144" t="n">
         <v>58.194</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I57" s="83" t="n">
         <v>90.081</v>
       </c>
-      <c r="J57" t="n">
+      <c r="J57" s="145" t="n">
         <v>92.739</v>
       </c>
-      <c r="K57" t="n">
+      <c r="K57" s="88" t="n">
         <v>14.387</v>
       </c>
-      <c r="L57" t="n">
+      <c r="L57" s="109" t="n">
         <v>14.653</v>
       </c>
     </row>
@@ -2241,19 +3301,19 @@
           <t>indiri</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="n">
+      <c r="F58" s="10" t="inlineStr"/>
+      <c r="G58" s="10" t="inlineStr"/>
+      <c r="H58" s="10" t="inlineStr"/>
+      <c r="I58" s="11" t="n">
         <v>86.364</v>
       </c>
-      <c r="J58" t="n">
+      <c r="J58" s="146" t="n">
         <v>90.232</v>
       </c>
-      <c r="K58" t="n">
+      <c r="K58" s="82" t="n">
         <v>13.08</v>
       </c>
-      <c r="L58" t="n">
+      <c r="L58" s="86" t="n">
         <v>13.533</v>
       </c>
     </row>
@@ -2279,15 +3339,15 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
+      <c r="F59" s="10" t="inlineStr"/>
+      <c r="G59" s="10" t="inlineStr"/>
+      <c r="H59" s="10" t="inlineStr"/>
+      <c r="I59" s="10" t="inlineStr"/>
+      <c r="J59" s="147" t="n">
         <v>85.468</v>
       </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
+      <c r="K59" s="10" t="inlineStr"/>
+      <c r="L59" s="28" t="n">
         <v>13.187</v>
       </c>
     </row>
@@ -2309,15 +3369,15 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
+      <c r="F60" s="10" t="inlineStr"/>
+      <c r="G60" s="10" t="inlineStr"/>
+      <c r="H60" s="10" t="inlineStr"/>
+      <c r="I60" s="10" t="inlineStr"/>
+      <c r="J60" s="78" t="n">
         <v>83.376</v>
       </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" s="10" t="inlineStr"/>
+      <c r="L60" s="10" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n"/>
@@ -2337,15 +3397,15 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
+      <c r="F61" s="10" t="inlineStr"/>
+      <c r="G61" s="10" t="inlineStr"/>
+      <c r="H61" s="10" t="inlineStr"/>
+      <c r="I61" s="10" t="inlineStr"/>
+      <c r="J61" s="13" t="n">
         <v>84.06699999999999</v>
       </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" s="10" t="inlineStr"/>
+      <c r="L61" s="10" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -2373,23 +3433,23 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F62" t="n">
+      <c r="F62" s="82" t="n">
         <v>55.87</v>
       </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="n">
+      <c r="G62" s="10" t="inlineStr"/>
+      <c r="H62" s="117" t="n">
         <v>56.328</v>
       </c>
-      <c r="I62" t="n">
+      <c r="I62" s="148" t="n">
         <v>84.157</v>
       </c>
-      <c r="J62" t="n">
+      <c r="J62" s="85" t="n">
         <v>85.75</v>
       </c>
-      <c r="K62" t="n">
+      <c r="K62" s="148" t="n">
         <v>13.227</v>
       </c>
-      <c r="L62" t="n">
+      <c r="L62" s="86" t="n">
         <v>13.533</v>
       </c>
     </row>
@@ -2403,19 +3463,19 @@
           <t>indiri</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="n">
+      <c r="F63" s="10" t="inlineStr"/>
+      <c r="G63" s="10" t="inlineStr"/>
+      <c r="H63" s="10" t="inlineStr"/>
+      <c r="I63" s="105" t="n">
         <v>85.38200000000001</v>
       </c>
-      <c r="J63" t="n">
+      <c r="J63" s="48" t="n">
         <v>87.65300000000001</v>
       </c>
-      <c r="K63" t="n">
+      <c r="K63" s="85" t="n">
         <v>13.627</v>
       </c>
-      <c r="L63" t="n">
+      <c r="L63" s="24" t="n">
         <v>13.987</v>
       </c>
     </row>
@@ -2437,19 +3497,19 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="n">
+      <c r="F64" s="10" t="inlineStr"/>
+      <c r="G64" s="10" t="inlineStr"/>
+      <c r="H64" s="10" t="inlineStr"/>
+      <c r="I64" s="23" t="n">
         <v>83.735</v>
       </c>
-      <c r="J64" t="n">
+      <c r="J64" s="28" t="n">
         <v>84.024</v>
       </c>
-      <c r="K64" t="n">
+      <c r="K64" s="2" t="n">
         <v>12.88</v>
       </c>
-      <c r="L64" t="n">
+      <c r="L64" s="42" t="n">
         <v>13.013</v>
       </c>
     </row>
@@ -2471,17 +3531,17 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="n">
+      <c r="F65" s="10" t="inlineStr"/>
+      <c r="G65" s="10" t="inlineStr"/>
+      <c r="H65" s="10" t="inlineStr"/>
+      <c r="I65" s="119" t="n">
         <v>83.89100000000001</v>
       </c>
-      <c r="J65" t="n">
+      <c r="J65" s="29" t="n">
         <v>83.70099999999999</v>
       </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" s="10" t="inlineStr"/>
+      <c r="L65" s="10" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n"/>
@@ -2501,19 +3561,19 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="n">
+      <c r="F66" s="10" t="inlineStr"/>
+      <c r="G66" s="10" t="inlineStr"/>
+      <c r="H66" s="10" t="inlineStr"/>
+      <c r="I66" s="116" t="n">
         <v>83.605</v>
       </c>
-      <c r="J66" t="n">
+      <c r="J66" s="115" t="n">
         <v>83.81399999999999</v>
       </c>
-      <c r="K66" t="n">
+      <c r="K66" s="2" t="n">
         <v>12.893</v>
       </c>
-      <c r="L66" t="n">
+      <c r="L66" s="22" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2527,19 +3587,19 @@
           <t>indiri</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="n">
+      <c r="F67" s="10" t="inlineStr"/>
+      <c r="G67" s="10" t="inlineStr"/>
+      <c r="H67" s="10" t="inlineStr"/>
+      <c r="I67" s="105" t="n">
         <v>85.40300000000001</v>
       </c>
-      <c r="J67" t="n">
+      <c r="J67" s="55" t="n">
         <v>86.224</v>
       </c>
-      <c r="K67" t="n">
+      <c r="K67" s="28" t="n">
         <v>13.2</v>
       </c>
-      <c r="L67" t="n">
+      <c r="L67" s="61" t="n">
         <v>13.453</v>
       </c>
     </row>
@@ -2561,17 +3621,17 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="n">
+      <c r="F68" s="10" t="inlineStr"/>
+      <c r="G68" s="10" t="inlineStr"/>
+      <c r="H68" s="10" t="inlineStr"/>
+      <c r="I68" s="2" t="n">
         <v>81.842</v>
       </c>
-      <c r="J68" t="n">
+      <c r="J68" s="62" t="n">
         <v>83.038</v>
       </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" s="10" t="inlineStr"/>
+      <c r="L68" s="10" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n"/>
@@ -2587,17 +3647,17 @@
           <t>----</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="n">
+      <c r="F69" s="10" t="inlineStr"/>
+      <c r="G69" s="10" t="inlineStr"/>
+      <c r="H69" s="10" t="inlineStr"/>
+      <c r="I69" s="22" t="n">
         <v>83.28100000000001</v>
       </c>
-      <c r="J69" t="n">
+      <c r="J69" s="2" t="n">
         <v>54.315</v>
       </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" s="10" t="inlineStr"/>
+      <c r="L69" s="10" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n"/>
@@ -2609,23 +3669,23 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F70" t="n">
+      <c r="F70" s="2" t="n">
         <v>54.765</v>
       </c>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="n">
+      <c r="G70" s="10" t="inlineStr"/>
+      <c r="H70" s="62" t="n">
         <v>55.176</v>
       </c>
-      <c r="I70" t="n">
+      <c r="I70" s="45" t="n">
         <v>86.65600000000001</v>
       </c>
-      <c r="J70" t="n">
+      <c r="J70" s="149" t="n">
         <v>87.857</v>
       </c>
-      <c r="K70" t="n">
+      <c r="K70" s="139" t="n">
         <v>13.347</v>
       </c>
-      <c r="L70" t="n">
+      <c r="L70" s="150" t="n">
         <v>13.6</v>
       </c>
     </row>
@@ -2639,19 +3699,19 @@
           <t>indiri</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="n">
+      <c r="F71" s="10" t="inlineStr"/>
+      <c r="G71" s="10" t="inlineStr"/>
+      <c r="H71" s="10" t="inlineStr"/>
+      <c r="I71" s="134" t="n">
         <v>87.73999999999999</v>
       </c>
-      <c r="J71" t="n">
+      <c r="J71" s="130" t="n">
         <v>90.005</v>
       </c>
-      <c r="K71" t="n">
+      <c r="K71" s="20" t="n">
         <v>13.853</v>
       </c>
-      <c r="L71" t="n">
+      <c r="L71" s="132" t="n">
         <v>14.013</v>
       </c>
     </row>
@@ -2681,15 +3741,15 @@
           <t>basei</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
+      <c r="F72" s="10" t="inlineStr"/>
+      <c r="G72" s="10" t="inlineStr"/>
+      <c r="H72" s="10" t="inlineStr"/>
+      <c r="I72" s="10" t="inlineStr"/>
+      <c r="J72" s="148" t="n">
         <v>84.17100000000001</v>
       </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" s="10" t="inlineStr"/>
+      <c r="L72" s="10" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n"/>
@@ -2701,23 +3761,23 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F73" t="n">
+      <c r="F73" s="117" t="n">
         <v>56.364</v>
       </c>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="n">
+      <c r="G73" s="10" t="inlineStr"/>
+      <c r="H73" s="148" t="n">
         <v>56.832</v>
       </c>
-      <c r="I73" t="n">
+      <c r="I73" s="150" t="n">
         <v>85.633</v>
       </c>
-      <c r="J73" t="n">
+      <c r="J73" s="151" t="n">
         <v>88.643</v>
       </c>
-      <c r="K73" t="n">
+      <c r="K73" s="26" t="n">
         <v>13.72</v>
       </c>
-      <c r="L73" t="n">
+      <c r="L73" s="152" t="n">
         <v>14.093</v>
       </c>
     </row>
@@ -2731,19 +3791,19 @@
           <t>indiri</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="n">
+      <c r="F74" s="10" t="inlineStr"/>
+      <c r="G74" s="10" t="inlineStr"/>
+      <c r="H74" s="10" t="inlineStr"/>
+      <c r="I74" s="47" t="n">
         <v>85.846</v>
       </c>
-      <c r="J74" t="n">
+      <c r="J74" s="128" t="n">
         <v>89.681</v>
       </c>
-      <c r="K74" t="n">
+      <c r="K74" s="60" t="n">
         <v>13.573</v>
       </c>
-      <c r="L74" t="n">
+      <c r="L74" s="129" t="n">
         <v>14.227</v>
       </c>
     </row>
@@ -2765,17 +3825,17 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="n">
+      <c r="F75" s="10" t="inlineStr"/>
+      <c r="G75" s="10" t="inlineStr"/>
+      <c r="H75" s="10" t="inlineStr"/>
+      <c r="I75" s="2" t="n">
         <v>81.696</v>
       </c>
-      <c r="J75" t="n">
+      <c r="J75" s="42" t="n">
         <v>83.319</v>
       </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" s="10" t="inlineStr"/>
+      <c r="L75" s="10" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n"/>
@@ -2791,23 +3851,23 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F76" t="n">
+      <c r="F76" s="2" t="n">
         <v>54.512</v>
       </c>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="n">
+      <c r="G76" s="10" t="inlineStr"/>
+      <c r="H76" s="34" t="n">
         <v>55.406</v>
       </c>
-      <c r="I76" t="n">
+      <c r="I76" s="136" t="n">
         <v>86.056</v>
       </c>
-      <c r="J76" t="n">
+      <c r="J76" s="135" t="n">
         <v>87.364</v>
       </c>
-      <c r="K76" t="n">
+      <c r="K76" s="75" t="n">
         <v>13.427</v>
       </c>
-      <c r="L76" t="n">
+      <c r="L76" s="153" t="n">
         <v>13.693</v>
       </c>
     </row>
@@ -2829,19 +3889,19 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="n">
+      <c r="F77" s="10" t="inlineStr"/>
+      <c r="G77" s="10" t="inlineStr"/>
+      <c r="H77" s="10" t="inlineStr"/>
+      <c r="I77" s="154" t="n">
         <v>85.27</v>
       </c>
-      <c r="J77" t="n">
+      <c r="J77" s="50" t="n">
         <v>86.562</v>
       </c>
-      <c r="K77" t="n">
+      <c r="K77" s="99" t="n">
         <v>13.293</v>
       </c>
-      <c r="L77" t="n">
+      <c r="L77" s="139" t="n">
         <v>13.347</v>
       </c>
     </row>
@@ -2863,19 +3923,19 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="n">
+      <c r="F78" s="10" t="inlineStr"/>
+      <c r="G78" s="10" t="inlineStr"/>
+      <c r="H78" s="10" t="inlineStr"/>
+      <c r="I78" s="126" t="n">
         <v>85.146</v>
       </c>
-      <c r="J78" t="n">
+      <c r="J78" s="37" t="n">
         <v>86.702</v>
       </c>
-      <c r="K78" t="n">
+      <c r="K78" s="122" t="n">
         <v>13.04</v>
       </c>
-      <c r="L78" t="n">
+      <c r="L78" s="113" t="n">
         <v>13.307</v>
       </c>
     </row>
@@ -2889,19 +3949,19 @@
           <t>indiri</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="n">
+      <c r="F79" s="10" t="inlineStr"/>
+      <c r="G79" s="10" t="inlineStr"/>
+      <c r="H79" s="10" t="inlineStr"/>
+      <c r="I79" s="113" t="n">
         <v>84.486</v>
       </c>
-      <c r="J79" t="n">
+      <c r="J79" s="4" t="n">
         <v>87.041</v>
       </c>
-      <c r="K79" t="n">
+      <c r="K79" s="35" t="n">
         <v>13.053</v>
       </c>
-      <c r="L79" t="n">
+      <c r="L79" s="139" t="n">
         <v>13.347</v>
       </c>
     </row>
@@ -2923,19 +3983,19 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="n">
+      <c r="F80" s="10" t="inlineStr"/>
+      <c r="G80" s="10" t="inlineStr"/>
+      <c r="H80" s="10" t="inlineStr"/>
+      <c r="I80" s="154" t="n">
         <v>85.27500000000001</v>
       </c>
-      <c r="J80" t="n">
+      <c r="J80" s="26" t="n">
         <v>86.06399999999999</v>
       </c>
-      <c r="K80" t="n">
+      <c r="K80" s="155" t="n">
         <v>12.973</v>
       </c>
-      <c r="L80" t="n">
+      <c r="L80" s="29" t="n">
         <v>13.107</v>
       </c>
     </row>
@@ -2953,19 +4013,19 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="n">
+      <c r="F81" s="10" t="inlineStr"/>
+      <c r="G81" s="10" t="inlineStr"/>
+      <c r="H81" s="10" t="inlineStr"/>
+      <c r="I81" s="60" t="n">
         <v>85.524</v>
       </c>
-      <c r="J81" t="n">
+      <c r="J81" s="156" t="n">
         <v>86.755</v>
       </c>
-      <c r="K81" t="n">
+      <c r="K81" s="42" t="n">
         <v>13.013</v>
       </c>
-      <c r="L81" t="n">
+      <c r="L81" s="119" t="n">
         <v>13.173</v>
       </c>
     </row>
@@ -2983,17 +4043,17 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="n">
+      <c r="F82" s="10" t="inlineStr"/>
+      <c r="G82" s="10" t="inlineStr"/>
+      <c r="H82" s="10" t="inlineStr"/>
+      <c r="I82" s="2" t="n">
         <v>82.72199999999999</v>
       </c>
-      <c r="J82" t="n">
+      <c r="J82" s="35" t="n">
         <v>83.482</v>
       </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" s="10" t="inlineStr"/>
+      <c r="L82" s="10" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n"/>
@@ -3009,19 +4069,19 @@
           <t>----</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="n">
+      <c r="F83" s="10" t="inlineStr"/>
+      <c r="G83" s="10" t="inlineStr"/>
+      <c r="H83" s="10" t="inlineStr"/>
+      <c r="I83" s="157" t="n">
         <v>85.312</v>
       </c>
-      <c r="J83" t="n">
+      <c r="J83" s="2" t="n">
         <v>64.851</v>
       </c>
-      <c r="K83" t="n">
+      <c r="K83" s="22" t="n">
         <v>13</v>
       </c>
-      <c r="L83" t="n">
+      <c r="L83" s="2" t="n">
         <v>8.173</v>
       </c>
     </row>
@@ -3035,23 +4095,23 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F84" t="n">
+      <c r="F84" s="35" t="n">
         <v>55.821</v>
       </c>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="n">
+      <c r="G84" s="10" t="inlineStr"/>
+      <c r="H84" s="35" t="n">
         <v>55.83</v>
       </c>
-      <c r="I84" t="n">
+      <c r="I84" s="63" t="n">
         <v>88.15300000000001</v>
       </c>
-      <c r="J84" t="n">
+      <c r="J84" s="31" t="n">
         <v>89.88500000000001</v>
       </c>
-      <c r="K84" t="n">
+      <c r="K84" s="26" t="n">
         <v>13.72</v>
       </c>
-      <c r="L84" t="n">
+      <c r="L84" s="132" t="n">
         <v>14.013</v>
       </c>
     </row>
@@ -3065,19 +4125,19 @@
           <t>indiri</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="n">
+      <c r="F85" s="10" t="inlineStr"/>
+      <c r="G85" s="10" t="inlineStr"/>
+      <c r="H85" s="10" t="inlineStr"/>
+      <c r="I85" s="45" t="n">
         <v>86.667</v>
       </c>
-      <c r="J85" t="n">
+      <c r="J85" s="128" t="n">
         <v>89.67100000000001</v>
       </c>
-      <c r="K85" t="n">
+      <c r="K85" s="158" t="n">
         <v>13.093</v>
       </c>
-      <c r="L85" t="n">
+      <c r="L85" s="61" t="n">
         <v>13.453</v>
       </c>
     </row>
@@ -3107,15 +4167,15 @@
           <t>basei</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
+      <c r="F86" s="10" t="inlineStr"/>
+      <c r="G86" s="10" t="inlineStr"/>
+      <c r="H86" s="10" t="inlineStr"/>
+      <c r="I86" s="10" t="inlineStr"/>
+      <c r="J86" s="34" t="n">
         <v>83.208</v>
       </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" s="10" t="inlineStr"/>
+      <c r="L86" s="10" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n"/>
@@ -3127,23 +4187,23 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F87" t="n">
+      <c r="F87" s="23" t="n">
         <v>56.204</v>
       </c>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="n">
+      <c r="G87" s="10" t="inlineStr"/>
+      <c r="H87" s="13" t="n">
         <v>56.709</v>
       </c>
-      <c r="I87" t="n">
+      <c r="I87" s="144" t="n">
         <v>85.10899999999999</v>
       </c>
-      <c r="J87" t="n">
+      <c r="J87" s="48" t="n">
         <v>87.625</v>
       </c>
-      <c r="K87" t="n">
+      <c r="K87" s="137" t="n">
         <v>13.32</v>
       </c>
-      <c r="L87" t="n">
+      <c r="L87" s="86" t="n">
         <v>13.533</v>
       </c>
     </row>
@@ -3157,19 +4217,19 @@
           <t>indiri</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="n">
+      <c r="F88" s="10" t="inlineStr"/>
+      <c r="G88" s="10" t="inlineStr"/>
+      <c r="H88" s="10" t="inlineStr"/>
+      <c r="I88" s="153" t="n">
         <v>86.009</v>
       </c>
-      <c r="J88" t="n">
+      <c r="J88" s="91" t="n">
         <v>88.491</v>
       </c>
-      <c r="K88" t="n">
+      <c r="K88" s="111" t="n">
         <v>13.76</v>
       </c>
-      <c r="L88" t="n">
+      <c r="L88" s="159" t="n">
         <v>14.28</v>
       </c>
     </row>
@@ -3191,19 +4251,19 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="n">
+      <c r="F89" s="10" t="inlineStr"/>
+      <c r="G89" s="10" t="inlineStr"/>
+      <c r="H89" s="10" t="inlineStr"/>
+      <c r="I89" s="72" t="n">
         <v>84.723</v>
       </c>
-      <c r="J89" t="n">
+      <c r="J89" s="85" t="n">
         <v>85.762</v>
       </c>
-      <c r="K89" t="n">
+      <c r="K89" s="158" t="n">
         <v>13.093</v>
       </c>
-      <c r="L89" t="n">
+      <c r="L89" s="160" t="n">
         <v>13.267</v>
       </c>
     </row>
@@ -3225,19 +4285,19 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="n">
+      <c r="F90" s="10" t="inlineStr"/>
+      <c r="G90" s="10" t="inlineStr"/>
+      <c r="H90" s="10" t="inlineStr"/>
+      <c r="I90" s="126" t="n">
         <v>85.14400000000001</v>
       </c>
-      <c r="J90" t="n">
+      <c r="J90" s="150" t="n">
         <v>85.658</v>
       </c>
-      <c r="K90" t="n">
+      <c r="K90" s="34" t="n">
         <v>12.987</v>
       </c>
-      <c r="L90" t="n">
+      <c r="L90" s="78" t="n">
         <v>13.027</v>
       </c>
     </row>
@@ -3259,19 +4319,19 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="n">
+      <c r="F91" s="10" t="inlineStr"/>
+      <c r="G91" s="10" t="inlineStr"/>
+      <c r="H91" s="10" t="inlineStr"/>
+      <c r="I91" s="28" t="n">
         <v>83.97499999999999</v>
       </c>
-      <c r="J91" t="n">
+      <c r="J91" s="60" t="n">
         <v>85.506</v>
       </c>
-      <c r="K91" t="n">
+      <c r="K91" s="2" t="n">
         <v>12.853</v>
       </c>
-      <c r="L91" t="n">
+      <c r="L91" s="35" t="n">
         <v>13.053</v>
       </c>
     </row>
@@ -3285,19 +4345,19 @@
           <t>indiri</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="n">
+      <c r="F92" s="10" t="inlineStr"/>
+      <c r="G92" s="10" t="inlineStr"/>
+      <c r="H92" s="10" t="inlineStr"/>
+      <c r="I92" s="72" t="n">
         <v>84.727</v>
       </c>
-      <c r="J92" t="n">
+      <c r="J92" s="50" t="n">
         <v>86.563</v>
       </c>
-      <c r="K92" t="n">
+      <c r="K92" s="28" t="n">
         <v>13.187</v>
       </c>
-      <c r="L92" t="n">
+      <c r="L92" s="105" t="n">
         <v>13.547</v>
       </c>
     </row>
@@ -3319,19 +4379,19 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="n">
+      <c r="F93" s="10" t="inlineStr"/>
+      <c r="G93" s="10" t="inlineStr"/>
+      <c r="H93" s="10" t="inlineStr"/>
+      <c r="I93" s="75" t="n">
         <v>84.96899999999999</v>
       </c>
-      <c r="J93" t="n">
+      <c r="J93" s="113" t="n">
         <v>84.482</v>
       </c>
-      <c r="K93" t="n">
+      <c r="K93" s="2" t="n">
         <v>12.8</v>
       </c>
-      <c r="L93" t="n">
+      <c r="L93" s="62" t="n">
         <v>12.947</v>
       </c>
     </row>
@@ -3349,19 +4409,19 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="n">
+      <c r="F94" s="10" t="inlineStr"/>
+      <c r="G94" s="10" t="inlineStr"/>
+      <c r="H94" s="10" t="inlineStr"/>
+      <c r="I94" s="126" t="n">
         <v>85.13500000000001</v>
       </c>
-      <c r="J94" t="n">
+      <c r="J94" s="136" t="n">
         <v>86.03</v>
       </c>
-      <c r="K94" t="n">
+      <c r="K94" s="2" t="n">
         <v>12.88</v>
       </c>
-      <c r="L94" t="n">
+      <c r="L94" s="34" t="n">
         <v>12.987</v>
       </c>
     </row>
@@ -3379,17 +4439,17 @@
           <t>----</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="n">
+      <c r="F95" s="10" t="inlineStr"/>
+      <c r="G95" s="10" t="inlineStr"/>
+      <c r="H95" s="10" t="inlineStr"/>
+      <c r="I95" s="114" t="n">
         <v>84.378</v>
       </c>
-      <c r="J95" t="n">
+      <c r="J95" s="2" t="n">
         <v>64.07899999999999</v>
       </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" s="10" t="inlineStr"/>
+      <c r="L95" s="10" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n"/>
@@ -3401,19 +4461,19 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="n">
+      <c r="F96" s="10" t="inlineStr"/>
+      <c r="G96" s="10" t="inlineStr"/>
+      <c r="H96" s="10" t="inlineStr"/>
+      <c r="I96" s="110" t="n">
         <v>87.111</v>
       </c>
-      <c r="J96" t="n">
+      <c r="J96" s="90" t="n">
         <v>88.667</v>
       </c>
-      <c r="K96" t="n">
+      <c r="K96" s="96" t="n">
         <v>13.493</v>
       </c>
-      <c r="L96" t="n">
+      <c r="L96" s="47" t="n">
         <v>13.653</v>
       </c>
     </row>
@@ -3427,19 +4487,19 @@
           <t>indiri</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="n">
+      <c r="F97" s="10" t="inlineStr"/>
+      <c r="G97" s="10" t="inlineStr"/>
+      <c r="H97" s="10" t="inlineStr"/>
+      <c r="I97" s="135" t="n">
         <v>87.36799999999999</v>
       </c>
-      <c r="J97" t="n">
+      <c r="J97" s="21" t="n">
         <v>89.473</v>
       </c>
-      <c r="K97" t="n">
+      <c r="K97" s="154" t="n">
         <v>13.507</v>
       </c>
-      <c r="L97" t="n">
+      <c r="L97" s="69" t="n">
         <v>13.813</v>
       </c>
     </row>
@@ -3469,15 +4529,15 @@
           <t>basei</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
+      <c r="F98" s="10" t="inlineStr"/>
+      <c r="G98" s="10" t="inlineStr"/>
+      <c r="H98" s="10" t="inlineStr"/>
+      <c r="I98" s="10" t="inlineStr"/>
+      <c r="J98" s="23" t="n">
         <v>83.736</v>
       </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" s="10" t="inlineStr"/>
+      <c r="L98" s="10" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n"/>
@@ -3489,23 +4549,23 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F99" t="n">
+      <c r="F99" s="137" t="n">
         <v>57.36</v>
       </c>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="n">
+      <c r="G99" s="10" t="inlineStr"/>
+      <c r="H99" s="120" t="n">
         <v>57.674</v>
       </c>
-      <c r="I99" t="n">
+      <c r="I99" s="113" t="n">
         <v>84.495</v>
       </c>
-      <c r="J99" t="n">
+      <c r="J99" s="132" t="n">
         <v>87.262</v>
       </c>
-      <c r="K99" t="n">
+      <c r="K99" s="161" t="n">
         <v>13.36</v>
       </c>
-      <c r="L99" t="n">
+      <c r="L99" s="47" t="n">
         <v>13.653</v>
       </c>
     </row>
@@ -3519,19 +4579,19 @@
           <t>indiri</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="n">
+      <c r="F100" s="10" t="inlineStr"/>
+      <c r="G100" s="10" t="inlineStr"/>
+      <c r="H100" s="10" t="inlineStr"/>
+      <c r="I100" s="26" t="n">
         <v>86.104</v>
       </c>
-      <c r="J100" t="n">
+      <c r="J100" s="162" t="n">
         <v>89.006</v>
       </c>
-      <c r="K100" t="n">
+      <c r="K100" s="163" t="n">
         <v>13.747</v>
       </c>
-      <c r="L100" t="n">
+      <c r="L100" s="164" t="n">
         <v>14.307</v>
       </c>
     </row>
@@ -3553,19 +4613,19 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="n">
+      <c r="F101" s="10" t="inlineStr"/>
+      <c r="G101" s="10" t="inlineStr"/>
+      <c r="H101" s="10" t="inlineStr"/>
+      <c r="I101" s="160" t="n">
         <v>84.33799999999999</v>
       </c>
-      <c r="J101" t="n">
+      <c r="J101" s="61" t="n">
         <v>85.05500000000001</v>
       </c>
-      <c r="K101" t="n">
+      <c r="K101" s="62" t="n">
         <v>12.933</v>
       </c>
-      <c r="L101" t="n">
+      <c r="L101" s="23" t="n">
         <v>13.12</v>
       </c>
     </row>
@@ -3587,19 +4647,19 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="n">
+      <c r="F102" s="10" t="inlineStr"/>
+      <c r="G102" s="10" t="inlineStr"/>
+      <c r="H102" s="10" t="inlineStr"/>
+      <c r="I102" s="148" t="n">
         <v>84.173</v>
       </c>
-      <c r="J102" t="n">
+      <c r="J102" s="85" t="n">
         <v>85.76300000000001</v>
       </c>
-      <c r="K102" t="n">
+      <c r="K102" s="2" t="n">
         <v>12.84</v>
       </c>
-      <c r="L102" t="n">
+      <c r="L102" s="78" t="n">
         <v>13.027</v>
       </c>
     </row>
@@ -3621,19 +4681,19 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="n">
+      <c r="F103" s="10" t="inlineStr"/>
+      <c r="G103" s="10" t="inlineStr"/>
+      <c r="H103" s="10" t="inlineStr"/>
+      <c r="I103" s="119" t="n">
         <v>83.955</v>
       </c>
-      <c r="J103" t="n">
+      <c r="J103" s="154" t="n">
         <v>85.254</v>
       </c>
-      <c r="K103" t="n">
+      <c r="K103" s="2" t="n">
         <v>12.8</v>
       </c>
-      <c r="L103" t="n">
+      <c r="L103" s="158" t="n">
         <v>13.093</v>
       </c>
     </row>
@@ -3647,19 +4707,19 @@
           <t>indiri</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="n">
+      <c r="F104" s="10" t="inlineStr"/>
+      <c r="G104" s="10" t="inlineStr"/>
+      <c r="H104" s="10" t="inlineStr"/>
+      <c r="I104" s="165" t="n">
         <v>85.563</v>
       </c>
-      <c r="J104" t="n">
+      <c r="J104" s="111" t="n">
         <v>86.283</v>
       </c>
-      <c r="K104" t="n">
+      <c r="K104" s="137" t="n">
         <v>13.32</v>
       </c>
-      <c r="L104" t="n">
+      <c r="L104" s="86" t="n">
         <v>13.533</v>
       </c>
     </row>
@@ -3681,19 +4741,19 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="n">
+      <c r="F105" s="10" t="inlineStr"/>
+      <c r="G105" s="10" t="inlineStr"/>
+      <c r="H105" s="10" t="inlineStr"/>
+      <c r="I105" s="115" t="n">
         <v>83.79900000000001</v>
       </c>
-      <c r="J105" t="n">
+      <c r="J105" s="99" t="n">
         <v>84.438</v>
       </c>
-      <c r="K105" t="n">
+      <c r="K105" s="2" t="n">
         <v>12.773</v>
       </c>
-      <c r="L105" t="n">
+      <c r="L105" s="62" t="n">
         <v>12.933</v>
       </c>
     </row>
@@ -3711,17 +4771,17 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="n">
+      <c r="F106" s="10" t="inlineStr"/>
+      <c r="G106" s="10" t="inlineStr"/>
+      <c r="H106" s="10" t="inlineStr"/>
+      <c r="I106" s="114" t="n">
         <v>84.383</v>
       </c>
-      <c r="J106" t="n">
+      <c r="J106" s="43" t="n">
         <v>85.574</v>
       </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" s="10" t="inlineStr"/>
+      <c r="L106" s="10" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n"/>
@@ -3737,17 +4797,17 @@
           <t>----</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="n">
+      <c r="F107" s="10" t="inlineStr"/>
+      <c r="G107" s="10" t="inlineStr"/>
+      <c r="H107" s="10" t="inlineStr"/>
+      <c r="I107" s="148" t="n">
         <v>84.15600000000001</v>
       </c>
-      <c r="J107" t="n">
+      <c r="J107" s="2" t="n">
         <v>60.356</v>
       </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" s="10" t="inlineStr"/>
+      <c r="L107" s="10" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n"/>
@@ -3759,23 +4819,23 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F108" t="n">
+      <c r="F108" s="62" t="n">
         <v>55.114</v>
       </c>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="n">
+      <c r="G108" s="10" t="inlineStr"/>
+      <c r="H108" s="34" t="n">
         <v>55.403</v>
       </c>
-      <c r="I108" t="n">
+      <c r="I108" s="138" t="n">
         <v>86.84399999999999</v>
       </c>
-      <c r="J108" t="n">
+      <c r="J108" s="63" t="n">
         <v>88.15300000000001</v>
       </c>
-      <c r="K108" t="n">
+      <c r="K108" s="126" t="n">
         <v>13.48</v>
       </c>
-      <c r="L108" t="n">
+      <c r="L108" s="85" t="n">
         <v>13.627</v>
       </c>
     </row>
@@ -3789,19 +4849,19 @@
           <t>indiri</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="n">
+      <c r="F109" s="10" t="inlineStr"/>
+      <c r="G109" s="10" t="inlineStr"/>
+      <c r="H109" s="10" t="inlineStr"/>
+      <c r="I109" s="166" t="n">
         <v>88.002</v>
       </c>
-      <c r="J109" t="n">
+      <c r="J109" s="167" t="n">
         <v>89.53400000000001</v>
       </c>
-      <c r="K109" t="n">
+      <c r="K109" s="163" t="n">
         <v>13.747</v>
       </c>
-      <c r="L109" t="n">
+      <c r="L109" s="135" t="n">
         <v>14.04</v>
       </c>
     </row>
@@ -3831,23 +4891,23 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F110" t="n">
+      <c r="F110" s="139" t="n">
         <v>57.473</v>
       </c>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="n">
+      <c r="G110" s="10" t="inlineStr"/>
+      <c r="H110" s="160" t="n">
         <v>57.068</v>
       </c>
-      <c r="I110" t="n">
+      <c r="I110" s="49" t="n">
         <v>84.298</v>
       </c>
-      <c r="J110" t="n">
+      <c r="J110" s="85" t="n">
         <v>85.768</v>
       </c>
-      <c r="K110" t="n">
+      <c r="K110" s="137" t="n">
         <v>13.32</v>
       </c>
-      <c r="L110" t="n">
+      <c r="L110" s="161" t="n">
         <v>13.36</v>
       </c>
     </row>
@@ -3861,19 +4921,19 @@
           <t>indiri</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="n">
+      <c r="F111" s="10" t="inlineStr"/>
+      <c r="G111" s="10" t="inlineStr"/>
+      <c r="H111" s="10" t="inlineStr"/>
+      <c r="I111" s="26" t="n">
         <v>86.062</v>
       </c>
-      <c r="J111" t="n">
+      <c r="J111" s="168" t="n">
         <v>88.042</v>
       </c>
-      <c r="K111" t="n">
+      <c r="K111" s="106" t="n">
         <v>13.613</v>
       </c>
-      <c r="L111" t="n">
+      <c r="L111" s="84" t="n">
         <v>14.067</v>
       </c>
     </row>
@@ -3895,17 +4955,17 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="n">
+      <c r="F112" s="10" t="inlineStr"/>
+      <c r="G112" s="10" t="inlineStr"/>
+      <c r="H112" s="10" t="inlineStr"/>
+      <c r="I112" s="2" t="n">
         <v>82.788</v>
       </c>
-      <c r="J112" t="n">
+      <c r="J112" s="49" t="n">
         <v>84.273</v>
       </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" s="10" t="inlineStr"/>
+      <c r="L112" s="10" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n"/>
@@ -3925,17 +4985,17 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="n">
+      <c r="F113" s="10" t="inlineStr"/>
+      <c r="G113" s="10" t="inlineStr"/>
+      <c r="H113" s="10" t="inlineStr"/>
+      <c r="I113" s="28" t="n">
         <v>84.009</v>
       </c>
-      <c r="J113" t="n">
+      <c r="J113" s="72" t="n">
         <v>84.729</v>
       </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" s="10" t="inlineStr"/>
+      <c r="L113" s="10" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n"/>
@@ -3955,17 +5015,17 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="n">
+      <c r="F114" s="10" t="inlineStr"/>
+      <c r="G114" s="10" t="inlineStr"/>
+      <c r="H114" s="10" t="inlineStr"/>
+      <c r="I114" s="122" t="n">
         <v>83.40600000000001</v>
       </c>
-      <c r="J114" t="n">
+      <c r="J114" s="148" t="n">
         <v>84.164</v>
       </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" s="10" t="inlineStr"/>
+      <c r="L114" s="10" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n"/>
@@ -3977,19 +5037,19 @@
           <t>indiri</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="n">
+      <c r="F115" s="10" t="inlineStr"/>
+      <c r="G115" s="10" t="inlineStr"/>
+      <c r="H115" s="10" t="inlineStr"/>
+      <c r="I115" s="169" t="n">
         <v>84.81699999999999</v>
       </c>
-      <c r="J115" t="n">
+      <c r="J115" s="111" t="n">
         <v>86.29000000000001</v>
       </c>
-      <c r="K115" t="n">
+      <c r="K115" s="13" t="n">
         <v>13.213</v>
       </c>
-      <c r="L115" t="n">
+      <c r="L115" s="120" t="n">
         <v>13.387</v>
       </c>
     </row>
@@ -4011,17 +5071,17 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="n">
+      <c r="F116" s="10" t="inlineStr"/>
+      <c r="G116" s="10" t="inlineStr"/>
+      <c r="H116" s="10" t="inlineStr"/>
+      <c r="I116" s="2" t="n">
         <v>82.342</v>
       </c>
-      <c r="J116" t="n">
+      <c r="J116" s="119" t="n">
         <v>83.925</v>
       </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" s="10" t="inlineStr"/>
+      <c r="L116" s="10" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n"/>
@@ -4037,17 +5097,17 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="n">
+      <c r="F117" s="10" t="inlineStr"/>
+      <c r="G117" s="10" t="inlineStr"/>
+      <c r="H117" s="10" t="inlineStr"/>
+      <c r="I117" s="35" t="n">
         <v>83.47</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J117" s="47" t="n">
         <v>85.84399999999999</v>
       </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" s="10" t="inlineStr"/>
+      <c r="L117" s="10" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n"/>
@@ -4063,17 +5123,17 @@
           <t>----</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="n">
+      <c r="F118" s="10" t="inlineStr"/>
+      <c r="G118" s="10" t="inlineStr"/>
+      <c r="H118" s="10" t="inlineStr"/>
+      <c r="I118" s="122" t="n">
         <v>83.417</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J118" s="2" t="n">
         <v>58.128</v>
       </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" s="10" t="inlineStr"/>
+      <c r="L118" s="10" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n"/>
@@ -4085,23 +5145,23 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F119" t="n">
+      <c r="F119" s="78" t="n">
         <v>55.57</v>
       </c>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="n">
+      <c r="G119" s="10" t="inlineStr"/>
+      <c r="H119" s="22" t="n">
         <v>55.489</v>
       </c>
-      <c r="I119" t="n">
+      <c r="I119" s="47" t="n">
         <v>85.852</v>
       </c>
-      <c r="J119" t="n">
+      <c r="J119" s="24" t="n">
         <v>87.163</v>
       </c>
-      <c r="K119" t="n">
+      <c r="K119" s="120" t="n">
         <v>13.387</v>
       </c>
-      <c r="L119" t="n">
+      <c r="L119" s="157" t="n">
         <v>13.52</v>
       </c>
     </row>
@@ -4115,19 +5175,19 @@
           <t>indiri</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="n">
+      <c r="F120" s="10" t="inlineStr"/>
+      <c r="G120" s="10" t="inlineStr"/>
+      <c r="H120" s="10" t="inlineStr"/>
+      <c r="I120" s="4" t="n">
         <v>87.066</v>
       </c>
-      <c r="J120" t="n">
+      <c r="J120" s="162" t="n">
         <v>89.027</v>
       </c>
-      <c r="K120" t="n">
+      <c r="K120" s="126" t="n">
         <v>13.48</v>
       </c>
-      <c r="L120" t="n">
+      <c r="L120" s="84" t="n">
         <v>14.067</v>
       </c>
     </row>
@@ -4153,15 +5213,15 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
+      <c r="F121" s="10" t="inlineStr"/>
+      <c r="G121" s="10" t="inlineStr"/>
+      <c r="H121" s="10" t="inlineStr"/>
+      <c r="I121" s="10" t="inlineStr"/>
+      <c r="J121" s="29" t="n">
         <v>83.708</v>
       </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" s="10" t="inlineStr"/>
+      <c r="L121" s="10" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -4189,23 +5249,23 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F122" t="n">
+      <c r="F122" s="160" t="n">
         <v>57.033</v>
       </c>
-      <c r="G122" t="inlineStr"/>
-      <c r="H122" t="n">
+      <c r="G122" s="10" t="inlineStr"/>
+      <c r="H122" s="170" t="n">
         <v>57.399</v>
       </c>
-      <c r="I122" t="n">
+      <c r="I122" s="155" t="n">
         <v>83.17700000000001</v>
       </c>
-      <c r="J122" t="n">
+      <c r="J122" s="29" t="n">
         <v>83.681</v>
       </c>
-      <c r="K122" t="n">
+      <c r="K122" s="117" t="n">
         <v>13.147</v>
       </c>
-      <c r="L122" t="n">
+      <c r="L122" s="28" t="n">
         <v>13.187</v>
       </c>
     </row>
@@ -4219,19 +5279,19 @@
           <t>indiri</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr"/>
-      <c r="I123" t="n">
+      <c r="F123" s="10" t="inlineStr"/>
+      <c r="G123" s="10" t="inlineStr"/>
+      <c r="H123" s="10" t="inlineStr"/>
+      <c r="I123" s="86" t="n">
         <v>85.371</v>
       </c>
-      <c r="J123" t="n">
+      <c r="J123" s="156" t="n">
         <v>86.79000000000001</v>
       </c>
-      <c r="K123" t="n">
+      <c r="K123" s="32" t="n">
         <v>13.667</v>
       </c>
-      <c r="L123" t="n">
+      <c r="L123" s="50" t="n">
         <v>13.84</v>
       </c>
     </row>
@@ -4253,19 +5313,19 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr"/>
-      <c r="I124" t="n">
+      <c r="F124" s="10" t="inlineStr"/>
+      <c r="G124" s="10" t="inlineStr"/>
+      <c r="H124" s="10" t="inlineStr"/>
+      <c r="I124" s="2" t="n">
         <v>82.09099999999999</v>
       </c>
-      <c r="J124" t="n">
+      <c r="J124" s="28" t="n">
         <v>83.973</v>
       </c>
-      <c r="K124" t="n">
+      <c r="K124" s="2" t="n">
         <v>12.707</v>
       </c>
-      <c r="L124" t="n">
+      <c r="L124" s="42" t="n">
         <v>13.013</v>
       </c>
     </row>
@@ -4287,17 +5347,17 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr"/>
-      <c r="I125" t="n">
+      <c r="F125" s="10" t="inlineStr"/>
+      <c r="G125" s="10" t="inlineStr"/>
+      <c r="H125" s="10" t="inlineStr"/>
+      <c r="I125" s="122" t="n">
         <v>83.393</v>
       </c>
-      <c r="J125" t="n">
+      <c r="J125" s="170" t="n">
         <v>84.569</v>
       </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" s="10" t="inlineStr"/>
+      <c r="L125" s="10" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n"/>
@@ -4317,17 +5377,17 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr"/>
-      <c r="I126" t="n">
+      <c r="F126" s="10" t="inlineStr"/>
+      <c r="G126" s="10" t="inlineStr"/>
+      <c r="H126" s="10" t="inlineStr"/>
+      <c r="I126" s="116" t="n">
         <v>83.61</v>
       </c>
-      <c r="J126" t="n">
+      <c r="J126" s="119" t="n">
         <v>83.923</v>
       </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" s="10" t="inlineStr"/>
+      <c r="L126" s="10" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n"/>
@@ -4339,19 +5399,19 @@
           <t>indiri</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
-      <c r="I127" t="n">
+      <c r="F127" s="10" t="inlineStr"/>
+      <c r="G127" s="10" t="inlineStr"/>
+      <c r="H127" s="10" t="inlineStr"/>
+      <c r="I127" s="85" t="n">
         <v>85.729</v>
       </c>
-      <c r="J127" t="n">
+      <c r="J127" s="11" t="n">
         <v>86.371</v>
       </c>
-      <c r="K127" t="n">
+      <c r="K127" s="169" t="n">
         <v>13.4</v>
       </c>
-      <c r="L127" t="n">
+      <c r="L127" s="154" t="n">
         <v>13.507</v>
       </c>
     </row>
@@ -4373,17 +5433,17 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr"/>
-      <c r="I128" t="n">
+      <c r="F128" s="10" t="inlineStr"/>
+      <c r="G128" s="10" t="inlineStr"/>
+      <c r="H128" s="10" t="inlineStr"/>
+      <c r="I128" s="2" t="n">
         <v>82.212</v>
       </c>
-      <c r="J128" t="n">
+      <c r="J128" s="62" t="n">
         <v>83.03100000000001</v>
       </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" s="10" t="inlineStr"/>
+      <c r="L128" s="10" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n"/>
@@ -4399,17 +5459,17 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr"/>
-      <c r="I129" t="n">
+      <c r="F129" s="10" t="inlineStr"/>
+      <c r="G129" s="10" t="inlineStr"/>
+      <c r="H129" s="10" t="inlineStr"/>
+      <c r="I129" s="42" t="n">
         <v>83.31</v>
       </c>
-      <c r="J129" t="n">
+      <c r="J129" s="74" t="n">
         <v>84.872</v>
       </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" s="10" t="inlineStr"/>
+      <c r="L129" s="10" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n"/>
@@ -4425,17 +5485,17 @@
           <t>----</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr"/>
-      <c r="I130" t="n">
+      <c r="F130" s="10" t="inlineStr"/>
+      <c r="G130" s="10" t="inlineStr"/>
+      <c r="H130" s="10" t="inlineStr"/>
+      <c r="I130" s="82" t="n">
         <v>83.55</v>
       </c>
-      <c r="J130" t="n">
+      <c r="J130" s="2" t="n">
         <v>55.732</v>
       </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" s="10" t="inlineStr"/>
+      <c r="L130" s="10" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n"/>
@@ -4447,23 +5507,23 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F131" t="n">
+      <c r="F131" s="62" t="n">
         <v>55.137</v>
       </c>
-      <c r="G131" t="inlineStr"/>
-      <c r="H131" t="n">
+      <c r="G131" s="10" t="inlineStr"/>
+      <c r="H131" s="122" t="n">
         <v>55.694</v>
       </c>
-      <c r="I131" t="n">
+      <c r="I131" s="171" t="n">
         <v>86.328</v>
       </c>
-      <c r="J131" t="n">
+      <c r="J131" s="138" t="n">
         <v>86.851</v>
       </c>
-      <c r="K131" t="n">
+      <c r="K131" s="172" t="n">
         <v>13.44</v>
       </c>
-      <c r="L131" t="n">
+      <c r="L131" s="154" t="n">
         <v>13.507</v>
       </c>
     </row>
@@ -4477,19 +5537,19 @@
           <t>indiri</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr"/>
-      <c r="I132" t="n">
+      <c r="F132" s="10" t="inlineStr"/>
+      <c r="G132" s="10" t="inlineStr"/>
+      <c r="H132" s="10" t="inlineStr"/>
+      <c r="I132" s="168" t="n">
         <v>88.05</v>
       </c>
-      <c r="J132" t="n">
+      <c r="J132" s="21" t="n">
         <v>89.474</v>
       </c>
-      <c r="K132" t="n">
+      <c r="K132" s="111" t="n">
         <v>13.76</v>
       </c>
-      <c r="L132" t="n">
+      <c r="L132" s="132" t="n">
         <v>14.013</v>
       </c>
     </row>
@@ -4519,23 +5579,23 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F133" t="n">
+      <c r="F133" s="23" t="n">
         <v>56.167</v>
       </c>
-      <c r="G133" t="inlineStr"/>
-      <c r="H133" t="n">
+      <c r="G133" s="10" t="inlineStr"/>
+      <c r="H133" s="148" t="n">
         <v>56.832</v>
       </c>
-      <c r="I133" t="n">
+      <c r="I133" s="2" t="n">
         <v>82.952</v>
       </c>
-      <c r="J133" t="n">
+      <c r="J133" s="35" t="n">
         <v>83.43899999999999</v>
       </c>
-      <c r="K133" t="n">
+      <c r="K133" s="13" t="n">
         <v>13.213</v>
       </c>
-      <c r="L133" t="n">
+      <c r="L133" s="173" t="n">
         <v>13.253</v>
       </c>
     </row>
@@ -4549,19 +5609,19 @@
           <t>indiri</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr"/>
-      <c r="I134" t="n">
+      <c r="F134" s="10" t="inlineStr"/>
+      <c r="G134" s="10" t="inlineStr"/>
+      <c r="H134" s="10" t="inlineStr"/>
+      <c r="I134" s="174" t="n">
         <v>84.893</v>
       </c>
-      <c r="J134" t="n">
+      <c r="J134" s="51" t="n">
         <v>86.819</v>
       </c>
-      <c r="K134" t="n">
+      <c r="K134" s="86" t="n">
         <v>13.533</v>
       </c>
-      <c r="L134" t="n">
+      <c r="L134" s="27" t="n">
         <v>13.733</v>
       </c>
     </row>
@@ -4583,17 +5643,17 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr"/>
-      <c r="I135" t="n">
+      <c r="F135" s="10" t="inlineStr"/>
+      <c r="G135" s="10" t="inlineStr"/>
+      <c r="H135" s="10" t="inlineStr"/>
+      <c r="I135" s="2" t="n">
         <v>82.46599999999999</v>
       </c>
-      <c r="J135" t="n">
+      <c r="J135" s="62" t="n">
         <v>83.029</v>
       </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" s="10" t="inlineStr"/>
+      <c r="L135" s="10" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n"/>
@@ -4613,17 +5673,17 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr"/>
-      <c r="I136" t="n">
+      <c r="F136" s="10" t="inlineStr"/>
+      <c r="G136" s="10" t="inlineStr"/>
+      <c r="H136" s="10" t="inlineStr"/>
+      <c r="I136" s="29" t="n">
         <v>83.7</v>
       </c>
-      <c r="J136" t="n">
+      <c r="J136" s="13" t="n">
         <v>84.092</v>
       </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" s="10" t="inlineStr"/>
+      <c r="L136" s="10" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n"/>
@@ -4643,17 +5703,17 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr"/>
-      <c r="I137" t="n">
+      <c r="F137" s="10" t="inlineStr"/>
+      <c r="G137" s="10" t="inlineStr"/>
+      <c r="H137" s="10" t="inlineStr"/>
+      <c r="I137" s="34" t="n">
         <v>83.2</v>
       </c>
-      <c r="J137" t="n">
+      <c r="J137" s="121" t="n">
         <v>83.124</v>
       </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" s="10" t="inlineStr"/>
+      <c r="L137" s="10" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n"/>
@@ -4665,19 +5725,19 @@
           <t>indiri</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr"/>
-      <c r="I138" t="n">
+      <c r="F138" s="10" t="inlineStr"/>
+      <c r="G138" s="10" t="inlineStr"/>
+      <c r="H138" s="10" t="inlineStr"/>
+      <c r="I138" s="72" t="n">
         <v>84.705</v>
       </c>
-      <c r="J138" t="n">
+      <c r="J138" s="60" t="n">
         <v>85.476</v>
       </c>
-      <c r="K138" t="n">
+      <c r="K138" s="148" t="n">
         <v>13.227</v>
       </c>
-      <c r="L138" t="n">
+      <c r="L138" s="139" t="n">
         <v>13.347</v>
       </c>
     </row>
@@ -4699,17 +5759,17 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr"/>
-      <c r="I139" t="n">
+      <c r="F139" s="10" t="inlineStr"/>
+      <c r="G139" s="10" t="inlineStr"/>
+      <c r="H139" s="10" t="inlineStr"/>
+      <c r="I139" s="2" t="n">
         <v>81.551</v>
       </c>
-      <c r="J139" t="n">
+      <c r="J139" s="82" t="n">
         <v>83.539</v>
       </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" s="10" t="inlineStr"/>
+      <c r="L139" s="10" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n"/>
@@ -4725,17 +5785,17 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr"/>
-      <c r="I140" t="n">
+      <c r="F140" s="10" t="inlineStr"/>
+      <c r="G140" s="10" t="inlineStr"/>
+      <c r="H140" s="10" t="inlineStr"/>
+      <c r="I140" s="2" t="n">
         <v>82.125</v>
       </c>
-      <c r="J140" t="n">
+      <c r="J140" s="2" t="n">
         <v>82.97499999999999</v>
       </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" s="10" t="inlineStr"/>
+      <c r="L140" s="10" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n"/>
@@ -4751,17 +5811,17 @@
           <t>----</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr"/>
-      <c r="I141" t="n">
+      <c r="F141" s="10" t="inlineStr"/>
+      <c r="G141" s="10" t="inlineStr"/>
+      <c r="H141" s="10" t="inlineStr"/>
+      <c r="I141" s="62" t="n">
         <v>82.992</v>
       </c>
-      <c r="J141" t="n">
+      <c r="J141" s="2" t="n">
         <v>55.682</v>
       </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" s="10" t="inlineStr"/>
+      <c r="L141" s="10" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n"/>
@@ -4773,19 +5833,19 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr"/>
-      <c r="I142" t="n">
+      <c r="F142" s="10" t="inlineStr"/>
+      <c r="G142" s="10" t="inlineStr"/>
+      <c r="H142" s="10" t="inlineStr"/>
+      <c r="I142" s="136" t="n">
         <v>86.036</v>
       </c>
-      <c r="J142" t="n">
+      <c r="J142" s="156" t="n">
         <v>86.783</v>
       </c>
-      <c r="K142" t="n">
+      <c r="K142" s="113" t="n">
         <v>13.307</v>
       </c>
-      <c r="L142" t="n">
+      <c r="L142" s="172" t="n">
         <v>13.44</v>
       </c>
     </row>
@@ -4799,19 +5859,19 @@
           <t>indiri</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="n">
+      <c r="F143" s="10" t="inlineStr"/>
+      <c r="G143" s="10" t="inlineStr"/>
+      <c r="H143" s="10" t="inlineStr"/>
+      <c r="I143" s="175" t="n">
         <v>87.684</v>
       </c>
-      <c r="J143" t="n">
+      <c r="J143" s="140" t="n">
         <v>89.142</v>
       </c>
-      <c r="K143" t="n">
+      <c r="K143" s="163" t="n">
         <v>13.747</v>
       </c>
-      <c r="L143" t="n">
+      <c r="L143" s="176" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4841,23 +5901,23 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F144" t="n">
+      <c r="F144" s="115" t="n">
         <v>56.272</v>
       </c>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="n">
+      <c r="G144" s="10" t="inlineStr"/>
+      <c r="H144" s="28" t="n">
         <v>56.514</v>
       </c>
-      <c r="I144" t="n">
+      <c r="I144" s="117" t="n">
         <v>83.85899999999999</v>
       </c>
-      <c r="J144" t="n">
+      <c r="J144" s="139" t="n">
         <v>84.625</v>
       </c>
-      <c r="K144" t="n">
+      <c r="K144" s="114" t="n">
         <v>13.28</v>
       </c>
-      <c r="L144" t="n">
+      <c r="L144" s="172" t="n">
         <v>13.44</v>
       </c>
     </row>
@@ -4871,19 +5931,19 @@
           <t>indiri</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="n">
+      <c r="F145" s="10" t="inlineStr"/>
+      <c r="G145" s="10" t="inlineStr"/>
+      <c r="H145" s="10" t="inlineStr"/>
+      <c r="I145" s="106" t="n">
         <v>85.684</v>
       </c>
-      <c r="J145" t="n">
+      <c r="J145" s="110" t="n">
         <v>87.13200000000001</v>
       </c>
-      <c r="K145" t="n">
+      <c r="K145" s="44" t="n">
         <v>13.64</v>
       </c>
-      <c r="L145" t="n">
+      <c r="L145" s="20" t="n">
         <v>13.853</v>
       </c>
     </row>
@@ -4905,19 +5965,19 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr"/>
-      <c r="I146" t="n">
+      <c r="F146" s="10" t="inlineStr"/>
+      <c r="G146" s="10" t="inlineStr"/>
+      <c r="H146" s="10" t="inlineStr"/>
+      <c r="I146" s="22" t="n">
         <v>83.252</v>
       </c>
-      <c r="J146" t="n">
+      <c r="J146" s="113" t="n">
         <v>84.48099999999999</v>
       </c>
-      <c r="K146" t="n">
+      <c r="K146" s="2" t="n">
         <v>12.773</v>
       </c>
-      <c r="L146" t="n">
+      <c r="L146" s="22" t="n">
         <v>13</v>
       </c>
     </row>
@@ -4939,17 +5999,17 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr"/>
-      <c r="I147" t="n">
+      <c r="F147" s="10" t="inlineStr"/>
+      <c r="G147" s="10" t="inlineStr"/>
+      <c r="H147" s="10" t="inlineStr"/>
+      <c r="I147" s="119" t="n">
         <v>83.88800000000001</v>
       </c>
-      <c r="J147" t="n">
+      <c r="J147" s="119" t="n">
         <v>83.919</v>
       </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" s="10" t="inlineStr"/>
+      <c r="L147" s="10" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n"/>
@@ -4969,17 +6029,17 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr"/>
-      <c r="I148" t="n">
+      <c r="F148" s="10" t="inlineStr"/>
+      <c r="G148" s="10" t="inlineStr"/>
+      <c r="H148" s="10" t="inlineStr"/>
+      <c r="I148" s="82" t="n">
         <v>83.52800000000001</v>
       </c>
-      <c r="J148" t="n">
+      <c r="J148" s="82" t="n">
         <v>83.571</v>
       </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" s="10" t="inlineStr"/>
+      <c r="L148" s="10" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n"/>
@@ -4991,19 +6051,19 @@
           <t>indiri</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr"/>
-      <c r="I149" t="n">
+      <c r="F149" s="10" t="inlineStr"/>
+      <c r="G149" s="10" t="inlineStr"/>
+      <c r="H149" s="10" t="inlineStr"/>
+      <c r="I149" s="105" t="n">
         <v>85.396</v>
       </c>
-      <c r="J149" t="n">
+      <c r="J149" s="153" t="n">
         <v>85.973</v>
       </c>
-      <c r="K149" t="n">
+      <c r="K149" s="114" t="n">
         <v>13.28</v>
       </c>
-      <c r="L149" t="n">
+      <c r="L149" s="96" t="n">
         <v>13.493</v>
       </c>
     </row>
@@ -5025,17 +6085,17 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr"/>
-      <c r="I150" t="n">
+      <c r="F150" s="10" t="inlineStr"/>
+      <c r="G150" s="10" t="inlineStr"/>
+      <c r="H150" s="10" t="inlineStr"/>
+      <c r="I150" s="2" t="n">
         <v>82.03</v>
       </c>
-      <c r="J150" t="n">
+      <c r="J150" s="117" t="n">
         <v>83.846</v>
       </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" s="10" t="inlineStr"/>
+      <c r="L150" s="10" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n"/>
@@ -5051,17 +6111,17 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr"/>
-      <c r="I151" t="n">
+      <c r="F151" s="10" t="inlineStr"/>
+      <c r="G151" s="10" t="inlineStr"/>
+      <c r="H151" s="10" t="inlineStr"/>
+      <c r="I151" s="2" t="n">
         <v>82.333</v>
       </c>
-      <c r="J151" t="n">
+      <c r="J151" s="2" t="n">
         <v>82.98699999999999</v>
       </c>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" s="10" t="inlineStr"/>
+      <c r="L151" s="10" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n"/>
@@ -5077,23 +6137,23 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F152" t="n">
+      <c r="F152" s="2" t="n">
         <v>54.753</v>
       </c>
-      <c r="G152" t="inlineStr"/>
-      <c r="H152" t="n">
+      <c r="G152" s="10" t="inlineStr"/>
+      <c r="H152" s="2" t="n">
         <v>55.05</v>
       </c>
-      <c r="I152" t="n">
+      <c r="I152" s="131" t="n">
         <v>86.435</v>
       </c>
-      <c r="J152" t="n">
+      <c r="J152" s="48" t="n">
         <v>87.66</v>
       </c>
-      <c r="K152" t="n">
+      <c r="K152" s="120" t="n">
         <v>13.387</v>
       </c>
-      <c r="L152" t="n">
+      <c r="L152" s="150" t="n">
         <v>13.6</v>
       </c>
     </row>
@@ -5107,19 +6167,19 @@
           <t>indiri</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr"/>
-      <c r="I153" t="n">
+      <c r="F153" s="10" t="inlineStr"/>
+      <c r="G153" s="10" t="inlineStr"/>
+      <c r="H153" s="10" t="inlineStr"/>
+      <c r="I153" s="166" t="n">
         <v>87.97</v>
       </c>
-      <c r="J153" t="n">
+      <c r="J153" s="109" t="n">
         <v>89.794</v>
       </c>
-      <c r="K153" t="n">
+      <c r="K153" s="50" t="n">
         <v>13.84</v>
       </c>
-      <c r="L153" t="n">
+      <c r="L153" s="24" t="n">
         <v>13.987</v>
       </c>
     </row>
@@ -5149,23 +6209,23 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F154" t="n">
+      <c r="F154" s="35" t="n">
         <v>55.85</v>
       </c>
-      <c r="G154" t="inlineStr"/>
-      <c r="H154" t="n">
+      <c r="G154" s="10" t="inlineStr"/>
+      <c r="H154" s="119" t="n">
         <v>56.376</v>
       </c>
-      <c r="I154" t="n">
+      <c r="I154" s="13" t="n">
         <v>84.09</v>
       </c>
-      <c r="J154" t="n">
+      <c r="J154" s="26" t="n">
         <v>86.089</v>
       </c>
-      <c r="K154" t="n">
+      <c r="K154" s="113" t="n">
         <v>13.307</v>
       </c>
-      <c r="L154" t="n">
+      <c r="L154" s="44" t="n">
         <v>13.64</v>
       </c>
     </row>
@@ -5179,19 +6239,19 @@
           <t>indiri</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr"/>
-      <c r="I155" t="n">
+      <c r="F155" s="10" t="inlineStr"/>
+      <c r="G155" s="10" t="inlineStr"/>
+      <c r="H155" s="10" t="inlineStr"/>
+      <c r="I155" s="157" t="n">
         <v>85.309</v>
       </c>
-      <c r="J155" t="n">
+      <c r="J155" s="30" t="n">
         <v>87.926</v>
       </c>
-      <c r="K155" t="n">
+      <c r="K155" s="85" t="n">
         <v>13.627</v>
       </c>
-      <c r="L155" t="n">
+      <c r="L155" s="135" t="n">
         <v>14.04</v>
       </c>
     </row>
@@ -5213,19 +6273,19 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-      <c r="H156" t="inlineStr"/>
-      <c r="I156" t="n">
+      <c r="F156" s="10" t="inlineStr"/>
+      <c r="G156" s="10" t="inlineStr"/>
+      <c r="H156" s="10" t="inlineStr"/>
+      <c r="I156" s="29" t="n">
         <v>83.675</v>
       </c>
-      <c r="J156" t="n">
+      <c r="J156" s="119" t="n">
         <v>83.893</v>
       </c>
-      <c r="K156" t="n">
+      <c r="K156" s="2" t="n">
         <v>12.893</v>
       </c>
-      <c r="L156" t="n">
+      <c r="L156" s="62" t="n">
         <v>12.947</v>
       </c>
     </row>
@@ -5247,17 +6307,17 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-      <c r="H157" t="inlineStr"/>
-      <c r="I157" t="n">
+      <c r="F157" s="10" t="inlineStr"/>
+      <c r="G157" s="10" t="inlineStr"/>
+      <c r="H157" s="10" t="inlineStr"/>
+      <c r="I157" s="119" t="n">
         <v>83.95699999999999</v>
       </c>
-      <c r="J157" t="n">
+      <c r="J157" s="119" t="n">
         <v>83.92700000000001</v>
       </c>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" s="10" t="inlineStr"/>
+      <c r="L157" s="10" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n"/>
@@ -5277,19 +6337,19 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr"/>
-      <c r="I158" t="n">
+      <c r="F158" s="10" t="inlineStr"/>
+      <c r="G158" s="10" t="inlineStr"/>
+      <c r="H158" s="10" t="inlineStr"/>
+      <c r="I158" s="116" t="n">
         <v>83.577</v>
       </c>
-      <c r="J158" t="n">
+      <c r="J158" s="115" t="n">
         <v>83.79300000000001</v>
       </c>
-      <c r="K158" t="n">
+      <c r="K158" s="2" t="n">
         <v>12.907</v>
       </c>
-      <c r="L158" t="n">
+      <c r="L158" s="42" t="n">
         <v>13.013</v>
       </c>
     </row>
@@ -5303,19 +6363,19 @@
           <t>indiri</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr"/>
-      <c r="I159" t="n">
+      <c r="F159" s="10" t="inlineStr"/>
+      <c r="G159" s="10" t="inlineStr"/>
+      <c r="H159" s="10" t="inlineStr"/>
+      <c r="I159" s="60" t="n">
         <v>85.524</v>
       </c>
-      <c r="J159" t="n">
+      <c r="J159" s="27" t="n">
         <v>86.136</v>
       </c>
-      <c r="K159" t="n">
+      <c r="K159" s="148" t="n">
         <v>13.227</v>
       </c>
-      <c r="L159" t="n">
+      <c r="L159" s="172" t="n">
         <v>13.44</v>
       </c>
     </row>
@@ -5337,17 +6397,17 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr"/>
-      <c r="I160" t="n">
+      <c r="F160" s="10" t="inlineStr"/>
+      <c r="G160" s="10" t="inlineStr"/>
+      <c r="H160" s="10" t="inlineStr"/>
+      <c r="I160" s="2" t="n">
         <v>81.81999999999999</v>
       </c>
-      <c r="J160" t="n">
+      <c r="J160" s="35" t="n">
         <v>83.51300000000001</v>
       </c>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" s="10" t="inlineStr"/>
+      <c r="L160" s="10" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n"/>
@@ -5363,17 +6423,17 @@
           <t>----</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr"/>
-      <c r="I161" t="n">
+      <c r="F161" s="10" t="inlineStr"/>
+      <c r="G161" s="10" t="inlineStr"/>
+      <c r="H161" s="10" t="inlineStr"/>
+      <c r="I161" s="62" t="n">
         <v>83.06</v>
       </c>
-      <c r="J161" t="n">
+      <c r="J161" s="2" t="n">
         <v>54.174</v>
       </c>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" s="10" t="inlineStr"/>
+      <c r="L161" s="10" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n"/>
@@ -5385,23 +6445,23 @@
           <t>indir</t>
         </is>
       </c>
-      <c r="F162" t="n">
+      <c r="F162" s="62" t="n">
         <v>55.201</v>
       </c>
-      <c r="G162" t="inlineStr"/>
-      <c r="H162" t="n">
+      <c r="G162" s="10" t="inlineStr"/>
+      <c r="H162" s="22" t="n">
         <v>55.442</v>
       </c>
-      <c r="I162" t="n">
+      <c r="I162" s="156" t="n">
         <v>86.782</v>
       </c>
-      <c r="J162" t="n">
+      <c r="J162" s="177" t="n">
         <v>87.895</v>
       </c>
-      <c r="K162" t="n">
+      <c r="K162" s="74" t="n">
         <v>13.413</v>
       </c>
-      <c r="L162" t="n">
+      <c r="L162" s="106" t="n">
         <v>13.613</v>
       </c>
     </row>
@@ -5415,19 +6475,19 @@
           <t>indiri</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-      <c r="H163" t="inlineStr"/>
-      <c r="I163" t="n">
+      <c r="F163" s="10" t="inlineStr"/>
+      <c r="G163" s="10" t="inlineStr"/>
+      <c r="H163" s="10" t="inlineStr"/>
+      <c r="I163" s="149" t="n">
         <v>87.851</v>
       </c>
-      <c r="J163" t="n">
+      <c r="J163" s="71" t="n">
         <v>89.94799999999999</v>
       </c>
-      <c r="K163" t="n">
+      <c r="K163" s="45" t="n">
         <v>13.867</v>
       </c>
-      <c r="L163" t="n">
+      <c r="L163" s="132" t="n">
         <v>14.013</v>
       </c>
     </row>

--- a/docs/table/table_result_juris_tcu_superior.xlsx
+++ b/docs/table/table_result_juris_tcu_superior.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fontes\ind-ir\docs\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2387418-C2B1-460E-9236-0826B7D5F122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8B140C-3DA6-4264-93AD-A13049A93EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15870" yWindow="-6015" windowWidth="15990" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1477,6 +1490,215 @@
     <xf numFmtId="2" fontId="3" fillId="76" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="49" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="145" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="115" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="76" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="145" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="63" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="151" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="90" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="64" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="152" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="65" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="116" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="137" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="66" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="117" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="104" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="67" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="118" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="89" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="68" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="119" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="153" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="69" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="120" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="96" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="70" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="47" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="71" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="121" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="72" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="122" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="51" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="73" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="123" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="100" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="74" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="75" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="124" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="154" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="125" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="78" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="126" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="132" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="77" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="127" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="155" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="94" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="79" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="80" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="138" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="53" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="81" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="128" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="156" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="82" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="129" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="141" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="54" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="83" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="130" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="133" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="55" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="84" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="131" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="85" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="147" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="99" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="86" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="62" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="60" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="87" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="134" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="157" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="57" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="88" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="135" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="113" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="136" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="91" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="92" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="58" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="93" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="158" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="139" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="140" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="59" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="95" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="143" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="97" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="103" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="98" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="108" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="114" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="101" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="159" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="142" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="102" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="144" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="160" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="146" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="161" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="105" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="106" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="148" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="110" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="107" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="61" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="109" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="162" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="111" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="112" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="149" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="150" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="91" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="135" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="137" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1507,215 +1729,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="115" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="76" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="145" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="63" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="151" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="90" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="64" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="152" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="65" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="116" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="137" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="66" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="117" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="104" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="67" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="118" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="89" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="68" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="119" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="153" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="69" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="120" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="96" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="70" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="47" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="71" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="121" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="72" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="122" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="51" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="73" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="123" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="100" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="74" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="75" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="124" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="154" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="125" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="78" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="126" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="132" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="77" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="127" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="155" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="94" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="79" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="80" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="138" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="53" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="81" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="128" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="156" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="82" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="129" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="141" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="54" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="83" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="130" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="133" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="55" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="84" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="131" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="85" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="147" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="99" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="86" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="62" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="60" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="87" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="134" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="157" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="57" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="88" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="135" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="113" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="136" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="91" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="92" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="58" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="93" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="158" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="139" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="140" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="59" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="95" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="143" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="97" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="103" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="98" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="108" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="114" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="101" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="159" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="142" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="102" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="144" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="160" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="146" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="161" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="105" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="106" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="148" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="110" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="107" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="61" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="109" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="162" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="111" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="112" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="149" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="150" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="91" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="135" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="137" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2018,10 +2031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L161"/>
+  <dimension ref="A1:S165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K166" sqref="K166"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2036,42 +2049,42 @@
     <col min="12" max="12" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" s="258" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="258" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="260" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="262" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="264" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="F1" s="256" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77" t="s">
+      <c r="G1" s="256"/>
+      <c r="H1" s="256"/>
+      <c r="I1" s="256" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77" t="s">
+      <c r="J1" s="256"/>
+      <c r="K1" s="256" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="78"/>
-    </row>
-    <row r="2" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="86"/>
+      <c r="L1" s="257"/>
+    </row>
+    <row r="2" spans="1:19" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="259"/>
+      <c r="B2" s="259"/>
+      <c r="C2" s="261"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="265"/>
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2094,150 +2107,154 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="88" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="254" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="254" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="241" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="241" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="100">
+      <c r="F3" s="82">
         <v>54.991999999999997</v>
       </c>
-      <c r="G3" s="100">
+      <c r="G3" s="82">
         <v>18.47</v>
       </c>
-      <c r="H3" s="100">
+      <c r="H3" s="82">
         <v>21.478999999999999</v>
       </c>
-      <c r="I3" s="100">
+      <c r="I3" s="82">
         <v>82.94</v>
       </c>
-      <c r="J3" s="100">
+      <c r="J3" s="82">
         <v>51.823</v>
       </c>
-      <c r="K3" s="100">
+      <c r="K3" s="82">
         <v>12.92</v>
       </c>
       <c r="L3" s="4">
         <v>6.72</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
+      <c r="S3">
+        <f>(J4-J5)/J4</f>
+        <v>8.0089437819420836E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="254"/>
+      <c r="B4" s="254"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="101">
+      <c r="F4" s="83">
         <v>72.945999999999998</v>
       </c>
-      <c r="G4" s="102">
+      <c r="G4" s="84">
         <v>61.122999999999998</v>
       </c>
-      <c r="H4" s="103">
+      <c r="H4" s="85">
         <v>73.484999999999999</v>
       </c>
-      <c r="I4" s="104">
+      <c r="I4" s="86">
         <v>91.081999999999994</v>
       </c>
-      <c r="J4" s="105">
+      <c r="J4" s="87">
         <v>93.92</v>
       </c>
-      <c r="K4" s="106">
+      <c r="K4" s="88">
         <v>15.507</v>
       </c>
       <c r="L4" s="5">
         <v>15.773</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="254"/>
+      <c r="B5" s="254"/>
+      <c r="C5" s="241"/>
+      <c r="D5" s="241"/>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="107">
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="89">
         <v>86.397999999999996</v>
       </c>
-      <c r="K5" s="94"/>
+      <c r="K5" s="77"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="254"/>
+      <c r="B6" s="254"/>
+      <c r="C6" s="241"/>
+      <c r="D6" s="241"/>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="108">
+      <c r="F6" s="90">
         <v>64.085999999999999</v>
       </c>
-      <c r="G6" s="109">
+      <c r="G6" s="91">
         <v>56.668999999999997</v>
       </c>
-      <c r="H6" s="110">
+      <c r="H6" s="92">
         <v>64.156999999999996</v>
       </c>
-      <c r="I6" s="111">
+      <c r="I6" s="93">
         <v>90.739000000000004</v>
       </c>
-      <c r="J6" s="112">
+      <c r="J6" s="94">
         <v>93.665999999999997</v>
       </c>
-      <c r="K6" s="113">
+      <c r="K6" s="95">
         <v>15.16</v>
       </c>
       <c r="L6" s="7">
         <v>15.507</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="88"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" s="254"/>
+      <c r="B7" s="254"/>
+      <c r="C7" s="241"/>
+      <c r="D7" s="241"/>
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="114">
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="96">
         <v>88.194000000000003</v>
       </c>
-      <c r="J7" s="115">
+      <c r="J7" s="97">
         <v>92.147000000000006</v>
       </c>
-      <c r="K7" s="116">
+      <c r="K7" s="98">
         <v>13.853</v>
       </c>
       <c r="L7" s="8">
         <v>14.573</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="87" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" s="254"/>
+      <c r="B8" s="254"/>
+      <c r="C8" s="241" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -2246,114 +2263,114 @@
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="117">
+      <c r="F8" s="99">
         <v>55.429000000000002</v>
       </c>
-      <c r="G8" s="94"/>
-      <c r="H8" s="118">
+      <c r="G8" s="77"/>
+      <c r="H8" s="100">
         <v>56.191000000000003</v>
       </c>
-      <c r="I8" s="119">
+      <c r="I8" s="101">
         <v>87.174000000000007</v>
       </c>
-      <c r="J8" s="120">
+      <c r="J8" s="102">
         <v>88.545000000000002</v>
       </c>
-      <c r="K8" s="121">
+      <c r="K8" s="103">
         <v>13.72</v>
       </c>
       <c r="L8" s="9">
         <v>13.733000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="88"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="87"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" s="254"/>
+      <c r="B9" s="254"/>
+      <c r="C9" s="241"/>
       <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="122">
+      <c r="F9" s="104">
         <v>56.521000000000001</v>
       </c>
-      <c r="G9" s="94"/>
-      <c r="H9" s="123">
+      <c r="G9" s="77"/>
+      <c r="H9" s="105">
         <v>56.104999999999997</v>
       </c>
-      <c r="I9" s="124">
+      <c r="I9" s="106">
         <v>87.96</v>
       </c>
-      <c r="J9" s="125">
+      <c r="J9" s="107">
         <v>89.867999999999995</v>
       </c>
-      <c r="K9" s="126">
+      <c r="K9" s="108">
         <v>13.667</v>
       </c>
       <c r="L9" s="10">
         <v>13.946999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="88"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10" s="254"/>
+      <c r="B10" s="254"/>
+      <c r="C10" s="241"/>
+      <c r="D10" s="241" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="127">
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="109">
         <v>83.194000000000003</v>
       </c>
-      <c r="J10" s="100">
+      <c r="J10" s="82">
         <v>55.881999999999998</v>
       </c>
-      <c r="K10" s="128">
+      <c r="K10" s="110">
         <v>13.067</v>
       </c>
       <c r="L10" s="4">
         <v>7.16</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="88"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" s="254"/>
+      <c r="B11" s="254"/>
+      <c r="C11" s="241"/>
+      <c r="D11" s="241"/>
       <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="129">
+      <c r="F11" s="111">
         <v>60.908999999999999</v>
       </c>
-      <c r="G11" s="94"/>
-      <c r="H11" s="130">
+      <c r="G11" s="77"/>
+      <c r="H11" s="112">
         <v>60.618000000000002</v>
       </c>
-      <c r="I11" s="131">
+      <c r="I11" s="113">
         <v>90.805000000000007</v>
       </c>
-      <c r="J11" s="132">
+      <c r="J11" s="114">
         <v>92.35</v>
       </c>
-      <c r="K11" s="133">
+      <c r="K11" s="115">
         <v>14.827</v>
       </c>
       <c r="L11" s="11">
         <v>14.92</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="88"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="87" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12" s="254"/>
+      <c r="B12" s="254"/>
+      <c r="C12" s="241" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -2362,110 +2379,110 @@
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="100">
+      <c r="F12" s="82">
         <v>54.637</v>
       </c>
-      <c r="G12" s="94"/>
-      <c r="H12" s="134">
+      <c r="G12" s="77"/>
+      <c r="H12" s="116">
         <v>55.531999999999996</v>
       </c>
-      <c r="I12" s="135">
+      <c r="I12" s="117">
         <v>85.606999999999999</v>
       </c>
-      <c r="J12" s="102">
+      <c r="J12" s="84">
         <v>87.046000000000006</v>
       </c>
-      <c r="K12" s="136">
+      <c r="K12" s="118">
         <v>13.64</v>
       </c>
       <c r="L12" s="10">
         <v>13.946999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="88"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="87"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13" s="254"/>
+      <c r="B13" s="254"/>
+      <c r="C13" s="241"/>
       <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="97">
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="80">
         <v>86.664000000000001</v>
       </c>
-      <c r="J13" s="137">
+      <c r="J13" s="119">
         <v>89.587999999999994</v>
       </c>
-      <c r="K13" s="138">
+      <c r="K13" s="120">
         <v>13.653</v>
       </c>
       <c r="L13" s="12">
         <v>14.106999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="88"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87" t="s">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A14" s="254"/>
+      <c r="B14" s="254"/>
+      <c r="C14" s="241"/>
+      <c r="D14" s="241" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="139">
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="121">
         <v>84.3</v>
       </c>
-      <c r="J14" s="100">
+      <c r="J14" s="82">
         <v>57.871000000000002</v>
       </c>
-      <c r="K14" s="128">
+      <c r="K14" s="110">
         <v>13.067</v>
       </c>
       <c r="L14" s="4">
         <v>7.4</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="88"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15" s="254"/>
+      <c r="B15" s="254"/>
+      <c r="C15" s="241"/>
+      <c r="D15" s="241"/>
       <c r="E15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="140">
+      <c r="F15" s="122">
         <v>60.401000000000003</v>
       </c>
-      <c r="G15" s="94"/>
-      <c r="H15" s="141">
+      <c r="G15" s="77"/>
+      <c r="H15" s="123">
         <v>60.701999999999998</v>
       </c>
-      <c r="I15" s="142">
+      <c r="I15" s="124">
         <v>90.516999999999996</v>
       </c>
-      <c r="J15" s="143">
+      <c r="J15" s="125">
         <v>93.078000000000003</v>
       </c>
-      <c r="K15" s="133">
+      <c r="K15" s="115">
         <v>14.827</v>
       </c>
       <c r="L15" s="13">
         <v>15.013</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="88"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="87" t="s">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A16" s="254"/>
+      <c r="B16" s="254"/>
+      <c r="C16" s="241" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -2474,186 +2491,198 @@
       <c r="E16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="127">
+      <c r="F16" s="109">
         <v>55.408999999999999</v>
       </c>
-      <c r="G16" s="94"/>
-      <c r="H16" s="123">
+      <c r="G16" s="77"/>
+      <c r="H16" s="105">
         <v>56.118000000000002</v>
       </c>
-      <c r="I16" s="144">
+      <c r="I16" s="126">
         <v>86.233000000000004</v>
       </c>
-      <c r="J16" s="145">
+      <c r="J16" s="127">
         <v>87.513999999999996</v>
       </c>
-      <c r="K16" s="146">
+      <c r="K16" s="128">
         <v>13.68</v>
       </c>
       <c r="L16" s="12">
         <v>14.106999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="88"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87" t="s">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" s="254"/>
+      <c r="B17" s="254"/>
+      <c r="C17" s="241"/>
+      <c r="D17" s="241" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="134">
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="116">
         <v>83.289000000000001</v>
       </c>
-      <c r="J17" s="100">
+      <c r="J17" s="82">
         <v>56.886000000000003</v>
       </c>
-      <c r="K17" s="94"/>
+      <c r="K17" s="77"/>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="88"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18" s="254"/>
+      <c r="B18" s="254"/>
+      <c r="C18" s="241"/>
+      <c r="D18" s="241"/>
       <c r="E18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="147">
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="129">
         <v>87.795000000000002</v>
       </c>
-      <c r="J18" s="148">
+      <c r="J18" s="130">
         <v>89.364000000000004</v>
       </c>
-      <c r="K18" s="149">
+      <c r="K18" s="131">
         <v>13.573</v>
       </c>
       <c r="L18" s="10">
         <v>13.946999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="88"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87" t="s">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19" s="254"/>
+      <c r="B19" s="254"/>
+      <c r="C19" s="241"/>
+      <c r="D19" s="241" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="150">
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="132">
         <v>85.046999999999997</v>
       </c>
-      <c r="J19" s="100">
+      <c r="J19" s="82">
         <v>57.676000000000002</v>
       </c>
-      <c r="K19" s="151">
+      <c r="K19" s="133">
         <v>12.933</v>
       </c>
       <c r="L19" s="4">
         <v>7.2670000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="88"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20" s="254"/>
+      <c r="B20" s="254"/>
+      <c r="C20" s="241"/>
+      <c r="D20" s="241"/>
       <c r="E20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="112">
+      <c r="F20" s="94">
         <v>70.820999999999998</v>
       </c>
-      <c r="G20" s="152">
+      <c r="G20" s="134">
         <v>62.676000000000002</v>
       </c>
-      <c r="H20" s="153">
+      <c r="H20" s="135">
         <v>70.760000000000005</v>
       </c>
-      <c r="I20" s="154">
+      <c r="I20" s="136">
         <v>91.921999999999997</v>
       </c>
-      <c r="J20" s="155">
+      <c r="J20" s="137">
         <v>93.677999999999997</v>
       </c>
-      <c r="K20" s="156">
+      <c r="K20" s="138">
         <v>15.6</v>
       </c>
       <c r="L20" s="14">
         <v>15.787000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="88"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21" s="254"/>
+      <c r="B21" s="254"/>
+      <c r="C21" s="241"/>
+      <c r="D21" s="241"/>
       <c r="E21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="157">
+      <c r="F21" s="139">
         <v>60.259</v>
       </c>
-      <c r="G21" s="151">
+      <c r="G21" s="133">
         <v>55.106999999999999</v>
       </c>
-      <c r="H21" s="97">
+      <c r="H21" s="80">
         <v>60.503</v>
       </c>
-      <c r="I21" s="142">
+      <c r="I21" s="124">
         <v>90.512</v>
       </c>
-      <c r="J21" s="158">
+      <c r="J21" s="140">
         <v>92.212000000000003</v>
       </c>
-      <c r="K21" s="96">
+      <c r="K21" s="79">
         <v>14.693</v>
       </c>
       <c r="L21" s="11">
         <v>14.92</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="88"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
+      <c r="N21">
+        <f>(I21-I22)/I21</f>
+        <v>6.3925225384479423E-2</v>
+      </c>
+      <c r="O21">
+        <f>(J21-J22)/J21</f>
+        <v>3.2653016960916256E-2</v>
+      </c>
+      <c r="P21">
+        <f>(K21-K22)/K21</f>
+        <v>0.13244402096236302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22" s="254"/>
+      <c r="B22" s="254"/>
+      <c r="C22" s="241"/>
+      <c r="D22" s="241"/>
       <c r="E22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="159">
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="141">
         <v>84.725999999999999</v>
       </c>
-      <c r="J22" s="160">
+      <c r="J22" s="142">
         <v>89.200999999999993</v>
       </c>
-      <c r="K22" s="100">
+      <c r="K22" s="82">
         <v>12.747</v>
       </c>
       <c r="L22" s="15">
         <v>13.413</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="88"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="87" t="s">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23" s="254"/>
+      <c r="B23" s="254"/>
+      <c r="C23" s="241" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -2662,237 +2691,253 @@
       <c r="E23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="159">
+      <c r="F23" s="141">
         <v>57.645000000000003</v>
       </c>
-      <c r="G23" s="94"/>
-      <c r="H23" s="161">
+      <c r="G23" s="77"/>
+      <c r="H23" s="143">
         <v>57.957999999999998</v>
       </c>
-      <c r="I23" s="96">
+      <c r="I23" s="79">
         <v>89.914000000000001</v>
       </c>
-      <c r="J23" s="162">
+      <c r="J23" s="144">
         <v>90.447000000000003</v>
       </c>
-      <c r="K23" s="162">
+      <c r="K23" s="144">
         <v>14.813000000000001</v>
       </c>
       <c r="L23" s="16">
         <v>14.946999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="88"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87" t="s">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A24" s="254"/>
+      <c r="B24" s="254"/>
+      <c r="C24" s="241"/>
+      <c r="D24" s="241" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="163">
+      <c r="F24" s="145">
         <v>55.582000000000001</v>
       </c>
-      <c r="G24" s="100">
+      <c r="G24" s="82">
         <v>20.593</v>
       </c>
-      <c r="H24" s="100">
+      <c r="H24" s="82">
         <v>25.808</v>
       </c>
-      <c r="I24" s="136">
+      <c r="I24" s="118">
         <v>85.787000000000006</v>
       </c>
-      <c r="J24" s="100">
+      <c r="J24" s="82">
         <v>60.491</v>
       </c>
-      <c r="K24" s="164">
+      <c r="K24" s="146">
         <v>13.733000000000001</v>
       </c>
       <c r="L24" s="4">
         <v>7.92</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="88"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A25" s="254"/>
+      <c r="B25" s="254"/>
+      <c r="C25" s="241"/>
+      <c r="D25" s="241"/>
       <c r="E25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="136">
+      <c r="F25" s="118">
         <v>59.250999999999998</v>
       </c>
-      <c r="G25" s="94"/>
-      <c r="H25" s="146">
+      <c r="G25" s="77"/>
+      <c r="H25" s="128">
         <v>59.405000000000001</v>
       </c>
-      <c r="I25" s="165">
+      <c r="I25" s="147">
         <v>90.759</v>
       </c>
-      <c r="J25" s="166">
+      <c r="J25" s="148">
         <v>93.123999999999995</v>
       </c>
-      <c r="K25" s="167">
+      <c r="K25" s="149">
         <v>14.347</v>
       </c>
       <c r="L25" s="17">
         <v>14.68</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="88"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="87"/>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26" s="254"/>
+      <c r="B26" s="254"/>
+      <c r="C26" s="241"/>
       <c r="D26" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="134">
+      <c r="F26" s="116">
         <v>55.543999999999997</v>
       </c>
-      <c r="G26" s="94"/>
-      <c r="H26" s="168">
+      <c r="G26" s="77"/>
+      <c r="H26" s="150">
         <v>55.89</v>
       </c>
-      <c r="I26" s="160">
+      <c r="I26" s="142">
         <v>89.186000000000007</v>
       </c>
-      <c r="J26" s="169">
+      <c r="J26" s="151">
         <v>90.070999999999998</v>
       </c>
-      <c r="K26" s="102">
+      <c r="K26" s="84">
         <v>13.96</v>
       </c>
       <c r="L26" s="18">
         <v>14.067</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="88"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87" t="s">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A27" s="254"/>
+      <c r="B27" s="254"/>
+      <c r="C27" s="241"/>
+      <c r="D27" s="241" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="128">
+      <c r="F27" s="110">
         <v>55.718000000000004</v>
       </c>
-      <c r="G27" s="100">
+      <c r="G27" s="82">
         <v>21.626999999999999</v>
       </c>
-      <c r="H27" s="100">
+      <c r="H27" s="82">
         <v>25.911000000000001</v>
       </c>
-      <c r="I27" s="170">
+      <c r="I27" s="152">
         <v>85.738</v>
       </c>
-      <c r="J27" s="100">
+      <c r="J27" s="82">
         <v>61.561</v>
       </c>
-      <c r="K27" s="171">
+      <c r="K27" s="153">
         <v>13.532999999999999</v>
       </c>
       <c r="L27" s="4">
         <v>8.1199999999999992</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="88"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A28" s="254"/>
+      <c r="B28" s="254"/>
+      <c r="C28" s="241"/>
+      <c r="D28" s="241"/>
       <c r="E28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="172">
+      <c r="F28" s="154">
         <v>70.659000000000006</v>
       </c>
-      <c r="G28" s="173">
+      <c r="G28" s="155">
         <v>63.542000000000002</v>
       </c>
-      <c r="H28" s="105">
+      <c r="H28" s="87">
         <v>71.251000000000005</v>
       </c>
-      <c r="I28" s="174">
+      <c r="I28" s="156">
         <v>93.003</v>
       </c>
-      <c r="J28" s="103">
+      <c r="J28" s="85">
         <v>95.423000000000002</v>
       </c>
-      <c r="K28" s="175">
+      <c r="K28" s="157">
         <v>15.787000000000001</v>
       </c>
       <c r="L28" s="19">
         <v>16.079999999999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="88"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
+      <c r="N28">
+        <f>(I28-I29)/I28</f>
+        <v>8.7201488124039762E-3</v>
+      </c>
+      <c r="O28">
+        <f>(J28-J29)/J28</f>
+        <v>7.1576035127800105E-3</v>
+      </c>
+      <c r="P28">
+        <f>(K28-K29)/K28</f>
+        <v>4.0539684550579623E-2</v>
+      </c>
+      <c r="Q28">
+        <f>(L28-L29)/L28</f>
+        <v>4.3097014925373003E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A29" s="254"/>
+      <c r="B29" s="254"/>
+      <c r="C29" s="241"/>
+      <c r="D29" s="241"/>
       <c r="E29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="176">
+      <c r="F29" s="158">
         <v>63.46</v>
       </c>
-      <c r="G29" s="177">
+      <c r="G29" s="159">
         <v>57.845999999999997</v>
       </c>
-      <c r="H29" s="178">
+      <c r="H29" s="160">
         <v>63.16</v>
       </c>
-      <c r="I29" s="179">
+      <c r="I29" s="161">
         <v>92.191999999999993</v>
       </c>
-      <c r="J29" s="180">
+      <c r="J29" s="162">
         <v>94.74</v>
       </c>
-      <c r="K29" s="181">
+      <c r="K29" s="163">
         <v>15.147</v>
       </c>
       <c r="L29" s="20">
         <v>15.387</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="88"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A30" s="254"/>
+      <c r="B30" s="254"/>
+      <c r="C30" s="241"/>
+      <c r="D30" s="241"/>
       <c r="E30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="182">
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="164">
         <v>85.186999999999998</v>
       </c>
-      <c r="J30" s="183">
+      <c r="J30" s="165">
         <v>89.233999999999995</v>
       </c>
-      <c r="K30" s="100">
+      <c r="K30" s="82">
         <v>12.6</v>
       </c>
       <c r="L30" s="21">
         <v>13.452999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="184" t="s">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A31" s="246" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="91">
+      <c r="B31" s="243">
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -2904,21 +2949,21 @@
       <c r="E31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="185">
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="166">
         <v>85.468000000000004</v>
       </c>
-      <c r="K31" s="94"/>
+      <c r="K31" s="77"/>
       <c r="L31" s="36">
         <v>13.186999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="186"/>
-      <c r="B32" s="92"/>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A32" s="247"/>
+      <c r="B32" s="244"/>
       <c r="C32" s="1" t="s">
         <v>17</v>
       </c>
@@ -2928,19 +2973,19 @@
       <c r="E32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="163">
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="145">
         <v>83.376000000000005</v>
       </c>
-      <c r="K32" s="94"/>
+      <c r="K32" s="77"/>
       <c r="L32" s="6"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="186"/>
-      <c r="B33" s="93"/>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A33" s="247"/>
+      <c r="B33" s="245"/>
       <c r="C33" s="1" t="s">
         <v>18</v>
       </c>
@@ -2950,18 +2995,18 @@
       <c r="E33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="109">
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="91">
         <v>84.066999999999993</v>
       </c>
-      <c r="K33" s="94"/>
+      <c r="K33" s="77"/>
       <c r="L33" s="6"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="187"/>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A34" s="248"/>
       <c r="B34" s="3">
         <v>5</v>
       </c>
@@ -2974,130 +3019,146 @@
       <c r="E34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="123">
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="105">
         <v>83.707999999999998</v>
       </c>
-      <c r="K34" s="94"/>
+      <c r="K34" s="77"/>
       <c r="L34" s="6"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="188" t="s">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A35" s="249" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="91" t="s">
+      <c r="B35" s="243" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="87" t="s">
+      <c r="C35" s="241" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="87" t="s">
+      <c r="D35" s="241" t="s">
         <v>7</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="189">
+      <c r="F35" s="167">
         <v>65.965000000000003</v>
       </c>
-      <c r="G35" s="190">
+      <c r="G35" s="168">
         <v>57.212000000000003</v>
       </c>
-      <c r="H35" s="191">
+      <c r="H35" s="169">
         <v>67.396000000000001</v>
       </c>
-      <c r="I35" s="192">
+      <c r="I35" s="170">
         <v>88.891999999999996</v>
       </c>
-      <c r="J35" s="193">
+      <c r="J35" s="171">
         <v>92.031999999999996</v>
       </c>
-      <c r="K35" s="194">
+      <c r="K35" s="172">
         <v>14.773</v>
       </c>
       <c r="L35" s="22">
         <v>15.173</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="195"/>
-      <c r="B36" s="92"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A36" s="250"/>
+      <c r="B36" s="244"/>
+      <c r="C36" s="241"/>
+      <c r="D36" s="241"/>
       <c r="E36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="149">
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="131">
         <v>85.512</v>
       </c>
-      <c r="K36" s="94"/>
+      <c r="K36" s="77"/>
       <c r="L36" s="6"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="195"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="87"/>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A37" s="250"/>
+      <c r="B37" s="244"/>
+      <c r="C37" s="241"/>
+      <c r="D37" s="241"/>
       <c r="E37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="196">
+      <c r="F37" s="173">
         <v>58.648000000000003</v>
       </c>
-      <c r="G37" s="100">
+      <c r="G37" s="82">
         <v>52.604999999999997</v>
       </c>
-      <c r="H37" s="197">
+      <c r="H37" s="174">
         <v>59.042999999999999</v>
       </c>
-      <c r="I37" s="198">
+      <c r="I37" s="175">
         <v>87.415000000000006</v>
       </c>
-      <c r="J37" s="199">
+      <c r="J37" s="176">
         <v>90.641000000000005</v>
       </c>
-      <c r="K37" s="114">
+      <c r="K37" s="96">
         <v>14.253</v>
       </c>
       <c r="L37" s="23">
         <v>14.653</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="195"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="87"/>
+      <c r="N37">
+        <f t="shared" ref="N37:Q37" si="0">(I37-I38)/I37</f>
+        <v>3.3289481210319856E-3</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="0"/>
+        <v>-1.9196610805263883E-3</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="0"/>
+        <v>3.4589209289272456E-2</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="0"/>
+        <v>2.6342728451511702E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A38" s="250"/>
+      <c r="B38" s="244"/>
+      <c r="C38" s="241"/>
+      <c r="D38" s="241"/>
       <c r="E38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="94"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="94"/>
-      <c r="I38" s="200">
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="177">
         <v>87.123999999999995</v>
       </c>
-      <c r="J38" s="131">
+      <c r="J38" s="113">
         <v>90.814999999999998</v>
       </c>
-      <c r="K38" s="201">
+      <c r="K38" s="178">
         <v>13.76</v>
       </c>
       <c r="L38" s="24">
         <v>14.266999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="195"/>
-      <c r="B39" s="92"/>
-      <c r="C39" s="87" t="s">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A39" s="250"/>
+      <c r="B39" s="244"/>
+      <c r="C39" s="241" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -3106,98 +3167,98 @@
       <c r="E39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="94"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="94"/>
-      <c r="I39" s="100">
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="82">
         <v>82.58</v>
       </c>
-      <c r="J39" s="202">
+      <c r="J39" s="179">
         <v>84.47</v>
       </c>
-      <c r="K39" s="94"/>
+      <c r="K39" s="77"/>
       <c r="L39" s="6"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="195"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="87"/>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A40" s="250"/>
+      <c r="B40" s="244"/>
+      <c r="C40" s="241"/>
       <c r="D40" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="94"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="94"/>
-      <c r="I40" s="203">
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="180">
         <v>84.372</v>
       </c>
-      <c r="J40" s="164">
+      <c r="J40" s="146">
         <v>86.120999999999995</v>
       </c>
-      <c r="K40" s="100">
+      <c r="K40" s="82">
         <v>12.587</v>
       </c>
       <c r="L40" s="25">
         <v>12.933</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="195"/>
-      <c r="B41" s="92"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="87" t="s">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A41" s="250"/>
+      <c r="B41" s="244"/>
+      <c r="C41" s="241"/>
+      <c r="D41" s="241" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F41" s="94"/>
-      <c r="G41" s="94"/>
-      <c r="H41" s="94"/>
-      <c r="I41" s="204">
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="181">
         <v>83.790999999999997</v>
       </c>
-      <c r="J41" s="100">
+      <c r="J41" s="82">
         <v>59.393000000000001</v>
       </c>
-      <c r="K41" s="94"/>
+      <c r="K41" s="77"/>
       <c r="L41" s="6"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="195"/>
-      <c r="B42" s="92"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="87"/>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A42" s="250"/>
+      <c r="B42" s="244"/>
+      <c r="C42" s="241"/>
+      <c r="D42" s="241"/>
       <c r="E42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="205">
+      <c r="F42" s="182">
         <v>55.984999999999999</v>
       </c>
-      <c r="G42" s="94"/>
-      <c r="H42" s="206">
+      <c r="G42" s="77"/>
+      <c r="H42" s="183">
         <v>56.33</v>
       </c>
-      <c r="I42" s="147">
+      <c r="I42" s="129">
         <v>87.808999999999997</v>
       </c>
-      <c r="J42" s="194">
+      <c r="J42" s="172">
         <v>90.281000000000006</v>
       </c>
-      <c r="K42" s="102">
+      <c r="K42" s="84">
         <v>13.96</v>
       </c>
       <c r="L42" s="26">
         <v>14.4</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="195"/>
-      <c r="B43" s="92"/>
-      <c r="C43" s="87" t="s">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A43" s="250"/>
+      <c r="B43" s="244"/>
+      <c r="C43" s="241" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -3206,94 +3267,94 @@
       <c r="E43" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="94"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="94"/>
-      <c r="I43" s="100">
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="82">
         <v>82.787999999999997</v>
       </c>
-      <c r="J43" s="123">
+      <c r="J43" s="105">
         <v>83.715999999999994</v>
       </c>
-      <c r="K43" s="94"/>
+      <c r="K43" s="77"/>
       <c r="L43" s="6"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A44" s="195"/>
-      <c r="B44" s="92"/>
-      <c r="C44" s="87"/>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A44" s="250"/>
+      <c r="B44" s="244"/>
+      <c r="C44" s="241"/>
       <c r="D44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F44" s="94"/>
-      <c r="G44" s="94"/>
-      <c r="H44" s="94"/>
-      <c r="I44" s="100">
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="82">
         <v>82.043000000000006</v>
       </c>
-      <c r="J44" s="207">
+      <c r="J44" s="184">
         <v>83.944000000000003</v>
       </c>
-      <c r="K44" s="94"/>
+      <c r="K44" s="77"/>
       <c r="L44" s="6"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A45" s="195"/>
-      <c r="B45" s="92"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="87" t="s">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A45" s="250"/>
+      <c r="B45" s="244"/>
+      <c r="C45" s="241"/>
+      <c r="D45" s="241" t="s">
         <v>15</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F45" s="94"/>
-      <c r="G45" s="94"/>
-      <c r="H45" s="94"/>
-      <c r="I45" s="208">
+      <c r="F45" s="77"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="185">
         <v>84.754999999999995</v>
       </c>
-      <c r="J45" s="100">
+      <c r="J45" s="82">
         <v>61.459000000000003</v>
       </c>
-      <c r="K45" s="94"/>
+      <c r="K45" s="77"/>
       <c r="L45" s="6"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" s="195"/>
-      <c r="B46" s="92"/>
-      <c r="C46" s="87"/>
-      <c r="D46" s="87"/>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A46" s="250"/>
+      <c r="B46" s="244"/>
+      <c r="C46" s="241"/>
+      <c r="D46" s="241"/>
       <c r="E46" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F46" s="209">
+      <c r="F46" s="186">
         <v>55.255000000000003</v>
       </c>
-      <c r="G46" s="94"/>
-      <c r="H46" s="210">
+      <c r="G46" s="77"/>
+      <c r="H46" s="187">
         <v>55.707999999999998</v>
       </c>
-      <c r="I46" s="211">
+      <c r="I46" s="188">
         <v>88.224999999999994</v>
       </c>
-      <c r="J46" s="212">
+      <c r="J46" s="189">
         <v>89.741</v>
       </c>
-      <c r="K46" s="213">
+      <c r="K46" s="190">
         <v>13.827</v>
       </c>
       <c r="L46" s="27">
         <v>14.08</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="195"/>
-      <c r="B47" s="92"/>
-      <c r="C47" s="87" t="s">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A47" s="250"/>
+      <c r="B47" s="244"/>
+      <c r="C47" s="241" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -3302,154 +3363,170 @@
       <c r="E47" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="94"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="94"/>
-      <c r="I47" s="127">
+      <c r="F47" s="77"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="77"/>
+      <c r="I47" s="109">
         <v>83.227000000000004</v>
       </c>
-      <c r="J47" s="214">
+      <c r="J47" s="191">
         <v>85.150999999999996</v>
       </c>
-      <c r="K47" s="100">
+      <c r="K47" s="82">
         <v>12.653</v>
       </c>
       <c r="L47" s="28">
         <v>13.026999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A48" s="195"/>
-      <c r="B48" s="92"/>
-      <c r="C48" s="87"/>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A48" s="250"/>
+      <c r="B48" s="244"/>
+      <c r="C48" s="241"/>
       <c r="D48" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F48" s="94"/>
-      <c r="G48" s="94"/>
-      <c r="H48" s="94"/>
-      <c r="I48" s="163">
+      <c r="F48" s="77"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="145">
         <v>83.375</v>
       </c>
-      <c r="J48" s="171">
+      <c r="J48" s="153">
         <v>85.331999999999994</v>
       </c>
-      <c r="K48" s="94"/>
+      <c r="K48" s="77"/>
       <c r="L48" s="6"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A49" s="195"/>
-      <c r="B49" s="92"/>
-      <c r="C49" s="87"/>
-      <c r="D49" s="87" t="s">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A49" s="250"/>
+      <c r="B49" s="244"/>
+      <c r="C49" s="241"/>
+      <c r="D49" s="241" t="s">
         <v>15</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F49" s="94"/>
-      <c r="G49" s="94"/>
-      <c r="H49" s="94"/>
-      <c r="I49" s="177">
+      <c r="F49" s="77"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="77"/>
+      <c r="I49" s="159">
         <v>84.887</v>
       </c>
-      <c r="J49" s="100">
+      <c r="J49" s="82">
         <v>62.384999999999998</v>
       </c>
-      <c r="K49" s="94"/>
+      <c r="K49" s="77"/>
       <c r="L49" s="6"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A50" s="195"/>
-      <c r="B50" s="92"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A50" s="250"/>
+      <c r="B50" s="244"/>
+      <c r="C50" s="241"/>
+      <c r="D50" s="241"/>
       <c r="E50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="215">
+      <c r="F50" s="192">
         <v>64.695999999999998</v>
       </c>
-      <c r="G50" s="214">
+      <c r="G50" s="191">
         <v>58.283999999999999</v>
       </c>
-      <c r="H50" s="216">
+      <c r="H50" s="193">
         <v>65.007000000000005</v>
       </c>
-      <c r="I50" s="191">
+      <c r="I50" s="169">
         <v>91.286000000000001</v>
       </c>
-      <c r="J50" s="158">
+      <c r="J50" s="140">
         <v>92.207999999999998</v>
       </c>
-      <c r="K50" s="165">
+      <c r="K50" s="147">
         <v>14.907</v>
       </c>
       <c r="L50" s="29">
         <v>15.16</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A51" s="195"/>
-      <c r="B51" s="92"/>
-      <c r="C51" s="87"/>
-      <c r="D51" s="87"/>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A51" s="250"/>
+      <c r="B51" s="244"/>
+      <c r="C51" s="241"/>
+      <c r="D51" s="241"/>
       <c r="E51" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F51" s="163">
+      <c r="F51" s="145">
         <v>55.578000000000003</v>
       </c>
-      <c r="G51" s="100">
+      <c r="G51" s="82">
         <v>52.281999999999996</v>
       </c>
-      <c r="H51" s="118">
+      <c r="H51" s="100">
         <v>56.162999999999997</v>
       </c>
-      <c r="I51" s="217">
+      <c r="I51" s="194">
         <v>88.066000000000003</v>
       </c>
-      <c r="J51" s="218">
+      <c r="J51" s="195">
         <v>89.981999999999999</v>
       </c>
-      <c r="K51" s="219">
+      <c r="K51" s="196">
         <v>13.8</v>
       </c>
       <c r="L51" s="30">
         <v>14.013</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A52" s="195"/>
-      <c r="B52" s="92"/>
-      <c r="C52" s="87"/>
-      <c r="D52" s="87"/>
+      <c r="N51">
+        <f t="shared" ref="N51:Q51" si="1">(I51-I52)/I51</f>
+        <v>2.4720096291417876E-2</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="1"/>
+        <v>1.773688070947527E-2</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="1"/>
+        <v>5.5072463768116052E-2</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="1"/>
+        <v>3.9962891600656567E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A52" s="250"/>
+      <c r="B52" s="244"/>
+      <c r="C52" s="241"/>
+      <c r="D52" s="241"/>
       <c r="E52" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="94"/>
-      <c r="G52" s="94"/>
-      <c r="H52" s="94"/>
-      <c r="I52" s="126">
+      <c r="F52" s="77"/>
+      <c r="G52" s="77"/>
+      <c r="H52" s="77"/>
+      <c r="I52" s="108">
         <v>85.888999999999996</v>
       </c>
-      <c r="J52" s="220">
+      <c r="J52" s="197">
         <v>88.385999999999996</v>
       </c>
-      <c r="K52" s="210">
+      <c r="K52" s="187">
         <v>13.04</v>
       </c>
       <c r="L52" s="21">
         <v>13.452999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A53" s="195"/>
-      <c r="B53" s="92"/>
-      <c r="C53" s="87" t="s">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A53" s="250"/>
+      <c r="B53" s="244"/>
+      <c r="C53" s="241" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -3458,288 +3535,304 @@
       <c r="E53" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F53" s="94"/>
-      <c r="G53" s="94"/>
-      <c r="H53" s="94"/>
-      <c r="I53" s="124">
+      <c r="F53" s="77"/>
+      <c r="G53" s="77"/>
+      <c r="H53" s="77"/>
+      <c r="I53" s="106">
         <v>87.948999999999998</v>
       </c>
-      <c r="J53" s="221">
+      <c r="J53" s="198">
         <v>87.74</v>
       </c>
-      <c r="K53" s="116">
+      <c r="K53" s="98">
         <v>13.853</v>
       </c>
       <c r="L53" s="31">
         <v>14.04</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A54" s="195"/>
-      <c r="B54" s="92"/>
-      <c r="C54" s="87"/>
-      <c r="D54" s="87" t="s">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A54" s="250"/>
+      <c r="B54" s="244"/>
+      <c r="C54" s="241"/>
+      <c r="D54" s="241" t="s">
         <v>14</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F54" s="94"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="94"/>
-      <c r="I54" s="107">
+      <c r="F54" s="77"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="77"/>
+      <c r="I54" s="89">
         <v>86.382000000000005</v>
       </c>
-      <c r="J54" s="100">
+      <c r="J54" s="82">
         <v>61.65</v>
       </c>
-      <c r="K54" s="190">
+      <c r="K54" s="168">
         <v>13.292999999999999</v>
       </c>
       <c r="L54" s="4">
         <v>7.9470000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A55" s="195"/>
-      <c r="B55" s="92"/>
-      <c r="C55" s="87"/>
-      <c r="D55" s="87"/>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A55" s="250"/>
+      <c r="B55" s="244"/>
+      <c r="C55" s="241"/>
+      <c r="D55" s="241"/>
       <c r="E55" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F55" s="94"/>
-      <c r="G55" s="94"/>
-      <c r="H55" s="94"/>
-      <c r="I55" s="221">
+      <c r="F55" s="77"/>
+      <c r="G55" s="77"/>
+      <c r="H55" s="77"/>
+      <c r="I55" s="198">
         <v>87.74</v>
       </c>
-      <c r="J55" s="162">
+      <c r="J55" s="144">
         <v>90.417000000000002</v>
       </c>
-      <c r="K55" s="161">
+      <c r="K55" s="143">
         <v>13.427</v>
       </c>
       <c r="L55" s="32">
         <v>13.707000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A56" s="195"/>
-      <c r="B56" s="92"/>
-      <c r="C56" s="87"/>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A56" s="250"/>
+      <c r="B56" s="244"/>
+      <c r="C56" s="241"/>
       <c r="D56" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F56" s="94"/>
-      <c r="G56" s="94"/>
-      <c r="H56" s="94"/>
-      <c r="I56" s="171">
+      <c r="F56" s="77"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="77"/>
+      <c r="I56" s="153">
         <v>85.369</v>
       </c>
-      <c r="J56" s="116">
+      <c r="J56" s="98">
         <v>86.634</v>
       </c>
-      <c r="K56" s="118">
+      <c r="K56" s="100">
         <v>13.12</v>
       </c>
       <c r="L56" s="33">
         <v>13.32</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A57" s="195"/>
-      <c r="B57" s="92"/>
-      <c r="C57" s="87"/>
-      <c r="D57" s="87" t="s">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A57" s="250"/>
+      <c r="B57" s="244"/>
+      <c r="C57" s="241"/>
+      <c r="D57" s="241" t="s">
         <v>15</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F57" s="94"/>
-      <c r="G57" s="94"/>
-      <c r="H57" s="94"/>
-      <c r="I57" s="222">
+      <c r="F57" s="77"/>
+      <c r="G57" s="77"/>
+      <c r="H57" s="77"/>
+      <c r="I57" s="199">
         <v>86.852000000000004</v>
       </c>
-      <c r="J57" s="100">
+      <c r="J57" s="82">
         <v>63.930999999999997</v>
       </c>
-      <c r="K57" s="223">
+      <c r="K57" s="200">
         <v>13.347</v>
       </c>
       <c r="L57" s="4">
         <v>8.36</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A58" s="195"/>
-      <c r="B58" s="92"/>
-      <c r="C58" s="87"/>
-      <c r="D58" s="87"/>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A58" s="250"/>
+      <c r="B58" s="244"/>
+      <c r="C58" s="241"/>
+      <c r="D58" s="241"/>
       <c r="E58" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="224">
+      <c r="F58" s="201">
         <v>64.191000000000003</v>
       </c>
-      <c r="G58" s="171">
+      <c r="G58" s="153">
         <v>58.588000000000001</v>
       </c>
-      <c r="H58" s="225">
+      <c r="H58" s="202">
         <v>64.59</v>
       </c>
-      <c r="I58" s="226">
+      <c r="I58" s="203">
         <v>92.424999999999997</v>
       </c>
-      <c r="J58" s="175">
+      <c r="J58" s="157">
         <v>94.296999999999997</v>
       </c>
-      <c r="K58" s="227">
+      <c r="K58" s="204">
         <v>15.173</v>
       </c>
       <c r="L58" s="34">
         <v>15.36</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A59" s="195"/>
-      <c r="B59" s="92"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A59" s="250"/>
+      <c r="B59" s="244"/>
+      <c r="C59" s="241"/>
+      <c r="D59" s="241"/>
       <c r="E59" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F59" s="228">
+      <c r="F59" s="205">
         <v>58.225999999999999</v>
       </c>
-      <c r="G59" s="100">
+      <c r="G59" s="82">
         <v>53.378999999999998</v>
       </c>
-      <c r="H59" s="228">
+      <c r="H59" s="205">
         <v>58.194000000000003</v>
       </c>
-      <c r="I59" s="169">
+      <c r="I59" s="151">
         <v>90.081000000000003</v>
       </c>
-      <c r="J59" s="229">
+      <c r="J59" s="206">
         <v>92.739000000000004</v>
       </c>
-      <c r="K59" s="173">
+      <c r="K59" s="155">
         <v>14.387</v>
       </c>
       <c r="L59" s="23">
         <v>14.653</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A60" s="195"/>
-      <c r="B60" s="93"/>
-      <c r="C60" s="87"/>
-      <c r="D60" s="87"/>
+      <c r="N59">
+        <f t="shared" ref="N59:Q59" si="2">(I59-I60)/I59</f>
+        <v>4.1262863422919356E-2</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="2"/>
+        <v>2.7032855648648411E-2</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="2"/>
+        <v>9.0845902550914043E-2</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="2"/>
+        <v>7.6434859755681497E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A60" s="250"/>
+      <c r="B60" s="245"/>
+      <c r="C60" s="241"/>
+      <c r="D60" s="241"/>
       <c r="E60" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="94"/>
-      <c r="G60" s="94"/>
-      <c r="H60" s="94"/>
-      <c r="I60" s="107">
+      <c r="F60" s="77"/>
+      <c r="G60" s="77"/>
+      <c r="H60" s="77"/>
+      <c r="I60" s="89">
         <v>86.364000000000004</v>
       </c>
-      <c r="J60" s="230">
+      <c r="J60" s="207">
         <v>90.231999999999999</v>
       </c>
-      <c r="K60" s="168">
+      <c r="K60" s="150">
         <v>13.08</v>
       </c>
       <c r="L60" s="35">
         <v>13.532999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A61" s="195"/>
-      <c r="B61" s="88" t="s">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A61" s="250"/>
+      <c r="B61" s="254" t="s">
         <v>22</v>
       </c>
-      <c r="C61" s="87" t="s">
+      <c r="C61" s="241" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="87" t="s">
+      <c r="D61" s="241" t="s">
         <v>7</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="94"/>
-      <c r="G61" s="94"/>
-      <c r="H61" s="94"/>
-      <c r="I61" s="94"/>
-      <c r="J61" s="231">
+      <c r="F61" s="77"/>
+      <c r="G61" s="77"/>
+      <c r="H61" s="77"/>
+      <c r="I61" s="77"/>
+      <c r="J61" s="208">
         <v>84.171000000000006</v>
       </c>
-      <c r="K61" s="94"/>
+      <c r="K61" s="77"/>
       <c r="L61" s="6"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A62" s="195"/>
-      <c r="B62" s="88"/>
-      <c r="C62" s="87"/>
-      <c r="D62" s="87"/>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A62" s="250"/>
+      <c r="B62" s="254"/>
+      <c r="C62" s="241"/>
+      <c r="D62" s="241"/>
       <c r="E62" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="206">
+      <c r="F62" s="183">
         <v>56.363999999999997</v>
       </c>
-      <c r="G62" s="94"/>
-      <c r="H62" s="231">
+      <c r="G62" s="77"/>
+      <c r="H62" s="208">
         <v>56.832000000000001</v>
       </c>
-      <c r="I62" s="232">
+      <c r="I62" s="209">
         <v>85.632999999999996</v>
       </c>
-      <c r="J62" s="233">
+      <c r="J62" s="210">
         <v>88.643000000000001</v>
       </c>
-      <c r="K62" s="121">
+      <c r="K62" s="103">
         <v>13.72</v>
       </c>
       <c r="L62" s="41">
         <v>14.093</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A63" s="195"/>
-      <c r="B63" s="88"/>
-      <c r="C63" s="87"/>
-      <c r="D63" s="87"/>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A63" s="250"/>
+      <c r="B63" s="254"/>
+      <c r="C63" s="241"/>
+      <c r="D63" s="241"/>
       <c r="E63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F63" s="94"/>
-      <c r="G63" s="94"/>
-      <c r="H63" s="94"/>
-      <c r="I63" s="138">
+      <c r="F63" s="77"/>
+      <c r="G63" s="77"/>
+      <c r="H63" s="77"/>
+      <c r="I63" s="120">
         <v>85.846000000000004</v>
       </c>
-      <c r="J63" s="216">
+      <c r="J63" s="193">
         <v>89.680999999999997</v>
       </c>
-      <c r="K63" s="149">
+      <c r="K63" s="131">
         <v>13.573</v>
       </c>
       <c r="L63" s="42">
         <v>14.227</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A64" s="195"/>
-      <c r="B64" s="88"/>
-      <c r="C64" s="87" t="s">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A64" s="250"/>
+      <c r="B64" s="254"/>
+      <c r="C64" s="241" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -3748,51 +3841,51 @@
       <c r="E64" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F64" s="94"/>
-      <c r="G64" s="94"/>
-      <c r="H64" s="94"/>
-      <c r="I64" s="100">
+      <c r="F64" s="77"/>
+      <c r="G64" s="77"/>
+      <c r="H64" s="77"/>
+      <c r="I64" s="82">
         <v>81.695999999999998</v>
       </c>
-      <c r="J64" s="134">
+      <c r="J64" s="116">
         <v>83.319000000000003</v>
       </c>
-      <c r="K64" s="94"/>
+      <c r="K64" s="77"/>
       <c r="L64" s="6"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A65" s="195"/>
-      <c r="B65" s="88"/>
-      <c r="C65" s="87"/>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A65" s="250"/>
+      <c r="B65" s="254"/>
+      <c r="C65" s="241"/>
       <c r="D65" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F65" s="100">
+      <c r="F65" s="82">
         <v>54.512</v>
       </c>
-      <c r="G65" s="94"/>
-      <c r="H65" s="127">
+      <c r="G65" s="77"/>
+      <c r="H65" s="109">
         <v>55.405999999999999</v>
       </c>
-      <c r="I65" s="234">
+      <c r="I65" s="211">
         <v>86.055999999999997</v>
       </c>
-      <c r="J65" s="235">
+      <c r="J65" s="212">
         <v>87.364000000000004</v>
       </c>
-      <c r="K65" s="161">
+      <c r="K65" s="143">
         <v>13.427</v>
       </c>
       <c r="L65" s="43">
         <v>13.693</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A66" s="195"/>
-      <c r="B66" s="88"/>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A66" s="250"/>
+      <c r="B66" s="254"/>
       <c r="C66" s="1" t="s">
         <v>16</v>
       </c>
@@ -3802,78 +3895,94 @@
       <c r="E66" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F66" s="94"/>
-      <c r="G66" s="94"/>
-      <c r="H66" s="94"/>
-      <c r="I66" s="236">
+      <c r="F66" s="77"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="77"/>
+      <c r="I66" s="213">
         <v>85.27</v>
       </c>
-      <c r="J66" s="140">
+      <c r="J66" s="122">
         <v>86.561999999999998</v>
       </c>
-      <c r="K66" s="190">
+      <c r="K66" s="168">
         <v>13.292999999999999</v>
       </c>
       <c r="L66" s="44">
         <v>13.347</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A67" s="195"/>
-      <c r="B67" s="88"/>
-      <c r="C67" s="87" t="s">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A67" s="250"/>
+      <c r="B67" s="254"/>
+      <c r="C67" s="241" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="87" t="s">
+      <c r="D67" s="241" t="s">
         <v>15</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F67" s="94"/>
-      <c r="G67" s="94"/>
-      <c r="H67" s="94"/>
-      <c r="I67" s="214">
+      <c r="F67" s="77"/>
+      <c r="G67" s="77"/>
+      <c r="H67" s="77"/>
+      <c r="I67" s="191">
         <v>85.146000000000001</v>
       </c>
-      <c r="J67" s="130">
+      <c r="J67" s="112">
         <v>86.701999999999998</v>
       </c>
-      <c r="K67" s="210">
+      <c r="K67" s="187">
         <v>13.04</v>
       </c>
       <c r="L67" s="45">
         <v>13.307</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A68" s="195"/>
-      <c r="B68" s="88"/>
-      <c r="C68" s="87"/>
-      <c r="D68" s="87"/>
+      <c r="N67">
+        <f t="shared" ref="N67:Q67" si="3">(I67-I68)/I67</f>
+        <v>7.7513917271509712E-3</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="3"/>
+        <v>-3.9099444072800936E-3</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="3"/>
+        <v>-9.96932515337552E-4</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="3"/>
+        <v>-3.0059367250318738E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A68" s="250"/>
+      <c r="B68" s="254"/>
+      <c r="C68" s="241"/>
+      <c r="D68" s="241"/>
       <c r="E68" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="94"/>
-      <c r="G68" s="94"/>
-      <c r="H68" s="94"/>
-      <c r="I68" s="202">
+      <c r="F68" s="77"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="179">
         <v>84.486000000000004</v>
       </c>
-      <c r="J68" s="102">
+      <c r="J68" s="84">
         <v>87.040999999999997</v>
       </c>
-      <c r="K68" s="128">
+      <c r="K68" s="110">
         <v>13.053000000000001</v>
       </c>
       <c r="L68" s="44">
         <v>13.347</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A69" s="195"/>
-      <c r="B69" s="88"/>
-      <c r="C69" s="87" t="s">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A69" s="250"/>
+      <c r="B69" s="254"/>
+      <c r="C69" s="241" t="s">
         <v>18</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -3882,227 +3991,243 @@
       <c r="E69" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F69" s="94"/>
-      <c r="G69" s="94"/>
-      <c r="H69" s="94"/>
-      <c r="I69" s="236">
+      <c r="F69" s="77"/>
+      <c r="G69" s="77"/>
+      <c r="H69" s="77"/>
+      <c r="I69" s="213">
         <v>85.275000000000006</v>
       </c>
-      <c r="J69" s="121">
+      <c r="J69" s="103">
         <v>86.063999999999993</v>
       </c>
-      <c r="K69" s="237">
+      <c r="K69" s="214">
         <v>12.973000000000001</v>
       </c>
       <c r="L69" s="46">
         <v>13.106999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A70" s="195"/>
-      <c r="B70" s="88"/>
-      <c r="C70" s="87"/>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A70" s="250"/>
+      <c r="B70" s="254"/>
+      <c r="C70" s="241"/>
       <c r="D70" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F70" s="94"/>
-      <c r="G70" s="94"/>
-      <c r="H70" s="94"/>
-      <c r="I70" s="149">
+      <c r="F70" s="77"/>
+      <c r="G70" s="77"/>
+      <c r="H70" s="77"/>
+      <c r="I70" s="131">
         <v>85.524000000000001</v>
       </c>
-      <c r="J70" s="238">
+      <c r="J70" s="215">
         <v>86.754999999999995</v>
       </c>
-      <c r="K70" s="134">
+      <c r="K70" s="116">
         <v>13.013</v>
       </c>
       <c r="L70" s="47">
         <v>13.173</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A71" s="195"/>
-      <c r="B71" s="88"/>
-      <c r="C71" s="87"/>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A71" s="250"/>
+      <c r="B71" s="254"/>
+      <c r="C71" s="241"/>
       <c r="D71" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F71" s="94"/>
-      <c r="G71" s="94"/>
-      <c r="H71" s="94"/>
-      <c r="I71" s="100">
+      <c r="F71" s="77"/>
+      <c r="G71" s="77"/>
+      <c r="H71" s="77"/>
+      <c r="I71" s="82">
         <v>82.721999999999994</v>
       </c>
-      <c r="J71" s="128">
+      <c r="J71" s="110">
         <v>83.481999999999999</v>
       </c>
-      <c r="K71" s="94"/>
+      <c r="K71" s="77"/>
       <c r="L71" s="6"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A72" s="195"/>
-      <c r="B72" s="88"/>
-      <c r="C72" s="87"/>
-      <c r="D72" s="87" t="s">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A72" s="250"/>
+      <c r="B72" s="254"/>
+      <c r="C72" s="241"/>
+      <c r="D72" s="241" t="s">
         <v>15</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F72" s="94"/>
-      <c r="G72" s="94"/>
-      <c r="H72" s="94"/>
-      <c r="I72" s="239">
+      <c r="F72" s="77"/>
+      <c r="G72" s="77"/>
+      <c r="H72" s="77"/>
+      <c r="I72" s="216">
         <v>85.311999999999998</v>
       </c>
-      <c r="J72" s="100">
+      <c r="J72" s="82">
         <v>64.850999999999999</v>
       </c>
-      <c r="K72" s="117">
+      <c r="K72" s="99">
         <v>13</v>
       </c>
       <c r="L72" s="4">
         <v>8.173</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A73" s="195"/>
-      <c r="B73" s="88"/>
-      <c r="C73" s="87"/>
-      <c r="D73" s="87"/>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A73" s="250"/>
+      <c r="B73" s="254"/>
+      <c r="C73" s="241"/>
+      <c r="D73" s="241"/>
       <c r="E73" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F73" s="128">
+      <c r="F73" s="110">
         <v>55.820999999999998</v>
       </c>
-      <c r="G73" s="94"/>
-      <c r="H73" s="128">
+      <c r="G73" s="77"/>
+      <c r="H73" s="110">
         <v>55.83</v>
       </c>
-      <c r="I73" s="152">
+      <c r="I73" s="134">
         <v>88.153000000000006</v>
       </c>
-      <c r="J73" s="125">
+      <c r="J73" s="107">
         <v>89.885000000000005</v>
       </c>
-      <c r="K73" s="121">
+      <c r="K73" s="103">
         <v>13.72</v>
       </c>
       <c r="L73" s="30">
         <v>14.013</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A74" s="195"/>
-      <c r="B74" s="88"/>
-      <c r="C74" s="87"/>
-      <c r="D74" s="87"/>
+      <c r="N73">
+        <f t="shared" ref="N73:Q73" si="4">(I73-I74)/I73</f>
+        <v>1.6857055346953639E-2</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="4"/>
+        <v>2.3808199365856217E-3</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="4"/>
+        <v>4.5699708454810542E-2</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="4"/>
+        <v>3.9962891600656567E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A74" s="250"/>
+      <c r="B74" s="254"/>
+      <c r="C74" s="241"/>
+      <c r="D74" s="241"/>
       <c r="E74" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F74" s="94"/>
-      <c r="G74" s="94"/>
-      <c r="H74" s="94"/>
-      <c r="I74" s="97">
+      <c r="F74" s="77"/>
+      <c r="G74" s="77"/>
+      <c r="H74" s="77"/>
+      <c r="I74" s="80">
         <v>86.667000000000002</v>
       </c>
-      <c r="J74" s="216">
+      <c r="J74" s="193">
         <v>89.671000000000006</v>
       </c>
-      <c r="K74" s="240">
+      <c r="K74" s="217">
         <v>13.093</v>
       </c>
       <c r="L74" s="21">
         <v>13.452999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A75" s="195"/>
-      <c r="B75" s="88" t="s">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A75" s="250"/>
+      <c r="B75" s="254" t="s">
         <v>23</v>
       </c>
-      <c r="C75" s="87" t="s">
+      <c r="C75" s="241" t="s">
         <v>7</v>
       </c>
-      <c r="D75" s="87" t="s">
+      <c r="D75" s="241" t="s">
         <v>7</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F75" s="94"/>
-      <c r="G75" s="94"/>
-      <c r="H75" s="94"/>
-      <c r="I75" s="94"/>
-      <c r="J75" s="127">
+      <c r="F75" s="77"/>
+      <c r="G75" s="77"/>
+      <c r="H75" s="77"/>
+      <c r="I75" s="77"/>
+      <c r="J75" s="109">
         <v>83.207999999999998</v>
       </c>
-      <c r="K75" s="94"/>
+      <c r="K75" s="77"/>
       <c r="L75" s="6"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A76" s="195"/>
-      <c r="B76" s="88"/>
-      <c r="C76" s="87"/>
-      <c r="D76" s="87"/>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A76" s="250"/>
+      <c r="B76" s="254"/>
+      <c r="C76" s="241"/>
+      <c r="D76" s="241"/>
       <c r="E76" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F76" s="118">
+      <c r="F76" s="100">
         <v>56.204000000000001</v>
       </c>
-      <c r="G76" s="94"/>
-      <c r="H76" s="109">
+      <c r="G76" s="77"/>
+      <c r="H76" s="91">
         <v>56.709000000000003</v>
       </c>
-      <c r="I76" s="228">
+      <c r="I76" s="205">
         <v>85.108999999999995</v>
       </c>
-      <c r="J76" s="241">
+      <c r="J76" s="218">
         <v>87.625</v>
       </c>
-      <c r="K76" s="242">
+      <c r="K76" s="219">
         <v>13.32</v>
       </c>
       <c r="L76" s="35">
         <v>13.532999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A77" s="195"/>
-      <c r="B77" s="88"/>
-      <c r="C77" s="87"/>
-      <c r="D77" s="87"/>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A77" s="250"/>
+      <c r="B77" s="254"/>
+      <c r="C77" s="241"/>
+      <c r="D77" s="241"/>
       <c r="E77" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F77" s="94"/>
-      <c r="G77" s="94"/>
-      <c r="H77" s="94"/>
-      <c r="I77" s="243">
+      <c r="F77" s="77"/>
+      <c r="G77" s="77"/>
+      <c r="H77" s="77"/>
+      <c r="I77" s="220">
         <v>86.009</v>
       </c>
-      <c r="J77" s="178">
+      <c r="J77" s="160">
         <v>88.491</v>
       </c>
-      <c r="K77" s="201">
+      <c r="K77" s="178">
         <v>13.76</v>
       </c>
       <c r="L77" s="48">
         <v>14.28</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A78" s="195"/>
-      <c r="B78" s="88"/>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A78" s="250"/>
+      <c r="B78" s="254"/>
       <c r="C78" s="1" t="s">
         <v>12</v>
       </c>
@@ -4112,25 +4237,25 @@
       <c r="E78" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F78" s="94"/>
-      <c r="G78" s="94"/>
-      <c r="H78" s="94"/>
-      <c r="I78" s="159">
+      <c r="F78" s="77"/>
+      <c r="G78" s="77"/>
+      <c r="H78" s="77"/>
+      <c r="I78" s="141">
         <v>84.722999999999999</v>
       </c>
-      <c r="J78" s="170">
+      <c r="J78" s="152">
         <v>85.762</v>
       </c>
-      <c r="K78" s="240">
+      <c r="K78" s="217">
         <v>13.093</v>
       </c>
       <c r="L78" s="49">
         <v>13.266999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A79" s="195"/>
-      <c r="B79" s="88"/>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A79" s="250"/>
+      <c r="B79" s="254"/>
       <c r="C79" s="1" t="s">
         <v>16</v>
       </c>
@@ -4140,78 +4265,78 @@
       <c r="E79" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F79" s="94"/>
-      <c r="G79" s="94"/>
-      <c r="H79" s="94"/>
-      <c r="I79" s="214">
+      <c r="F79" s="77"/>
+      <c r="G79" s="77"/>
+      <c r="H79" s="77"/>
+      <c r="I79" s="191">
         <v>85.144000000000005</v>
       </c>
-      <c r="J79" s="232">
+      <c r="J79" s="209">
         <v>85.658000000000001</v>
       </c>
-      <c r="K79" s="127">
+      <c r="K79" s="109">
         <v>12.987</v>
       </c>
       <c r="L79" s="28">
         <v>13.026999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A80" s="195"/>
-      <c r="B80" s="88"/>
-      <c r="C80" s="87" t="s">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A80" s="250"/>
+      <c r="B80" s="254"/>
+      <c r="C80" s="241" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="87" t="s">
+      <c r="D80" s="241" t="s">
         <v>15</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F80" s="94"/>
-      <c r="G80" s="94"/>
-      <c r="H80" s="94"/>
-      <c r="I80" s="122">
+      <c r="F80" s="77"/>
+      <c r="G80" s="77"/>
+      <c r="H80" s="77"/>
+      <c r="I80" s="104">
         <v>83.974999999999994</v>
       </c>
-      <c r="J80" s="149">
+      <c r="J80" s="131">
         <v>85.506</v>
       </c>
-      <c r="K80" s="100">
+      <c r="K80" s="82">
         <v>12.853</v>
       </c>
       <c r="L80" s="50">
         <v>13.053000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A81" s="195"/>
-      <c r="B81" s="88"/>
-      <c r="C81" s="87"/>
-      <c r="D81" s="87"/>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A81" s="250"/>
+      <c r="B81" s="254"/>
+      <c r="C81" s="241"/>
+      <c r="D81" s="241"/>
       <c r="E81" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F81" s="94"/>
-      <c r="G81" s="94"/>
-      <c r="H81" s="94"/>
-      <c r="I81" s="159">
+      <c r="F81" s="77"/>
+      <c r="G81" s="77"/>
+      <c r="H81" s="77"/>
+      <c r="I81" s="141">
         <v>84.727000000000004</v>
       </c>
-      <c r="J81" s="140">
+      <c r="J81" s="122">
         <v>86.563000000000002</v>
       </c>
-      <c r="K81" s="122">
+      <c r="K81" s="104">
         <v>13.186999999999999</v>
       </c>
       <c r="L81" s="51">
         <v>13.547000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A82" s="195"/>
-      <c r="B82" s="88"/>
-      <c r="C82" s="87" t="s">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A82" s="250"/>
+      <c r="B82" s="254"/>
+      <c r="C82" s="241" t="s">
         <v>18</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -4220,197 +4345,213 @@
       <c r="E82" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F82" s="94"/>
-      <c r="G82" s="94"/>
-      <c r="H82" s="94"/>
-      <c r="I82" s="161">
+      <c r="F82" s="77"/>
+      <c r="G82" s="77"/>
+      <c r="H82" s="77"/>
+      <c r="I82" s="143">
         <v>84.968999999999994</v>
       </c>
-      <c r="J82" s="202">
+      <c r="J82" s="179">
         <v>84.481999999999999</v>
       </c>
-      <c r="K82" s="100">
+      <c r="K82" s="82">
         <v>12.8</v>
       </c>
       <c r="L82" s="25">
         <v>12.946999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A83" s="195"/>
-      <c r="B83" s="88"/>
-      <c r="C83" s="87"/>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A83" s="250"/>
+      <c r="B83" s="254"/>
+      <c r="C83" s="241"/>
       <c r="D83" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F83" s="94"/>
-      <c r="G83" s="94"/>
-      <c r="H83" s="94"/>
-      <c r="I83" s="214">
+      <c r="F83" s="77"/>
+      <c r="G83" s="77"/>
+      <c r="H83" s="77"/>
+      <c r="I83" s="191">
         <v>85.135000000000005</v>
       </c>
-      <c r="J83" s="234">
+      <c r="J83" s="211">
         <v>86.03</v>
       </c>
-      <c r="K83" s="100">
+      <c r="K83" s="82">
         <v>12.88</v>
       </c>
       <c r="L83" s="52">
         <v>12.987</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A84" s="195"/>
-      <c r="B84" s="88"/>
-      <c r="C84" s="87"/>
-      <c r="D84" s="87" t="s">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A84" s="250"/>
+      <c r="B84" s="254"/>
+      <c r="C84" s="241"/>
+      <c r="D84" s="241" t="s">
         <v>15</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F84" s="94"/>
-      <c r="G84" s="94"/>
-      <c r="H84" s="94"/>
-      <c r="I84" s="203">
+      <c r="F84" s="77"/>
+      <c r="G84" s="77"/>
+      <c r="H84" s="77"/>
+      <c r="I84" s="180">
         <v>84.378</v>
       </c>
-      <c r="J84" s="100">
+      <c r="J84" s="82">
         <v>64.078999999999994</v>
       </c>
-      <c r="K84" s="94"/>
+      <c r="K84" s="77"/>
       <c r="L84" s="6"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A85" s="195"/>
-      <c r="B85" s="88"/>
-      <c r="C85" s="87"/>
-      <c r="D85" s="87"/>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A85" s="250"/>
+      <c r="B85" s="254"/>
+      <c r="C85" s="241"/>
+      <c r="D85" s="241"/>
       <c r="E85" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F85" s="94"/>
-      <c r="G85" s="94"/>
-      <c r="H85" s="94"/>
-      <c r="I85" s="200">
+      <c r="F85" s="77"/>
+      <c r="G85" s="77"/>
+      <c r="H85" s="77"/>
+      <c r="I85" s="177">
         <v>87.111000000000004</v>
       </c>
-      <c r="J85" s="176">
+      <c r="J85" s="158">
         <v>88.667000000000002</v>
       </c>
-      <c r="K85" s="182">
+      <c r="K85" s="164">
         <v>13.493</v>
       </c>
       <c r="L85" s="53">
         <v>13.653</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A86" s="195"/>
-      <c r="B86" s="88"/>
-      <c r="C86" s="87"/>
-      <c r="D86" s="87"/>
+      <c r="N85">
+        <f t="shared" ref="N85:Q85" si="5">(I85-I86)/I85</f>
+        <v>-2.9502588651259976E-3</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="5"/>
+        <v>-9.0901913902579016E-3</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="5"/>
+        <v>-1.0375750389090155E-3</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="5"/>
+        <v>-1.1719036109280021E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A86" s="250"/>
+      <c r="B86" s="254"/>
+      <c r="C86" s="241"/>
+      <c r="D86" s="241"/>
       <c r="E86" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F86" s="94"/>
-      <c r="G86" s="94"/>
-      <c r="H86" s="94"/>
-      <c r="I86" s="235">
+      <c r="F86" s="77"/>
+      <c r="G86" s="77"/>
+      <c r="H86" s="77"/>
+      <c r="I86" s="212">
         <v>87.367999999999995</v>
       </c>
-      <c r="J86" s="244">
+      <c r="J86" s="221">
         <v>89.472999999999999</v>
       </c>
-      <c r="K86" s="236">
+      <c r="K86" s="213">
         <v>13.507</v>
       </c>
       <c r="L86" s="54">
         <v>13.813000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A87" s="195"/>
-      <c r="B87" s="88" t="s">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A87" s="250"/>
+      <c r="B87" s="254" t="s">
         <v>24</v>
       </c>
-      <c r="C87" s="87" t="s">
+      <c r="C87" s="241" t="s">
         <v>7</v>
       </c>
-      <c r="D87" s="87" t="s">
+      <c r="D87" s="241" t="s">
         <v>7</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F87" s="94"/>
-      <c r="G87" s="94"/>
-      <c r="H87" s="94"/>
-      <c r="I87" s="94"/>
-      <c r="J87" s="118">
+      <c r="F87" s="77"/>
+      <c r="G87" s="77"/>
+      <c r="H87" s="77"/>
+      <c r="I87" s="77"/>
+      <c r="J87" s="100">
         <v>83.736000000000004</v>
       </c>
-      <c r="K87" s="94"/>
+      <c r="K87" s="77"/>
       <c r="L87" s="6"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A88" s="195"/>
-      <c r="B88" s="88"/>
-      <c r="C88" s="87"/>
-      <c r="D88" s="87"/>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A88" s="250"/>
+      <c r="B88" s="254"/>
+      <c r="C88" s="241"/>
+      <c r="D88" s="241"/>
       <c r="E88" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F88" s="242">
+      <c r="F88" s="219">
         <v>57.36</v>
       </c>
-      <c r="G88" s="94"/>
-      <c r="H88" s="208">
+      <c r="G88" s="77"/>
+      <c r="H88" s="185">
         <v>57.673999999999999</v>
       </c>
-      <c r="I88" s="202">
+      <c r="I88" s="179">
         <v>84.495000000000005</v>
       </c>
-      <c r="J88" s="98">
+      <c r="J88" s="81">
         <v>87.262</v>
       </c>
-      <c r="K88" s="245">
+      <c r="K88" s="222">
         <v>13.36</v>
       </c>
       <c r="L88" s="53">
         <v>13.653</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A89" s="195"/>
-      <c r="B89" s="88"/>
-      <c r="C89" s="87"/>
-      <c r="D89" s="87"/>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A89" s="250"/>
+      <c r="B89" s="254"/>
+      <c r="C89" s="241"/>
+      <c r="D89" s="241"/>
       <c r="E89" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F89" s="94"/>
-      <c r="G89" s="94"/>
-      <c r="H89" s="94"/>
-      <c r="I89" s="121">
+      <c r="F89" s="77"/>
+      <c r="G89" s="77"/>
+      <c r="H89" s="77"/>
+      <c r="I89" s="103">
         <v>86.103999999999999</v>
       </c>
-      <c r="J89" s="246">
+      <c r="J89" s="223">
         <v>89.006</v>
       </c>
-      <c r="K89" s="247">
+      <c r="K89" s="224">
         <v>13.747</v>
       </c>
       <c r="L89" s="55">
         <v>14.307</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A90" s="195"/>
-      <c r="B90" s="88"/>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A90" s="250"/>
+      <c r="B90" s="254"/>
       <c r="C90" s="1" t="s">
         <v>12</v>
       </c>
@@ -4420,25 +4561,25 @@
       <c r="E90" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F90" s="94"/>
-      <c r="G90" s="94"/>
-      <c r="H90" s="94"/>
-      <c r="I90" s="248">
+      <c r="F90" s="77"/>
+      <c r="G90" s="77"/>
+      <c r="H90" s="77"/>
+      <c r="I90" s="225">
         <v>84.337999999999994</v>
       </c>
-      <c r="J90" s="150">
+      <c r="J90" s="132">
         <v>85.055000000000007</v>
       </c>
-      <c r="K90" s="151">
+      <c r="K90" s="133">
         <v>12.933</v>
       </c>
       <c r="L90" s="56">
         <v>13.12</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A91" s="195"/>
-      <c r="B91" s="88"/>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A91" s="250"/>
+      <c r="B91" s="254"/>
       <c r="C91" s="1" t="s">
         <v>16</v>
       </c>
@@ -4448,78 +4589,78 @@
       <c r="E91" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F91" s="94"/>
-      <c r="G91" s="94"/>
-      <c r="H91" s="94"/>
-      <c r="I91" s="231">
+      <c r="F91" s="77"/>
+      <c r="G91" s="77"/>
+      <c r="H91" s="77"/>
+      <c r="I91" s="208">
         <v>84.173000000000002</v>
       </c>
-      <c r="J91" s="170">
+      <c r="J91" s="152">
         <v>85.763000000000005</v>
       </c>
-      <c r="K91" s="100">
+      <c r="K91" s="82">
         <v>12.84</v>
       </c>
       <c r="L91" s="28">
         <v>13.026999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A92" s="195"/>
-      <c r="B92" s="88"/>
-      <c r="C92" s="87" t="s">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A92" s="250"/>
+      <c r="B92" s="254"/>
+      <c r="C92" s="241" t="s">
         <v>17</v>
       </c>
-      <c r="D92" s="87" t="s">
+      <c r="D92" s="241" t="s">
         <v>15</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F92" s="94"/>
-      <c r="G92" s="94"/>
-      <c r="H92" s="94"/>
-      <c r="I92" s="207">
+      <c r="F92" s="77"/>
+      <c r="G92" s="77"/>
+      <c r="H92" s="77"/>
+      <c r="I92" s="184">
         <v>83.954999999999998</v>
       </c>
-      <c r="J92" s="236">
+      <c r="J92" s="213">
         <v>85.254000000000005</v>
       </c>
-      <c r="K92" s="100">
+      <c r="K92" s="82">
         <v>12.8</v>
       </c>
       <c r="L92" s="57">
         <v>13.093</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A93" s="195"/>
-      <c r="B93" s="88"/>
-      <c r="C93" s="87"/>
-      <c r="D93" s="87"/>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A93" s="250"/>
+      <c r="B93" s="254"/>
+      <c r="C93" s="241"/>
+      <c r="D93" s="241"/>
       <c r="E93" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F93" s="94"/>
-      <c r="G93" s="94"/>
-      <c r="H93" s="94"/>
-      <c r="I93" s="249">
+      <c r="F93" s="77"/>
+      <c r="G93" s="77"/>
+      <c r="H93" s="77"/>
+      <c r="I93" s="226">
         <v>85.563000000000002</v>
       </c>
-      <c r="J93" s="201">
+      <c r="J93" s="178">
         <v>86.283000000000001</v>
       </c>
-      <c r="K93" s="242">
+      <c r="K93" s="219">
         <v>13.32</v>
       </c>
       <c r="L93" s="35">
         <v>13.532999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A94" s="195"/>
-      <c r="B94" s="88"/>
-      <c r="C94" s="87" t="s">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A94" s="250"/>
+      <c r="B94" s="254"/>
+      <c r="C94" s="241" t="s">
         <v>18</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -4528,179 +4669,195 @@
       <c r="E94" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F94" s="94"/>
-      <c r="G94" s="94"/>
-      <c r="H94" s="94"/>
-      <c r="I94" s="204">
+      <c r="F94" s="77"/>
+      <c r="G94" s="77"/>
+      <c r="H94" s="77"/>
+      <c r="I94" s="181">
         <v>83.799000000000007</v>
       </c>
-      <c r="J94" s="190">
+      <c r="J94" s="168">
         <v>84.438000000000002</v>
       </c>
-      <c r="K94" s="100">
+      <c r="K94" s="82">
         <v>12.773</v>
       </c>
       <c r="L94" s="25">
         <v>12.933</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A95" s="195"/>
-      <c r="B95" s="88"/>
-      <c r="C95" s="87"/>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A95" s="250"/>
+      <c r="B95" s="254"/>
+      <c r="C95" s="241"/>
       <c r="D95" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F95" s="94"/>
-      <c r="G95" s="94"/>
-      <c r="H95" s="94"/>
-      <c r="I95" s="203">
+      <c r="F95" s="77"/>
+      <c r="G95" s="77"/>
+      <c r="H95" s="77"/>
+      <c r="I95" s="180">
         <v>84.382999999999996</v>
       </c>
-      <c r="J95" s="135">
+      <c r="J95" s="117">
         <v>85.573999999999998</v>
       </c>
-      <c r="K95" s="94"/>
+      <c r="K95" s="77"/>
       <c r="L95" s="6"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A96" s="195"/>
-      <c r="B96" s="88"/>
-      <c r="C96" s="87"/>
-      <c r="D96" s="87" t="s">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A96" s="250"/>
+      <c r="B96" s="254"/>
+      <c r="C96" s="241"/>
+      <c r="D96" s="241" t="s">
         <v>15</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F96" s="94"/>
-      <c r="G96" s="94"/>
-      <c r="H96" s="94"/>
-      <c r="I96" s="231">
+      <c r="F96" s="77"/>
+      <c r="G96" s="77"/>
+      <c r="H96" s="77"/>
+      <c r="I96" s="208">
         <v>84.156000000000006</v>
       </c>
-      <c r="J96" s="100">
+      <c r="J96" s="82">
         <v>60.356000000000002</v>
       </c>
-      <c r="K96" s="94"/>
+      <c r="K96" s="77"/>
       <c r="L96" s="6"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A97" s="195"/>
-      <c r="B97" s="88"/>
-      <c r="C97" s="87"/>
-      <c r="D97" s="87"/>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A97" s="250"/>
+      <c r="B97" s="254"/>
+      <c r="C97" s="241"/>
+      <c r="D97" s="241"/>
       <c r="E97" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F97" s="151">
+      <c r="F97" s="133">
         <v>55.113999999999997</v>
       </c>
-      <c r="G97" s="94"/>
-      <c r="H97" s="127">
+      <c r="G97" s="77"/>
+      <c r="H97" s="109">
         <v>55.402999999999999</v>
       </c>
-      <c r="I97" s="222">
+      <c r="I97" s="199">
         <v>86.843999999999994</v>
       </c>
-      <c r="J97" s="152">
+      <c r="J97" s="134">
         <v>88.153000000000006</v>
       </c>
-      <c r="K97" s="214">
+      <c r="K97" s="191">
         <v>13.48</v>
       </c>
       <c r="L97" s="58">
         <v>13.627000000000001</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A98" s="195"/>
-      <c r="B98" s="88"/>
-      <c r="C98" s="87"/>
-      <c r="D98" s="87"/>
+      <c r="N97">
+        <f t="shared" ref="N97:Q97" si="6">(I97-I98)/I97</f>
+        <v>-1.3334254525355825E-2</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="6"/>
+        <v>-1.5665944437512055E-2</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="6"/>
+        <v>-1.9807121661721029E-2</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="6"/>
+        <v>-3.0307477801423531E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A98" s="250"/>
+      <c r="B98" s="254"/>
+      <c r="C98" s="241"/>
+      <c r="D98" s="241"/>
       <c r="E98" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F98" s="94"/>
-      <c r="G98" s="94"/>
-      <c r="H98" s="94"/>
-      <c r="I98" s="250">
+      <c r="F98" s="77"/>
+      <c r="G98" s="77"/>
+      <c r="H98" s="77"/>
+      <c r="I98" s="227">
         <v>88.001999999999995</v>
       </c>
-      <c r="J98" s="251">
+      <c r="J98" s="228">
         <v>89.534000000000006</v>
       </c>
-      <c r="K98" s="247">
+      <c r="K98" s="224">
         <v>13.747</v>
       </c>
       <c r="L98" s="31">
         <v>14.04</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A99" s="195"/>
-      <c r="B99" s="91" t="s">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A99" s="250"/>
+      <c r="B99" s="243" t="s">
         <v>25</v>
       </c>
-      <c r="C99" s="87" t="s">
+      <c r="C99" s="241" t="s">
         <v>7</v>
       </c>
-      <c r="D99" s="87" t="s">
+      <c r="D99" s="241" t="s">
         <v>7</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F99" s="223">
+      <c r="F99" s="200">
         <v>57.472999999999999</v>
       </c>
-      <c r="G99" s="94"/>
-      <c r="H99" s="248">
+      <c r="G99" s="77"/>
+      <c r="H99" s="225">
         <v>57.067999999999998</v>
       </c>
-      <c r="I99" s="139">
+      <c r="I99" s="121">
         <v>84.298000000000002</v>
       </c>
-      <c r="J99" s="170">
+      <c r="J99" s="152">
         <v>85.768000000000001</v>
       </c>
-      <c r="K99" s="242">
+      <c r="K99" s="219">
         <v>13.32</v>
       </c>
       <c r="L99" s="59">
         <v>13.36</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A100" s="195"/>
-      <c r="B100" s="92"/>
-      <c r="C100" s="87"/>
-      <c r="D100" s="87"/>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A100" s="250"/>
+      <c r="B100" s="244"/>
+      <c r="C100" s="241"/>
+      <c r="D100" s="241"/>
       <c r="E100" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F100" s="94"/>
-      <c r="G100" s="94"/>
-      <c r="H100" s="94"/>
-      <c r="I100" s="121">
+      <c r="F100" s="77"/>
+      <c r="G100" s="77"/>
+      <c r="H100" s="77"/>
+      <c r="I100" s="103">
         <v>86.061999999999998</v>
       </c>
-      <c r="J100" s="252">
+      <c r="J100" s="229">
         <v>88.042000000000002</v>
       </c>
-      <c r="K100" s="197">
+      <c r="K100" s="174">
         <v>13.613</v>
       </c>
       <c r="L100" s="18">
         <v>14.067</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A101" s="195"/>
-      <c r="B101" s="92"/>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A101" s="250"/>
+      <c r="B101" s="244"/>
       <c r="C101" s="1" t="s">
         <v>12</v>
       </c>
@@ -4710,21 +4867,21 @@
       <c r="E101" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F101" s="94"/>
-      <c r="G101" s="94"/>
-      <c r="H101" s="94"/>
-      <c r="I101" s="100">
+      <c r="F101" s="77"/>
+      <c r="G101" s="77"/>
+      <c r="H101" s="77"/>
+      <c r="I101" s="82">
         <v>82.787999999999997</v>
       </c>
-      <c r="J101" s="139">
+      <c r="J101" s="121">
         <v>84.272999999999996</v>
       </c>
-      <c r="K101" s="94"/>
+      <c r="K101" s="77"/>
       <c r="L101" s="6"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A102" s="195"/>
-      <c r="B102" s="92"/>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A102" s="250"/>
+      <c r="B102" s="244"/>
       <c r="C102" s="1" t="s">
         <v>16</v>
       </c>
@@ -4734,70 +4891,70 @@
       <c r="E102" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F102" s="94"/>
-      <c r="G102" s="94"/>
-      <c r="H102" s="94"/>
-      <c r="I102" s="122">
+      <c r="F102" s="77"/>
+      <c r="G102" s="77"/>
+      <c r="H102" s="77"/>
+      <c r="I102" s="104">
         <v>84.009</v>
       </c>
-      <c r="J102" s="159">
+      <c r="J102" s="141">
         <v>84.728999999999999</v>
       </c>
-      <c r="K102" s="94"/>
+      <c r="K102" s="77"/>
       <c r="L102" s="6"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A103" s="195"/>
-      <c r="B103" s="92"/>
-      <c r="C103" s="87" t="s">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A103" s="250"/>
+      <c r="B103" s="244"/>
+      <c r="C103" s="241" t="s">
         <v>17</v>
       </c>
-      <c r="D103" s="87" t="s">
+      <c r="D103" s="241" t="s">
         <v>15</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F103" s="94"/>
-      <c r="G103" s="94"/>
-      <c r="H103" s="94"/>
-      <c r="I103" s="210">
+      <c r="F103" s="77"/>
+      <c r="G103" s="77"/>
+      <c r="H103" s="77"/>
+      <c r="I103" s="187">
         <v>83.406000000000006</v>
       </c>
-      <c r="J103" s="231">
+      <c r="J103" s="208">
         <v>84.164000000000001</v>
       </c>
-      <c r="K103" s="94"/>
+      <c r="K103" s="77"/>
       <c r="L103" s="6"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A104" s="195"/>
-      <c r="B104" s="92"/>
-      <c r="C104" s="87"/>
-      <c r="D104" s="87"/>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A104" s="250"/>
+      <c r="B104" s="244"/>
+      <c r="C104" s="241"/>
+      <c r="D104" s="241"/>
       <c r="E104" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F104" s="94"/>
-      <c r="G104" s="94"/>
-      <c r="H104" s="94"/>
-      <c r="I104" s="253">
+      <c r="F104" s="77"/>
+      <c r="G104" s="77"/>
+      <c r="H104" s="77"/>
+      <c r="I104" s="230">
         <v>84.816999999999993</v>
       </c>
-      <c r="J104" s="201">
+      <c r="J104" s="178">
         <v>86.29</v>
       </c>
-      <c r="K104" s="109">
+      <c r="K104" s="91">
         <v>13.212999999999999</v>
       </c>
       <c r="L104" s="60">
         <v>13.387</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A105" s="195"/>
-      <c r="B105" s="92"/>
-      <c r="C105" s="87" t="s">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A105" s="250"/>
+      <c r="B105" s="244"/>
+      <c r="C105" s="241" t="s">
         <v>18</v>
       </c>
       <c r="D105" s="1" t="s">
@@ -4806,175 +4963,191 @@
       <c r="E105" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F105" s="94"/>
-      <c r="G105" s="94"/>
-      <c r="H105" s="94"/>
-      <c r="I105" s="100">
+      <c r="F105" s="77"/>
+      <c r="G105" s="77"/>
+      <c r="H105" s="77"/>
+      <c r="I105" s="82">
         <v>82.341999999999999</v>
       </c>
-      <c r="J105" s="207">
+      <c r="J105" s="184">
         <v>83.924999999999997</v>
       </c>
-      <c r="K105" s="94"/>
+      <c r="K105" s="77"/>
       <c r="L105" s="6"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A106" s="195"/>
-      <c r="B106" s="92"/>
-      <c r="C106" s="87"/>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A106" s="250"/>
+      <c r="B106" s="244"/>
+      <c r="C106" s="241"/>
       <c r="D106" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F106" s="94"/>
-      <c r="G106" s="94"/>
-      <c r="H106" s="94"/>
-      <c r="I106" s="128">
+      <c r="F106" s="77"/>
+      <c r="G106" s="77"/>
+      <c r="H106" s="77"/>
+      <c r="I106" s="110">
         <v>83.47</v>
       </c>
-      <c r="J106" s="138">
+      <c r="J106" s="120">
         <v>85.843999999999994</v>
       </c>
-      <c r="K106" s="94"/>
+      <c r="K106" s="77"/>
       <c r="L106" s="6"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A107" s="195"/>
-      <c r="B107" s="92"/>
-      <c r="C107" s="87"/>
-      <c r="D107" s="87" t="s">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A107" s="250"/>
+      <c r="B107" s="244"/>
+      <c r="C107" s="241"/>
+      <c r="D107" s="241" t="s">
         <v>15</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F107" s="94"/>
-      <c r="G107" s="94"/>
-      <c r="H107" s="94"/>
-      <c r="I107" s="210">
+      <c r="F107" s="77"/>
+      <c r="G107" s="77"/>
+      <c r="H107" s="77"/>
+      <c r="I107" s="187">
         <v>83.417000000000002</v>
       </c>
-      <c r="J107" s="100">
+      <c r="J107" s="82">
         <v>58.128</v>
       </c>
-      <c r="K107" s="94"/>
+      <c r="K107" s="77"/>
       <c r="L107" s="6"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A108" s="195"/>
-      <c r="B108" s="92"/>
-      <c r="C108" s="87"/>
-      <c r="D108" s="87"/>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A108" s="250"/>
+      <c r="B108" s="244"/>
+      <c r="C108" s="241"/>
+      <c r="D108" s="241"/>
       <c r="E108" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F108" s="163">
+      <c r="F108" s="145">
         <v>55.57</v>
       </c>
-      <c r="G108" s="94"/>
-      <c r="H108" s="117">
+      <c r="G108" s="77"/>
+      <c r="H108" s="99">
         <v>55.488999999999997</v>
       </c>
-      <c r="I108" s="138">
+      <c r="I108" s="120">
         <v>85.852000000000004</v>
       </c>
-      <c r="J108" s="119">
+      <c r="J108" s="101">
         <v>87.162999999999997</v>
       </c>
-      <c r="K108" s="208">
+      <c r="K108" s="185">
         <v>13.387</v>
       </c>
       <c r="L108" s="61">
         <v>13.52</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A109" s="195"/>
-      <c r="B109" s="93"/>
-      <c r="C109" s="87"/>
-      <c r="D109" s="87"/>
+      <c r="N108">
+        <f t="shared" ref="N108:Q108" si="7">(I108-I109)/I108</f>
+        <v>-1.4140614080044711E-2</v>
+      </c>
+      <c r="O108">
+        <f t="shared" si="7"/>
+        <v>-2.1385220793226533E-2</v>
+      </c>
+      <c r="P108">
+        <f t="shared" si="7"/>
+        <v>-6.9470381713602723E-3</v>
+      </c>
+      <c r="Q108">
+        <f t="shared" si="7"/>
+        <v>-4.0458579881656853E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A109" s="250"/>
+      <c r="B109" s="245"/>
+      <c r="C109" s="241"/>
+      <c r="D109" s="241"/>
       <c r="E109" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F109" s="94"/>
-      <c r="G109" s="94"/>
-      <c r="H109" s="94"/>
-      <c r="I109" s="102">
+      <c r="F109" s="77"/>
+      <c r="G109" s="77"/>
+      <c r="H109" s="77"/>
+      <c r="I109" s="84">
         <v>87.066000000000003</v>
       </c>
-      <c r="J109" s="246">
+      <c r="J109" s="223">
         <v>89.027000000000001</v>
       </c>
-      <c r="K109" s="214">
+      <c r="K109" s="191">
         <v>13.48</v>
       </c>
       <c r="L109" s="18">
         <v>14.067</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A110" s="195"/>
-      <c r="B110" s="88" t="s">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A110" s="250"/>
+      <c r="B110" s="254" t="s">
         <v>26</v>
       </c>
-      <c r="C110" s="87" t="s">
+      <c r="C110" s="241" t="s">
         <v>7</v>
       </c>
-      <c r="D110" s="87" t="s">
+      <c r="D110" s="241" t="s">
         <v>7</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F110" s="248">
+      <c r="F110" s="225">
         <v>57.033000000000001</v>
       </c>
-      <c r="G110" s="94"/>
-      <c r="H110" s="254">
+      <c r="G110" s="77"/>
+      <c r="H110" s="231">
         <v>57.399000000000001</v>
       </c>
-      <c r="I110" s="237">
+      <c r="I110" s="214">
         <v>83.177000000000007</v>
       </c>
-      <c r="J110" s="123">
+      <c r="J110" s="105">
         <v>83.680999999999997</v>
       </c>
-      <c r="K110" s="206">
+      <c r="K110" s="183">
         <v>13.147</v>
       </c>
       <c r="L110" s="36">
         <v>13.186999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A111" s="195"/>
-      <c r="B111" s="88"/>
-      <c r="C111" s="87"/>
-      <c r="D111" s="87"/>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A111" s="250"/>
+      <c r="B111" s="254"/>
+      <c r="C111" s="241"/>
+      <c r="D111" s="241"/>
       <c r="E111" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F111" s="94"/>
-      <c r="G111" s="94"/>
-      <c r="H111" s="94"/>
-      <c r="I111" s="171">
+      <c r="F111" s="77"/>
+      <c r="G111" s="77"/>
+      <c r="H111" s="77"/>
+      <c r="I111" s="153">
         <v>85.370999999999995</v>
       </c>
-      <c r="J111" s="238">
+      <c r="J111" s="215">
         <v>86.79</v>
       </c>
-      <c r="K111" s="126">
+      <c r="K111" s="108">
         <v>13.667</v>
       </c>
       <c r="L111" s="62">
         <v>13.84</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A112" s="195"/>
-      <c r="B112" s="88"/>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A112" s="250"/>
+      <c r="B112" s="254"/>
       <c r="C112" s="1" t="s">
         <v>12</v>
       </c>
@@ -4984,25 +5157,25 @@
       <c r="E112" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F112" s="94"/>
-      <c r="G112" s="94"/>
-      <c r="H112" s="94"/>
-      <c r="I112" s="100">
+      <c r="F112" s="77"/>
+      <c r="G112" s="77"/>
+      <c r="H112" s="77"/>
+      <c r="I112" s="82">
         <v>82.090999999999994</v>
       </c>
-      <c r="J112" s="122">
+      <c r="J112" s="104">
         <v>83.972999999999999</v>
       </c>
-      <c r="K112" s="100">
+      <c r="K112" s="82">
         <v>12.707000000000001</v>
       </c>
       <c r="L112" s="38">
         <v>13.013</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A113" s="195"/>
-      <c r="B113" s="88"/>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A113" s="250"/>
+      <c r="B113" s="254"/>
       <c r="C113" s="1" t="s">
         <v>16</v>
       </c>
@@ -5012,70 +5185,70 @@
       <c r="E113" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F113" s="94"/>
-      <c r="G113" s="94"/>
-      <c r="H113" s="94"/>
-      <c r="I113" s="210">
+      <c r="F113" s="77"/>
+      <c r="G113" s="77"/>
+      <c r="H113" s="77"/>
+      <c r="I113" s="187">
         <v>83.393000000000001</v>
       </c>
-      <c r="J113" s="254">
+      <c r="J113" s="231">
         <v>84.569000000000003</v>
       </c>
-      <c r="K113" s="94"/>
+      <c r="K113" s="77"/>
       <c r="L113" s="6"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A114" s="195"/>
-      <c r="B114" s="88"/>
-      <c r="C114" s="87" t="s">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A114" s="250"/>
+      <c r="B114" s="254"/>
+      <c r="C114" s="241" t="s">
         <v>17</v>
       </c>
-      <c r="D114" s="87" t="s">
+      <c r="D114" s="241" t="s">
         <v>15</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F114" s="94"/>
-      <c r="G114" s="94"/>
-      <c r="H114" s="94"/>
-      <c r="I114" s="205">
+      <c r="F114" s="77"/>
+      <c r="G114" s="77"/>
+      <c r="H114" s="77"/>
+      <c r="I114" s="182">
         <v>83.61</v>
       </c>
-      <c r="J114" s="207">
+      <c r="J114" s="184">
         <v>83.923000000000002</v>
       </c>
-      <c r="K114" s="94"/>
+      <c r="K114" s="77"/>
       <c r="L114" s="6"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A115" s="195"/>
-      <c r="B115" s="88"/>
-      <c r="C115" s="87"/>
-      <c r="D115" s="87"/>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A115" s="250"/>
+      <c r="B115" s="254"/>
+      <c r="C115" s="241"/>
+      <c r="D115" s="241"/>
       <c r="E115" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F115" s="94"/>
-      <c r="G115" s="94"/>
-      <c r="H115" s="94"/>
-      <c r="I115" s="170">
+      <c r="F115" s="77"/>
+      <c r="G115" s="77"/>
+      <c r="H115" s="77"/>
+      <c r="I115" s="152">
         <v>85.728999999999999</v>
       </c>
-      <c r="J115" s="107">
+      <c r="J115" s="89">
         <v>86.370999999999995</v>
       </c>
-      <c r="K115" s="253">
+      <c r="K115" s="230">
         <v>13.4</v>
       </c>
       <c r="L115" s="63">
         <v>13.507</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A116" s="195"/>
-      <c r="B116" s="88"/>
-      <c r="C116" s="87" t="s">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A116" s="250"/>
+      <c r="B116" s="254"/>
+      <c r="C116" s="241" t="s">
         <v>18</v>
       </c>
       <c r="D116" s="1" t="s">
@@ -5084,175 +5257,191 @@
       <c r="E116" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F116" s="94"/>
-      <c r="G116" s="94"/>
-      <c r="H116" s="94"/>
-      <c r="I116" s="100">
+      <c r="F116" s="77"/>
+      <c r="G116" s="77"/>
+      <c r="H116" s="77"/>
+      <c r="I116" s="82">
         <v>82.212000000000003</v>
       </c>
-      <c r="J116" s="151">
+      <c r="J116" s="133">
         <v>83.031000000000006</v>
       </c>
-      <c r="K116" s="94"/>
+      <c r="K116" s="77"/>
       <c r="L116" s="6"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A117" s="195"/>
-      <c r="B117" s="88"/>
-      <c r="C117" s="87"/>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A117" s="250"/>
+      <c r="B117" s="254"/>
+      <c r="C117" s="241"/>
       <c r="D117" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F117" s="94"/>
-      <c r="G117" s="94"/>
-      <c r="H117" s="94"/>
-      <c r="I117" s="134">
+      <c r="F117" s="77"/>
+      <c r="G117" s="77"/>
+      <c r="H117" s="77"/>
+      <c r="I117" s="116">
         <v>83.31</v>
       </c>
-      <c r="J117" s="177">
+      <c r="J117" s="159">
         <v>84.872</v>
       </c>
-      <c r="K117" s="94"/>
+      <c r="K117" s="77"/>
       <c r="L117" s="6"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A118" s="195"/>
-      <c r="B118" s="88"/>
-      <c r="C118" s="87"/>
-      <c r="D118" s="87" t="s">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A118" s="250"/>
+      <c r="B118" s="254"/>
+      <c r="C118" s="241"/>
+      <c r="D118" s="241" t="s">
         <v>15</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F118" s="94"/>
-      <c r="G118" s="94"/>
-      <c r="H118" s="94"/>
-      <c r="I118" s="168">
+      <c r="F118" s="77"/>
+      <c r="G118" s="77"/>
+      <c r="H118" s="77"/>
+      <c r="I118" s="150">
         <v>83.55</v>
       </c>
-      <c r="J118" s="100">
+      <c r="J118" s="82">
         <v>55.731999999999999</v>
       </c>
-      <c r="K118" s="94"/>
+      <c r="K118" s="77"/>
       <c r="L118" s="6"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A119" s="195"/>
-      <c r="B119" s="88"/>
-      <c r="C119" s="87"/>
-      <c r="D119" s="87"/>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A119" s="250"/>
+      <c r="B119" s="254"/>
+      <c r="C119" s="241"/>
+      <c r="D119" s="241"/>
       <c r="E119" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F119" s="151">
+      <c r="F119" s="133">
         <v>55.137</v>
       </c>
-      <c r="G119" s="94"/>
-      <c r="H119" s="210">
+      <c r="G119" s="77"/>
+      <c r="H119" s="187">
         <v>55.694000000000003</v>
       </c>
-      <c r="I119" s="255">
+      <c r="I119" s="232">
         <v>86.328000000000003</v>
       </c>
-      <c r="J119" s="222">
+      <c r="J119" s="199">
         <v>86.850999999999999</v>
       </c>
-      <c r="K119" s="256">
+      <c r="K119" s="233">
         <v>13.44</v>
       </c>
       <c r="L119" s="63">
         <v>13.507</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A120" s="195"/>
-      <c r="B120" s="88"/>
-      <c r="C120" s="87"/>
-      <c r="D120" s="87"/>
+      <c r="N119">
+        <f t="shared" ref="N119:Q119" si="8">(I119-I120)/I119</f>
+        <v>-1.994717820405887E-2</v>
+      </c>
+      <c r="O119">
+        <f t="shared" si="8"/>
+        <v>-3.0201149094426141E-2</v>
+      </c>
+      <c r="P119">
+        <f t="shared" si="8"/>
+        <v>-2.3809523809523832E-2</v>
+      </c>
+      <c r="Q119">
+        <f t="shared" si="8"/>
+        <v>-3.746205671133488E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A120" s="250"/>
+      <c r="B120" s="254"/>
+      <c r="C120" s="241"/>
+      <c r="D120" s="241"/>
       <c r="E120" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F120" s="94"/>
-      <c r="G120" s="94"/>
-      <c r="H120" s="94"/>
-      <c r="I120" s="252">
+      <c r="F120" s="77"/>
+      <c r="G120" s="77"/>
+      <c r="H120" s="77"/>
+      <c r="I120" s="229">
         <v>88.05</v>
       </c>
-      <c r="J120" s="244">
+      <c r="J120" s="221">
         <v>89.474000000000004</v>
       </c>
-      <c r="K120" s="201">
+      <c r="K120" s="178">
         <v>13.76</v>
       </c>
       <c r="L120" s="30">
         <v>14.013</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A121" s="195"/>
-      <c r="B121" s="88" t="s">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A121" s="250"/>
+      <c r="B121" s="254" t="s">
         <v>27</v>
       </c>
-      <c r="C121" s="87" t="s">
+      <c r="C121" s="241" t="s">
         <v>7</v>
       </c>
-      <c r="D121" s="87" t="s">
+      <c r="D121" s="241" t="s">
         <v>7</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F121" s="118">
+      <c r="F121" s="100">
         <v>56.167000000000002</v>
       </c>
-      <c r="G121" s="94"/>
-      <c r="H121" s="231">
+      <c r="G121" s="77"/>
+      <c r="H121" s="208">
         <v>56.832000000000001</v>
       </c>
-      <c r="I121" s="100">
+      <c r="I121" s="82">
         <v>82.951999999999998</v>
       </c>
-      <c r="J121" s="128">
+      <c r="J121" s="110">
         <v>83.438999999999993</v>
       </c>
-      <c r="K121" s="109">
+      <c r="K121" s="91">
         <v>13.212999999999999</v>
       </c>
       <c r="L121" s="64">
         <v>13.253</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A122" s="195"/>
-      <c r="B122" s="88"/>
-      <c r="C122" s="87"/>
-      <c r="D122" s="87"/>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A122" s="250"/>
+      <c r="B122" s="254"/>
+      <c r="C122" s="241"/>
+      <c r="D122" s="241"/>
       <c r="E122" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F122" s="94"/>
-      <c r="G122" s="94"/>
-      <c r="H122" s="94"/>
-      <c r="I122" s="257">
+      <c r="F122" s="77"/>
+      <c r="G122" s="77"/>
+      <c r="H122" s="77"/>
+      <c r="I122" s="234">
         <v>84.893000000000001</v>
       </c>
-      <c r="J122" s="141">
+      <c r="J122" s="123">
         <v>86.819000000000003</v>
       </c>
-      <c r="K122" s="171">
+      <c r="K122" s="153">
         <v>13.532999999999999</v>
       </c>
       <c r="L122" s="9">
         <v>13.733000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A123" s="195"/>
-      <c r="B123" s="88"/>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A123" s="250"/>
+      <c r="B123" s="254"/>
       <c r="C123" s="1" t="s">
         <v>12</v>
       </c>
@@ -5262,21 +5451,21 @@
       <c r="E123" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F123" s="94"/>
-      <c r="G123" s="94"/>
-      <c r="H123" s="94"/>
-      <c r="I123" s="100">
+      <c r="F123" s="77"/>
+      <c r="G123" s="77"/>
+      <c r="H123" s="77"/>
+      <c r="I123" s="82">
         <v>82.465999999999994</v>
       </c>
-      <c r="J123" s="151">
+      <c r="J123" s="133">
         <v>83.028999999999996</v>
       </c>
-      <c r="K123" s="94"/>
+      <c r="K123" s="77"/>
       <c r="L123" s="6"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A124" s="195"/>
-      <c r="B124" s="88"/>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A124" s="250"/>
+      <c r="B124" s="254"/>
       <c r="C124" s="1" t="s">
         <v>16</v>
       </c>
@@ -5286,70 +5475,70 @@
       <c r="E124" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F124" s="94"/>
-      <c r="G124" s="94"/>
-      <c r="H124" s="94"/>
-      <c r="I124" s="123">
+      <c r="F124" s="77"/>
+      <c r="G124" s="77"/>
+      <c r="H124" s="77"/>
+      <c r="I124" s="105">
         <v>83.7</v>
       </c>
-      <c r="J124" s="109">
+      <c r="J124" s="91">
         <v>84.091999999999999</v>
       </c>
-      <c r="K124" s="94"/>
+      <c r="K124" s="77"/>
       <c r="L124" s="6"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A125" s="195"/>
-      <c r="B125" s="88"/>
-      <c r="C125" s="87" t="s">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A125" s="250"/>
+      <c r="B125" s="254"/>
+      <c r="C125" s="241" t="s">
         <v>17</v>
       </c>
-      <c r="D125" s="87" t="s">
+      <c r="D125" s="241" t="s">
         <v>15</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F125" s="94"/>
-      <c r="G125" s="94"/>
-      <c r="H125" s="94"/>
-      <c r="I125" s="127">
+      <c r="F125" s="77"/>
+      <c r="G125" s="77"/>
+      <c r="H125" s="77"/>
+      <c r="I125" s="109">
         <v>83.2</v>
       </c>
-      <c r="J125" s="209">
+      <c r="J125" s="186">
         <v>83.123999999999995</v>
       </c>
-      <c r="K125" s="94"/>
+      <c r="K125" s="77"/>
       <c r="L125" s="6"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A126" s="195"/>
-      <c r="B126" s="88"/>
-      <c r="C126" s="87"/>
-      <c r="D126" s="87"/>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A126" s="250"/>
+      <c r="B126" s="254"/>
+      <c r="C126" s="241"/>
+      <c r="D126" s="241"/>
       <c r="E126" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F126" s="94"/>
-      <c r="G126" s="94"/>
-      <c r="H126" s="94"/>
-      <c r="I126" s="159">
+      <c r="F126" s="77"/>
+      <c r="G126" s="77"/>
+      <c r="H126" s="77"/>
+      <c r="I126" s="141">
         <v>84.704999999999998</v>
       </c>
-      <c r="J126" s="149">
+      <c r="J126" s="131">
         <v>85.475999999999999</v>
       </c>
-      <c r="K126" s="231">
+      <c r="K126" s="208">
         <v>13.227</v>
       </c>
       <c r="L126" s="44">
         <v>13.347</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A127" s="195"/>
-      <c r="B127" s="88"/>
-      <c r="C127" s="87" t="s">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A127" s="250"/>
+      <c r="B127" s="254"/>
+      <c r="C127" s="241" t="s">
         <v>18</v>
       </c>
       <c r="D127" s="1" t="s">
@@ -5358,171 +5547,187 @@
       <c r="E127" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F127" s="94"/>
-      <c r="G127" s="94"/>
-      <c r="H127" s="94"/>
-      <c r="I127" s="100">
+      <c r="F127" s="77"/>
+      <c r="G127" s="77"/>
+      <c r="H127" s="77"/>
+      <c r="I127" s="82">
         <v>81.551000000000002</v>
       </c>
-      <c r="J127" s="168">
+      <c r="J127" s="150">
         <v>83.539000000000001</v>
       </c>
-      <c r="K127" s="94"/>
+      <c r="K127" s="77"/>
       <c r="L127" s="6"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A128" s="195"/>
-      <c r="B128" s="88"/>
-      <c r="C128" s="87"/>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A128" s="250"/>
+      <c r="B128" s="254"/>
+      <c r="C128" s="241"/>
       <c r="D128" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F128" s="94"/>
-      <c r="G128" s="94"/>
-      <c r="H128" s="94"/>
-      <c r="I128" s="100">
+      <c r="F128" s="77"/>
+      <c r="G128" s="77"/>
+      <c r="H128" s="77"/>
+      <c r="I128" s="82">
         <v>82.125</v>
       </c>
-      <c r="J128" s="100">
+      <c r="J128" s="82">
         <v>82.974999999999994</v>
       </c>
-      <c r="K128" s="94"/>
+      <c r="K128" s="77"/>
       <c r="L128" s="6"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A129" s="195"/>
-      <c r="B129" s="88"/>
-      <c r="C129" s="87"/>
-      <c r="D129" s="87" t="s">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A129" s="250"/>
+      <c r="B129" s="254"/>
+      <c r="C129" s="241"/>
+      <c r="D129" s="241" t="s">
         <v>15</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F129" s="94"/>
-      <c r="G129" s="94"/>
-      <c r="H129" s="94"/>
-      <c r="I129" s="151">
+      <c r="F129" s="77"/>
+      <c r="G129" s="77"/>
+      <c r="H129" s="77"/>
+      <c r="I129" s="133">
         <v>82.992000000000004</v>
       </c>
-      <c r="J129" s="100">
+      <c r="J129" s="82">
         <v>55.682000000000002</v>
       </c>
-      <c r="K129" s="94"/>
+      <c r="K129" s="77"/>
       <c r="L129" s="6"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A130" s="195"/>
-      <c r="B130" s="88"/>
-      <c r="C130" s="87"/>
-      <c r="D130" s="87"/>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A130" s="250"/>
+      <c r="B130" s="254"/>
+      <c r="C130" s="241"/>
+      <c r="D130" s="241"/>
       <c r="E130" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F130" s="94"/>
-      <c r="G130" s="94"/>
-      <c r="H130" s="94"/>
-      <c r="I130" s="234">
+      <c r="F130" s="77"/>
+      <c r="G130" s="77"/>
+      <c r="H130" s="77"/>
+      <c r="I130" s="211">
         <v>86.036000000000001</v>
       </c>
-      <c r="J130" s="238">
+      <c r="J130" s="215">
         <v>86.783000000000001</v>
       </c>
-      <c r="K130" s="202">
+      <c r="K130" s="179">
         <v>13.307</v>
       </c>
       <c r="L130" s="65">
         <v>13.44</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A131" s="195"/>
-      <c r="B131" s="88"/>
-      <c r="C131" s="87"/>
-      <c r="D131" s="87"/>
+      <c r="N130">
+        <f t="shared" ref="N130:Q130" si="9">(I130-I131)/I130</f>
+        <v>-1.9154772420847042E-2</v>
+      </c>
+      <c r="O130">
+        <f t="shared" si="9"/>
+        <v>-2.7182743163983669E-2</v>
+      </c>
+      <c r="P130">
+        <f t="shared" si="9"/>
+        <v>-3.3065303975351283E-2</v>
+      </c>
+      <c r="Q130">
+        <f t="shared" si="9"/>
+        <v>-4.1666666666666706E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A131" s="250"/>
+      <c r="B131" s="254"/>
+      <c r="C131" s="241"/>
+      <c r="D131" s="241"/>
       <c r="E131" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F131" s="94"/>
-      <c r="G131" s="94"/>
-      <c r="H131" s="94"/>
-      <c r="I131" s="258">
+      <c r="F131" s="77"/>
+      <c r="G131" s="77"/>
+      <c r="H131" s="77"/>
+      <c r="I131" s="235">
         <v>87.683999999999997</v>
       </c>
-      <c r="J131" s="224">
+      <c r="J131" s="201">
         <v>89.141999999999996</v>
       </c>
-      <c r="K131" s="247">
+      <c r="K131" s="224">
         <v>13.747</v>
       </c>
       <c r="L131" s="66">
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A132" s="195"/>
-      <c r="B132" s="88" t="s">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A132" s="250"/>
+      <c r="B132" s="254" t="s">
         <v>28</v>
       </c>
-      <c r="C132" s="87" t="s">
+      <c r="C132" s="241" t="s">
         <v>7</v>
       </c>
-      <c r="D132" s="87" t="s">
+      <c r="D132" s="241" t="s">
         <v>7</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F132" s="204">
+      <c r="F132" s="181">
         <v>56.271999999999998</v>
       </c>
-      <c r="G132" s="94"/>
-      <c r="H132" s="122">
+      <c r="G132" s="77"/>
+      <c r="H132" s="104">
         <v>56.514000000000003</v>
       </c>
-      <c r="I132" s="206">
+      <c r="I132" s="183">
         <v>83.858999999999995</v>
       </c>
-      <c r="J132" s="223">
+      <c r="J132" s="200">
         <v>84.625</v>
       </c>
-      <c r="K132" s="203">
+      <c r="K132" s="180">
         <v>13.28</v>
       </c>
       <c r="L132" s="65">
         <v>13.44</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A133" s="195"/>
-      <c r="B133" s="88"/>
-      <c r="C133" s="87"/>
-      <c r="D133" s="87"/>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A133" s="250"/>
+      <c r="B133" s="254"/>
+      <c r="C133" s="241"/>
+      <c r="D133" s="241"/>
       <c r="E133" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F133" s="94"/>
-      <c r="G133" s="94"/>
-      <c r="H133" s="94"/>
-      <c r="I133" s="197">
+      <c r="F133" s="77"/>
+      <c r="G133" s="77"/>
+      <c r="H133" s="77"/>
+      <c r="I133" s="174">
         <v>85.683999999999997</v>
       </c>
-      <c r="J133" s="200">
+      <c r="J133" s="177">
         <v>87.132000000000005</v>
       </c>
-      <c r="K133" s="136">
+      <c r="K133" s="118">
         <v>13.64</v>
       </c>
       <c r="L133" s="67">
         <v>13.853</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A134" s="195"/>
-      <c r="B134" s="88"/>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A134" s="250"/>
+      <c r="B134" s="254"/>
       <c r="C134" s="1" t="s">
         <v>12</v>
       </c>
@@ -5532,25 +5737,25 @@
       <c r="E134" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F134" s="94"/>
-      <c r="G134" s="94"/>
-      <c r="H134" s="94"/>
-      <c r="I134" s="117">
+      <c r="F134" s="77"/>
+      <c r="G134" s="77"/>
+      <c r="H134" s="77"/>
+      <c r="I134" s="99">
         <v>83.251999999999995</v>
       </c>
-      <c r="J134" s="202">
+      <c r="J134" s="179">
         <v>84.480999999999995</v>
       </c>
-      <c r="K134" s="100">
+      <c r="K134" s="82">
         <v>12.773</v>
       </c>
       <c r="L134" s="39">
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A135" s="195"/>
-      <c r="B135" s="88"/>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A135" s="250"/>
+      <c r="B135" s="254"/>
       <c r="C135" s="1" t="s">
         <v>16</v>
       </c>
@@ -5560,70 +5765,70 @@
       <c r="E135" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F135" s="94"/>
-      <c r="G135" s="94"/>
-      <c r="H135" s="94"/>
-      <c r="I135" s="207">
+      <c r="F135" s="77"/>
+      <c r="G135" s="77"/>
+      <c r="H135" s="77"/>
+      <c r="I135" s="184">
         <v>83.888000000000005</v>
       </c>
-      <c r="J135" s="207">
+      <c r="J135" s="184">
         <v>83.918999999999997</v>
       </c>
-      <c r="K135" s="94"/>
+      <c r="K135" s="77"/>
       <c r="L135" s="6"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A136" s="195"/>
-      <c r="B136" s="88"/>
-      <c r="C136" s="87" t="s">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A136" s="250"/>
+      <c r="B136" s="254"/>
+      <c r="C136" s="241" t="s">
         <v>17</v>
       </c>
-      <c r="D136" s="87" t="s">
+      <c r="D136" s="241" t="s">
         <v>15</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F136" s="94"/>
-      <c r="G136" s="94"/>
-      <c r="H136" s="94"/>
-      <c r="I136" s="168">
+      <c r="F136" s="77"/>
+      <c r="G136" s="77"/>
+      <c r="H136" s="77"/>
+      <c r="I136" s="150">
         <v>83.528000000000006</v>
       </c>
-      <c r="J136" s="168">
+      <c r="J136" s="150">
         <v>83.570999999999998</v>
       </c>
-      <c r="K136" s="94"/>
+      <c r="K136" s="77"/>
       <c r="L136" s="6"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A137" s="195"/>
-      <c r="B137" s="88"/>
-      <c r="C137" s="87"/>
-      <c r="D137" s="87"/>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A137" s="250"/>
+      <c r="B137" s="254"/>
+      <c r="C137" s="241"/>
+      <c r="D137" s="241"/>
       <c r="E137" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F137" s="94"/>
-      <c r="G137" s="94"/>
-      <c r="H137" s="94"/>
-      <c r="I137" s="196">
+      <c r="F137" s="77"/>
+      <c r="G137" s="77"/>
+      <c r="H137" s="77"/>
+      <c r="I137" s="173">
         <v>85.396000000000001</v>
       </c>
-      <c r="J137" s="243">
+      <c r="J137" s="220">
         <v>85.972999999999999</v>
       </c>
-      <c r="K137" s="203">
+      <c r="K137" s="180">
         <v>13.28</v>
       </c>
       <c r="L137" s="68">
         <v>13.493</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A138" s="195"/>
-      <c r="B138" s="88"/>
-      <c r="C138" s="87" t="s">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A138" s="250"/>
+      <c r="B138" s="254"/>
+      <c r="C138" s="241" t="s">
         <v>18</v>
       </c>
       <c r="D138" s="1" t="s">
@@ -5632,155 +5837,171 @@
       <c r="E138" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F138" s="94"/>
-      <c r="G138" s="94"/>
-      <c r="H138" s="94"/>
-      <c r="I138" s="100">
+      <c r="F138" s="77"/>
+      <c r="G138" s="77"/>
+      <c r="H138" s="77"/>
+      <c r="I138" s="82">
         <v>82.03</v>
       </c>
-      <c r="J138" s="206">
+      <c r="J138" s="183">
         <v>83.846000000000004</v>
       </c>
-      <c r="K138" s="94"/>
+      <c r="K138" s="77"/>
       <c r="L138" s="6"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A139" s="195"/>
-      <c r="B139" s="88"/>
-      <c r="C139" s="87"/>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A139" s="250"/>
+      <c r="B139" s="254"/>
+      <c r="C139" s="241"/>
       <c r="D139" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F139" s="94"/>
-      <c r="G139" s="94"/>
-      <c r="H139" s="94"/>
-      <c r="I139" s="100">
+      <c r="F139" s="77"/>
+      <c r="G139" s="77"/>
+      <c r="H139" s="77"/>
+      <c r="I139" s="82">
         <v>82.332999999999998</v>
       </c>
-      <c r="J139" s="100">
+      <c r="J139" s="82">
         <v>82.986999999999995</v>
       </c>
-      <c r="K139" s="94"/>
+      <c r="K139" s="77"/>
       <c r="L139" s="6"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A140" s="195"/>
-      <c r="B140" s="88"/>
-      <c r="C140" s="87"/>
-      <c r="D140" s="87" t="s">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A140" s="250"/>
+      <c r="B140" s="254"/>
+      <c r="C140" s="241"/>
+      <c r="D140" s="241" t="s">
         <v>15</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F140" s="100">
+      <c r="F140" s="82">
         <v>54.753</v>
       </c>
-      <c r="G140" s="94"/>
-      <c r="H140" s="100">
+      <c r="G140" s="77"/>
+      <c r="H140" s="82">
         <v>55.05</v>
       </c>
-      <c r="I140" s="219">
+      <c r="I140" s="196">
         <v>86.435000000000002</v>
       </c>
-      <c r="J140" s="241">
+      <c r="J140" s="218">
         <v>87.66</v>
       </c>
-      <c r="K140" s="208">
+      <c r="K140" s="185">
         <v>13.387</v>
       </c>
       <c r="L140" s="40">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A141" s="195"/>
-      <c r="B141" s="88"/>
-      <c r="C141" s="87"/>
-      <c r="D141" s="87"/>
+      <c r="N140">
+        <f t="shared" ref="N140:Q140" si="10">(I140-I141)/I140</f>
+        <v>-1.7759009660438439E-2</v>
+      </c>
+      <c r="O140">
+        <f t="shared" si="10"/>
+        <v>-2.4344056582249606E-2</v>
+      </c>
+      <c r="P140">
+        <f t="shared" si="10"/>
+        <v>-3.3838798834690327E-2</v>
+      </c>
+      <c r="Q140">
+        <f t="shared" si="10"/>
+        <v>-2.8455882352941209E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A141" s="250"/>
+      <c r="B141" s="254"/>
+      <c r="C141" s="241"/>
+      <c r="D141" s="241"/>
       <c r="E141" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F141" s="94"/>
-      <c r="G141" s="94"/>
-      <c r="H141" s="94"/>
-      <c r="I141" s="250">
+      <c r="F141" s="77"/>
+      <c r="G141" s="77"/>
+      <c r="H141" s="77"/>
+      <c r="I141" s="227">
         <v>87.97</v>
       </c>
-      <c r="J141" s="259">
+      <c r="J141" s="236">
         <v>89.793999999999997</v>
       </c>
-      <c r="K141" s="140">
+      <c r="K141" s="122">
         <v>13.84</v>
       </c>
       <c r="L141" s="37">
         <v>13.987</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A142" s="195"/>
-      <c r="B142" s="88" t="s">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A142" s="250"/>
+      <c r="B142" s="254" t="s">
         <v>29</v>
       </c>
-      <c r="C142" s="87" t="s">
+      <c r="C142" s="241" t="s">
         <v>7</v>
       </c>
-      <c r="D142" s="87" t="s">
+      <c r="D142" s="241" t="s">
         <v>7</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F142" s="128">
+      <c r="F142" s="110">
         <v>55.85</v>
       </c>
-      <c r="G142" s="94"/>
-      <c r="H142" s="207">
+      <c r="G142" s="77"/>
+      <c r="H142" s="184">
         <v>56.375999999999998</v>
       </c>
-      <c r="I142" s="109">
+      <c r="I142" s="91">
         <v>84.09</v>
       </c>
-      <c r="J142" s="121">
+      <c r="J142" s="103">
         <v>86.088999999999999</v>
       </c>
-      <c r="K142" s="202">
+      <c r="K142" s="179">
         <v>13.307</v>
       </c>
       <c r="L142" s="69">
         <v>13.64</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A143" s="195"/>
-      <c r="B143" s="88"/>
-      <c r="C143" s="87"/>
-      <c r="D143" s="87"/>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A143" s="250"/>
+      <c r="B143" s="254"/>
+      <c r="C143" s="241"/>
+      <c r="D143" s="241"/>
       <c r="E143" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F143" s="94"/>
-      <c r="G143" s="94"/>
-      <c r="H143" s="94"/>
-      <c r="I143" s="239">
+      <c r="F143" s="77"/>
+      <c r="G143" s="77"/>
+      <c r="H143" s="77"/>
+      <c r="I143" s="216">
         <v>85.308999999999997</v>
       </c>
-      <c r="J143" s="124">
+      <c r="J143" s="106">
         <v>87.926000000000002</v>
       </c>
-      <c r="K143" s="170">
+      <c r="K143" s="152">
         <v>13.627000000000001</v>
       </c>
       <c r="L143" s="31">
         <v>14.04</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A144" s="195"/>
-      <c r="B144" s="88"/>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A144" s="250"/>
+      <c r="B144" s="254"/>
       <c r="C144" s="1" t="s">
         <v>12</v>
       </c>
@@ -5790,25 +6011,25 @@
       <c r="E144" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F144" s="94"/>
-      <c r="G144" s="94"/>
-      <c r="H144" s="94"/>
-      <c r="I144" s="123">
+      <c r="F144" s="77"/>
+      <c r="G144" s="77"/>
+      <c r="H144" s="77"/>
+      <c r="I144" s="105">
         <v>83.674999999999997</v>
       </c>
-      <c r="J144" s="207">
+      <c r="J144" s="184">
         <v>83.893000000000001</v>
       </c>
-      <c r="K144" s="100">
+      <c r="K144" s="82">
         <v>12.893000000000001</v>
       </c>
       <c r="L144" s="25">
         <v>12.946999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A145" s="195"/>
-      <c r="B145" s="88"/>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A145" s="250"/>
+      <c r="B145" s="254"/>
       <c r="C145" s="1" t="s">
         <v>16</v>
       </c>
@@ -5818,74 +6039,74 @@
       <c r="E145" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F145" s="94"/>
-      <c r="G145" s="94"/>
-      <c r="H145" s="94"/>
-      <c r="I145" s="207">
+      <c r="F145" s="77"/>
+      <c r="G145" s="77"/>
+      <c r="H145" s="77"/>
+      <c r="I145" s="184">
         <v>83.956999999999994</v>
       </c>
-      <c r="J145" s="207">
+      <c r="J145" s="184">
         <v>83.927000000000007</v>
       </c>
-      <c r="K145" s="94"/>
+      <c r="K145" s="77"/>
       <c r="L145" s="6"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A146" s="195"/>
-      <c r="B146" s="88"/>
-      <c r="C146" s="87" t="s">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A146" s="250"/>
+      <c r="B146" s="254"/>
+      <c r="C146" s="241" t="s">
         <v>17</v>
       </c>
-      <c r="D146" s="87" t="s">
+      <c r="D146" s="241" t="s">
         <v>15</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F146" s="94"/>
-      <c r="G146" s="94"/>
-      <c r="H146" s="94"/>
-      <c r="I146" s="205">
+      <c r="F146" s="77"/>
+      <c r="G146" s="77"/>
+      <c r="H146" s="77"/>
+      <c r="I146" s="182">
         <v>83.576999999999998</v>
       </c>
-      <c r="J146" s="204">
+      <c r="J146" s="181">
         <v>83.793000000000006</v>
       </c>
-      <c r="K146" s="100">
+      <c r="K146" s="82">
         <v>12.907</v>
       </c>
       <c r="L146" s="38">
         <v>13.013</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A147" s="195"/>
-      <c r="B147" s="88"/>
-      <c r="C147" s="87"/>
-      <c r="D147" s="87"/>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A147" s="250"/>
+      <c r="B147" s="254"/>
+      <c r="C147" s="241"/>
+      <c r="D147" s="241"/>
       <c r="E147" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F147" s="94"/>
-      <c r="G147" s="94"/>
-      <c r="H147" s="94"/>
-      <c r="I147" s="149">
+      <c r="F147" s="77"/>
+      <c r="G147" s="77"/>
+      <c r="H147" s="77"/>
+      <c r="I147" s="131">
         <v>85.524000000000001</v>
       </c>
-      <c r="J147" s="164">
+      <c r="J147" s="146">
         <v>86.135999999999996</v>
       </c>
-      <c r="K147" s="231">
+      <c r="K147" s="208">
         <v>13.227</v>
       </c>
       <c r="L147" s="65">
         <v>13.44</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A148" s="195"/>
-      <c r="B148" s="88"/>
-      <c r="C148" s="87" t="s">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A148" s="250"/>
+      <c r="B148" s="254"/>
+      <c r="C148" s="241" t="s">
         <v>18</v>
       </c>
       <c r="D148" s="1" t="s">
@@ -5894,73 +6115,89 @@
       <c r="E148" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F148" s="94"/>
-      <c r="G148" s="94"/>
-      <c r="H148" s="94"/>
-      <c r="I148" s="100">
+      <c r="F148" s="77"/>
+      <c r="G148" s="77"/>
+      <c r="H148" s="77"/>
+      <c r="I148" s="82">
         <v>81.819999999999993</v>
       </c>
-      <c r="J148" s="128">
+      <c r="J148" s="110">
         <v>83.513000000000005</v>
       </c>
-      <c r="K148" s="94"/>
+      <c r="K148" s="77"/>
       <c r="L148" s="6"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A149" s="195"/>
-      <c r="B149" s="88"/>
-      <c r="C149" s="87"/>
-      <c r="D149" s="87" t="s">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A149" s="250"/>
+      <c r="B149" s="254"/>
+      <c r="C149" s="241"/>
+      <c r="D149" s="241" t="s">
         <v>15</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F149" s="94"/>
-      <c r="G149" s="94"/>
-      <c r="H149" s="94"/>
-      <c r="I149" s="151">
+      <c r="F149" s="77"/>
+      <c r="G149" s="77"/>
+      <c r="H149" s="77"/>
+      <c r="I149" s="133">
         <v>83.06</v>
       </c>
-      <c r="J149" s="100">
+      <c r="J149" s="82">
         <v>54.173999999999999</v>
       </c>
-      <c r="K149" s="94"/>
+      <c r="K149" s="77"/>
       <c r="L149" s="6"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A150" s="195"/>
-      <c r="B150" s="88"/>
-      <c r="C150" s="87"/>
-      <c r="D150" s="87"/>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A150" s="250"/>
+      <c r="B150" s="254"/>
+      <c r="C150" s="241"/>
+      <c r="D150" s="241"/>
       <c r="E150" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F150" s="151">
+      <c r="F150" s="133">
         <v>55.201000000000001</v>
       </c>
-      <c r="G150" s="94"/>
-      <c r="H150" s="117">
+      <c r="G150" s="77"/>
+      <c r="H150" s="99">
         <v>55.442</v>
       </c>
-      <c r="I150" s="238">
+      <c r="I150" s="215">
         <v>86.781999999999996</v>
       </c>
-      <c r="J150" s="260">
+      <c r="J150" s="237">
         <v>87.894999999999996</v>
       </c>
-      <c r="K150" s="177">
+      <c r="K150" s="159">
         <v>13.413</v>
       </c>
       <c r="L150" s="70">
         <v>13.613</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A151" s="195"/>
-      <c r="B151" s="90"/>
-      <c r="C151" s="89"/>
-      <c r="D151" s="89"/>
+      <c r="N150">
+        <f t="shared" ref="N150:Q150" si="11">(I150-I151)/I150</f>
+        <v>-1.231822267290455E-2</v>
+      </c>
+      <c r="O150">
+        <f t="shared" si="11"/>
+        <v>-2.3357415097559557E-2</v>
+      </c>
+      <c r="P150">
+        <f t="shared" si="11"/>
+        <v>-3.384775963617391E-2</v>
+      </c>
+      <c r="Q150">
+        <f t="shared" si="11"/>
+        <v>-2.9383677367222534E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A151" s="250"/>
+      <c r="B151" s="255"/>
+      <c r="C151" s="242"/>
+      <c r="D151" s="242"/>
       <c r="E151" s="71" t="s">
         <v>11</v>
       </c>
@@ -5980,67 +6217,67 @@
         <v>14.013</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A152" s="195"/>
-      <c r="B152" s="99" t="s">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A152" s="250"/>
+      <c r="B152" s="252" t="s">
         <v>21</v>
       </c>
-      <c r="C152" s="87" t="s">
+      <c r="C152" s="241" t="s">
         <v>7</v>
       </c>
-      <c r="D152" s="87" t="s">
+      <c r="D152" s="241" t="s">
         <v>7</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F152" s="168">
+      <c r="F152" s="150">
         <v>55.87</v>
       </c>
-      <c r="G152" s="94"/>
-      <c r="H152" s="206">
+      <c r="G152" s="77"/>
+      <c r="H152" s="183">
         <v>56.328000000000003</v>
       </c>
-      <c r="I152" s="231">
+      <c r="I152" s="208">
         <v>84.156999999999996</v>
       </c>
-      <c r="J152" s="170">
+      <c r="J152" s="152">
         <v>85.75</v>
       </c>
-      <c r="K152" s="231">
+      <c r="K152" s="208">
         <v>13.227</v>
       </c>
       <c r="L152" s="35">
         <v>13.532999999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A153" s="195"/>
-      <c r="B153" s="92"/>
-      <c r="C153" s="87"/>
-      <c r="D153" s="87"/>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A153" s="250"/>
+      <c r="B153" s="244"/>
+      <c r="C153" s="241"/>
+      <c r="D153" s="241"/>
       <c r="E153" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F153" s="94"/>
-      <c r="G153" s="94"/>
-      <c r="H153" s="94"/>
-      <c r="I153" s="196">
+      <c r="F153" s="77"/>
+      <c r="G153" s="77"/>
+      <c r="H153" s="77"/>
+      <c r="I153" s="173">
         <v>85.382000000000005</v>
       </c>
-      <c r="J153" s="241">
+      <c r="J153" s="218">
         <v>87.653000000000006</v>
       </c>
-      <c r="K153" s="170">
+      <c r="K153" s="152">
         <v>13.627000000000001</v>
       </c>
       <c r="L153" s="37">
         <v>13.987</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A154" s="195"/>
-      <c r="B154" s="92"/>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A154" s="250"/>
+      <c r="B154" s="244"/>
       <c r="C154" s="1" t="s">
         <v>12</v>
       </c>
@@ -6050,25 +6287,25 @@
       <c r="E154" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F154" s="94"/>
-      <c r="G154" s="94"/>
-      <c r="H154" s="94"/>
-      <c r="I154" s="118">
+      <c r="F154" s="77"/>
+      <c r="G154" s="77"/>
+      <c r="H154" s="77"/>
+      <c r="I154" s="100">
         <v>83.734999999999999</v>
       </c>
-      <c r="J154" s="122">
+      <c r="J154" s="104">
         <v>84.024000000000001</v>
       </c>
-      <c r="K154" s="100">
+      <c r="K154" s="82">
         <v>12.88</v>
       </c>
       <c r="L154" s="38">
         <v>13.013</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A155" s="195"/>
-      <c r="B155" s="92"/>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A155" s="250"/>
+      <c r="B155" s="244"/>
       <c r="C155" s="1" t="s">
         <v>16</v>
       </c>
@@ -6078,74 +6315,74 @@
       <c r="E155" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F155" s="94"/>
-      <c r="G155" s="94"/>
-      <c r="H155" s="94"/>
-      <c r="I155" s="207">
+      <c r="F155" s="77"/>
+      <c r="G155" s="77"/>
+      <c r="H155" s="77"/>
+      <c r="I155" s="184">
         <v>83.891000000000005</v>
       </c>
-      <c r="J155" s="123">
+      <c r="J155" s="105">
         <v>83.700999999999993</v>
       </c>
-      <c r="K155" s="94"/>
+      <c r="K155" s="77"/>
       <c r="L155" s="6"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A156" s="195"/>
-      <c r="B156" s="92"/>
-      <c r="C156" s="87" t="s">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A156" s="250"/>
+      <c r="B156" s="244"/>
+      <c r="C156" s="241" t="s">
         <v>17</v>
       </c>
-      <c r="D156" s="87" t="s">
+      <c r="D156" s="241" t="s">
         <v>15</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F156" s="94"/>
-      <c r="G156" s="94"/>
-      <c r="H156" s="94"/>
-      <c r="I156" s="205">
+      <c r="F156" s="77"/>
+      <c r="G156" s="77"/>
+      <c r="H156" s="77"/>
+      <c r="I156" s="182">
         <v>83.605000000000004</v>
       </c>
-      <c r="J156" s="204">
+      <c r="J156" s="181">
         <v>83.813999999999993</v>
       </c>
-      <c r="K156" s="100">
+      <c r="K156" s="82">
         <v>12.893000000000001</v>
       </c>
       <c r="L156" s="39">
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A157" s="195"/>
-      <c r="B157" s="92"/>
-      <c r="C157" s="87"/>
-      <c r="D157" s="87"/>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A157" s="250"/>
+      <c r="B157" s="244"/>
+      <c r="C157" s="241"/>
+      <c r="D157" s="241"/>
       <c r="E157" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F157" s="94"/>
-      <c r="G157" s="94"/>
-      <c r="H157" s="94"/>
-      <c r="I157" s="196">
+      <c r="F157" s="77"/>
+      <c r="G157" s="77"/>
+      <c r="H157" s="77"/>
+      <c r="I157" s="173">
         <v>85.403000000000006</v>
       </c>
-      <c r="J157" s="144">
+      <c r="J157" s="126">
         <v>86.224000000000004</v>
       </c>
-      <c r="K157" s="122">
+      <c r="K157" s="104">
         <v>13.2</v>
       </c>
       <c r="L157" s="21">
         <v>13.452999999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A158" s="195"/>
-      <c r="B158" s="92"/>
-      <c r="C158" s="87" t="s">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A158" s="250"/>
+      <c r="B158" s="244"/>
+      <c r="C158" s="241" t="s">
         <v>18</v>
       </c>
       <c r="D158" s="1" t="s">
@@ -6154,103 +6391,183 @@
       <c r="E158" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F158" s="94"/>
-      <c r="G158" s="94"/>
-      <c r="H158" s="94"/>
-      <c r="I158" s="100">
+      <c r="F158" s="77"/>
+      <c r="G158" s="77"/>
+      <c r="H158" s="77"/>
+      <c r="I158" s="82">
         <v>81.841999999999999</v>
       </c>
-      <c r="J158" s="151">
+      <c r="J158" s="133">
         <v>83.037999999999997</v>
       </c>
-      <c r="K158" s="94"/>
+      <c r="K158" s="77"/>
       <c r="L158" s="6"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A159" s="195"/>
-      <c r="B159" s="92"/>
-      <c r="C159" s="87"/>
-      <c r="D159" s="87" t="s">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A159" s="250"/>
+      <c r="B159" s="244"/>
+      <c r="C159" s="241"/>
+      <c r="D159" s="241" t="s">
         <v>15</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F159" s="94"/>
-      <c r="G159" s="94"/>
-      <c r="H159" s="94"/>
-      <c r="I159" s="117">
+      <c r="F159" s="77"/>
+      <c r="G159" s="77"/>
+      <c r="H159" s="77"/>
+      <c r="I159" s="99">
         <v>83.281000000000006</v>
       </c>
-      <c r="J159" s="100">
+      <c r="J159" s="82">
         <v>54.314999999999998</v>
       </c>
-      <c r="K159" s="94"/>
+      <c r="K159" s="77"/>
       <c r="L159" s="6"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A160" s="195"/>
-      <c r="B160" s="92"/>
-      <c r="C160" s="87"/>
-      <c r="D160" s="87"/>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A160" s="250"/>
+      <c r="B160" s="244"/>
+      <c r="C160" s="241"/>
+      <c r="D160" s="241"/>
       <c r="E160" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F160" s="100">
+      <c r="F160" s="82">
         <v>54.765000000000001</v>
       </c>
-      <c r="G160" s="94"/>
-      <c r="H160" s="151">
+      <c r="G160" s="77"/>
+      <c r="H160" s="133">
         <v>55.176000000000002</v>
       </c>
-      <c r="I160" s="97">
+      <c r="I160" s="80">
         <v>86.656000000000006</v>
       </c>
-      <c r="J160" s="95">
+      <c r="J160" s="78">
         <v>87.856999999999999</v>
       </c>
-      <c r="K160" s="223">
+      <c r="K160" s="200">
         <v>13.347</v>
       </c>
       <c r="L160" s="40">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A161" s="261"/>
-      <c r="B161" s="262"/>
-      <c r="C161" s="89"/>
-      <c r="D161" s="89"/>
+      <c r="N160">
+        <f t="shared" ref="N160:Q160" si="12">(I160-I161)/I160</f>
+        <v>-1.250923190546516E-2</v>
+      </c>
+      <c r="O160">
+        <f t="shared" si="12"/>
+        <v>-2.4448820241984089E-2</v>
+      </c>
+      <c r="P160">
+        <f t="shared" si="12"/>
+        <v>-3.7911141080392619E-2</v>
+      </c>
+      <c r="Q160">
+        <f t="shared" si="12"/>
+        <v>-3.0367647058823548E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A161" s="251"/>
+      <c r="B161" s="253"/>
+      <c r="C161" s="242"/>
+      <c r="D161" s="242"/>
       <c r="E161" s="71" t="s">
         <v>11</v>
       </c>
       <c r="F161" s="72"/>
       <c r="G161" s="72"/>
       <c r="H161" s="72"/>
-      <c r="I161" s="263">
+      <c r="I161" s="238">
         <v>87.74</v>
       </c>
-      <c r="J161" s="264">
+      <c r="J161" s="239">
         <v>90.004999999999995</v>
       </c>
-      <c r="K161" s="265">
+      <c r="K161" s="240">
         <v>13.853</v>
       </c>
       <c r="L161" s="76">
         <v>14.013</v>
       </c>
     </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N165">
+        <f>AVERAGE(N19:Q160)</f>
+        <v>2.3866345383662746E-3</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C148:C151"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D118:D120"/>
+    <mergeCell ref="D159:D161"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="D156:D157"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="C158:C161"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="B75:B86"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A3:A30"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="B3:B30"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B110:B120"/>
+    <mergeCell ref="C23:C30"/>
+    <mergeCell ref="C94:C98"/>
+    <mergeCell ref="C53:C60"/>
+    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="C105:C109"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D107:D109"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="B121:B131"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="D129:D131"/>
+    <mergeCell ref="B61:B74"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="C116:C120"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C75:C77"/>
     <mergeCell ref="C156:C157"/>
     <mergeCell ref="C69:C74"/>
     <mergeCell ref="B31:B33"/>
@@ -6275,74 +6592,16 @@
     <mergeCell ref="C87:C89"/>
     <mergeCell ref="D140:D141"/>
     <mergeCell ref="C127:C131"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C148:C151"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="C110:C111"/>
     <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="B121:B131"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="D129:D131"/>
-    <mergeCell ref="B61:B74"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="C116:C120"/>
-    <mergeCell ref="C158:C161"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="B75:B86"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="A3:A30"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="B3:B30"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B110:B120"/>
-    <mergeCell ref="C23:C30"/>
-    <mergeCell ref="C94:C98"/>
-    <mergeCell ref="C53:C60"/>
-    <mergeCell ref="C47:C52"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="C105:C109"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D96:D98"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D107:D109"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="D156:D157"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="D146:D147"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D118:D120"/>
-    <mergeCell ref="D159:D161"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D24:D25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
